--- a/data/Prosjekter.xlsx
+++ b/data/Prosjekter.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100304\prosjekt\JKS_modell\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DED618-0C12-429E-80A8-990E9C7FCB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E86CB1E-E0BE-4BAD-BDA0-04D8E54A17C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProsjektData" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="4" r:id="rId2"/>
     <sheet name="Tabell prisvekst" sheetId="2" r:id="rId3"/>
     <sheet name="Tabell lønnsvekst" sheetId="3" r:id="rId4"/>
+    <sheet name="Befolkningsfremskrivinger" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="225">
   <si>
     <t>FO_ARBEID</t>
   </si>
@@ -564,6 +565,156 @@
   </si>
   <si>
     <t>TestProsjekt</t>
+  </si>
+  <si>
+    <t>https://www.moreforsk.no/publikasjoner/rapporter/transportokonomi/nye-tidsverdier-i-samfunnsokonomiske-beregninger-alternative-vurderinger-basert-pa-analyser-av-to-vegprosjekter/1094/3425/</t>
+  </si>
+  <si>
+    <t>(Antar samme elastisitet som tjenestereisende)</t>
+  </si>
+  <si>
+    <t>Bruker gjennomsnittlig elastisiteter for generaliserte kostnader</t>
+  </si>
+  <si>
+    <t>Region (Bruk header name fra "Befolkningsfremskrivinger.xlxs")</t>
+  </si>
+  <si>
+    <t>Tid</t>
+  </si>
+  <si>
+    <t>Agder_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Agder_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Agder_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Akershus_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Akershus_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Akershus_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Buskerud_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Buskerud_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Buskerud_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Finnmark - Finnmárku - Finmarkku_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Finnmark - Finnmárku - Finmarkku_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Finnmark - Finnmárku - Finmarkku_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Innlandet_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Innlandet_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Innlandet_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Møre og Romsdal_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Møre og Romsdal_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Møre og Romsdal_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Nordland - Nordlánnda_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Nordland - Nordlánnda_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Nordland - Nordlánnda_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Oslo_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Oslo_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Oslo_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Rogaland_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Rogaland_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Rogaland_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Telemark_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Telemark_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Telemark_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Troms - Romsa - Tromssa_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Troms - Romsa - Tromssa_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Troms - Romsa - Tromssa_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Trøndelag - Trööndelage_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Trøndelag - Trööndelage_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Trøndelag - Trööndelage_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Vestfold_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Vestfold_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Vestfold_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Vestland_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Vestland_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Vestland_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Østfold_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Østfold_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Østfold_Lav nasjonal vekst (LLML)</t>
   </si>
 </sst>
 </file>
@@ -1028,13 +1179,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1960,7 @@
       <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="18">
         <v>0</v>
       </c>
       <c r="C49" s="15"/>
@@ -1825,7 +1976,7 @@
       <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="18">
         <v>0</v>
       </c>
       <c r="C50" s="15"/>
@@ -1871,11 +2022,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B53" s="15">
-        <f>B6 /SUM(B5:B10)</f>
-        <v>7.3297415570944643E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -1888,12 +2038,9 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="15">
-        <f>B13 /SUM(B12:B17)</f>
-        <v>7.0483519477196152E-2</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -1905,10 +2052,11 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55" s="15">
-        <v>0.2</v>
+        <f>B6 /SUM(B5:B10)</f>
+        <v>7.3297415570944643E-2</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -1921,10 +2069,11 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B56" s="15">
-        <v>0.2</v>
+        <f>B13 /SUM(B12:B17)</f>
+        <v>7.0483519477196152E-2</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -1937,11 +2086,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B57" s="15">
-        <f>0.15/(0.11+0.15+1)</f>
-        <v>0.11904761904761904</v>
+        <v>0.2</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -1954,10 +2102,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B58" s="15">
-        <v>-1.2</v>
+        <v>0.2</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -1970,10 +2118,11 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59" s="15">
-        <v>-1</v>
+        <f>0.15/(0.11+0.15+1)</f>
+        <v>0.11904761904761904</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -2069,10 +2218,11 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B65" s="15">
-        <v>0</v>
+        <f>SUM(B7:B10) /SUM(B5:B10)</f>
+        <v>0.64487099110572144</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -2085,10 +2235,11 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B66" s="15">
-        <v>0</v>
+        <f>SUM(B14:B17) /SUM(B12:B17)</f>
+        <v>0.66651769368797886</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -2101,11 +2252,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B67" s="15">
-        <f>SUM(B7:B10) /SUM(B5:B10)</f>
-        <v>0.64487099110572144</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -2118,11 +2268,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B68" s="15">
-        <f>SUM(B14:B17) /SUM(B12:B17)</f>
-        <v>0.66651769368797886</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -2135,10 +2284,11 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B69" s="15">
-        <v>0.56999999999999995</v>
+        <f>1/(0.11+0.15+1)</f>
+        <v>0.79365079365079361</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
@@ -2151,10 +2301,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="15">
-        <v>0.56999999999999995</v>
+        <v>171</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -2167,11 +2317,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="15">
-        <f>1/(0.11+0.15+1)</f>
-        <v>0.79365079365079361</v>
+        <v>59</v>
+      </c>
+      <c r="B71" s="13">
+        <v>-0.46</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -2184,10 +2333,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" s="15">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B72" s="13">
+        <v>-0.46</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -2200,10 +2349,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="15">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="B73" s="13">
+        <v>-0.34</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -2216,10 +2365,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" s="15">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B74" s="13">
+        <v>-0.34</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2232,10 +2381,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="15">
-        <v>7.0000000000000001E-3</v>
+        <v>61</v>
+      </c>
+      <c r="B75" s="13">
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -2248,10 +2397,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="15">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B76" s="13">
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -2264,26 +2413,26 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="18">
-        <v>470</v>
-      </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="B77" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" s="18">
-        <v>85</v>
+        <v>470</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -2296,10 +2445,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B79" s="18">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
@@ -2312,10 +2461,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B80" s="18">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
@@ -2328,10 +2477,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B81" s="18">
-        <v>85</v>
+        <v>470</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -2344,10 +2493,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B82" s="18">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -2360,90 +2509,90 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83">
-        <v>530</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B83" s="18">
+        <v>70</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B84">
-        <v>229</v>
+        <v>530</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B85">
-        <v>135</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B86">
-        <v>530</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B87">
-        <v>229</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B88">
-        <v>135</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89" s="18">
-        <v>754</v>
-      </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="B89">
+        <v>135</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>69</v>
-      </c>
-      <c r="B90" s="13">
-        <v>0.37</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="B90" s="18">
+        <v>754</v>
+      </c>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B91" s="13">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -2456,10 +2605,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="13">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -2472,10 +2621,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93" s="13">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -2488,10 +2637,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="13">
-        <v>5.7000000000000002E-2</v>
+        <v>0.63</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -2504,10 +2653,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="13">
-        <v>0.25</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -2520,10 +2669,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" s="13">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -2536,10 +2685,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" s="13">
-        <v>0.63</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -2552,10 +2701,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" s="13">
-        <v>1.96</v>
+        <v>0.63</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -2568,10 +2717,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="13">
-        <v>1.28</v>
+        <v>1.96</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -2584,10 +2733,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" s="13">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -2600,10 +2749,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -2616,10 +2765,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B102" s="13">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -2632,10 +2781,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" s="13">
-        <v>1.28</v>
+        <v>1.96</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -2648,10 +2797,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B104" s="13">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -2664,10 +2813,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B105" s="13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -2680,31 +2829,47 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="13">
+        <v>0</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>93</v>
       </c>
-      <c r="B106" s="18">
+      <c r="B107" s="18">
         <v>8296</v>
       </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
+      <c r="A118" s="6"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2717,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106225A7-BB1C-4057-99BB-6826A9E897D0}">
-  <dimension ref="B3:F39"/>
+  <dimension ref="B3:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="B23:C26"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,6 +3238,89 @@
         <v>10.199999999999999</v>
       </c>
     </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="13">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="13">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="13">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{9712CBD6-C0D1-4268-9211-39FB2F69B0BA}"/>
@@ -3084,6 +3332,8 @@
     <hyperlink ref="C36" r:id="rId7" xr:uid="{86D5959F-AF21-4816-AE3D-FECE95EBBF3A}"/>
     <hyperlink ref="C37" r:id="rId8" xr:uid="{A354E42C-CA3F-4785-A8DD-0CA8F37FB0D7}"/>
     <hyperlink ref="C39" r:id="rId9" xr:uid="{699E3FC0-1D52-4B6C-8514-DAD7F606A312}"/>
+    <hyperlink ref="C40" r:id="rId10" xr:uid="{D8CBC771-8F3A-4999-9558-700FEFCA9F04}"/>
+    <hyperlink ref="C41:C46" r:id="rId11" display="https://www.moreforsk.no/publikasjoner/rapporter/transportokonomi/nye-tidsverdier-i-samfunnsokonomiske-beregninger-alternative-vurderinger-basert-pa-analyser-av-to-vegprosjekter/1094/3425/" xr:uid="{D5C0237D-0164-4CA1-855F-7C65AEF81851}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3424,4 +3674,3942 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23557DD3-22E1-4147-8D24-DD782F0892A4}">
+  <dimension ref="A1:AT28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="46" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U1" t="s">
+        <v>199</v>
+      </c>
+      <c r="V1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" t="s">
+        <v>201</v>
+      </c>
+      <c r="X1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2">
+        <v>260686</v>
+      </c>
+      <c r="C2">
+        <v>260686</v>
+      </c>
+      <c r="D2">
+        <v>260686</v>
+      </c>
+      <c r="E2">
+        <v>588143</v>
+      </c>
+      <c r="F2">
+        <v>588143</v>
+      </c>
+      <c r="G2">
+        <v>588143</v>
+      </c>
+      <c r="H2">
+        <v>223497</v>
+      </c>
+      <c r="I2">
+        <v>223497</v>
+      </c>
+      <c r="J2">
+        <v>223497</v>
+      </c>
+      <c r="K2">
+        <v>62717</v>
+      </c>
+      <c r="L2">
+        <v>62717</v>
+      </c>
+      <c r="M2">
+        <v>62717</v>
+      </c>
+      <c r="N2">
+        <v>316866</v>
+      </c>
+      <c r="O2">
+        <v>316866</v>
+      </c>
+      <c r="P2">
+        <v>316866</v>
+      </c>
+      <c r="Q2">
+        <v>222642</v>
+      </c>
+      <c r="R2">
+        <v>222642</v>
+      </c>
+      <c r="S2">
+        <v>222642</v>
+      </c>
+      <c r="T2">
+        <v>202910</v>
+      </c>
+      <c r="U2">
+        <v>202910</v>
+      </c>
+      <c r="V2">
+        <v>202910</v>
+      </c>
+      <c r="W2">
+        <v>599931</v>
+      </c>
+      <c r="X2">
+        <v>599931</v>
+      </c>
+      <c r="Y2">
+        <v>599931</v>
+      </c>
+      <c r="Z2">
+        <v>399932</v>
+      </c>
+      <c r="AA2">
+        <v>399932</v>
+      </c>
+      <c r="AB2">
+        <v>399932</v>
+      </c>
+      <c r="AC2">
+        <v>147604</v>
+      </c>
+      <c r="AD2">
+        <v>147604</v>
+      </c>
+      <c r="AE2">
+        <v>147604</v>
+      </c>
+      <c r="AF2">
+        <v>141973</v>
+      </c>
+      <c r="AG2">
+        <v>141973</v>
+      </c>
+      <c r="AH2">
+        <v>141973</v>
+      </c>
+      <c r="AI2">
+        <v>398891</v>
+      </c>
+      <c r="AJ2">
+        <v>398891</v>
+      </c>
+      <c r="AK2">
+        <v>398891</v>
+      </c>
+      <c r="AL2">
+        <v>212665</v>
+      </c>
+      <c r="AM2">
+        <v>212665</v>
+      </c>
+      <c r="AN2">
+        <v>212665</v>
+      </c>
+      <c r="AO2">
+        <v>533625</v>
+      </c>
+      <c r="AP2">
+        <v>533625</v>
+      </c>
+      <c r="AQ2">
+        <v>533625</v>
+      </c>
+      <c r="AR2">
+        <v>258840</v>
+      </c>
+      <c r="AS2">
+        <v>258840</v>
+      </c>
+      <c r="AT2">
+        <v>258840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3">
+        <v>264425</v>
+      </c>
+      <c r="C3">
+        <v>265183</v>
+      </c>
+      <c r="D3">
+        <v>263486</v>
+      </c>
+      <c r="E3">
+        <v>599357</v>
+      </c>
+      <c r="F3">
+        <v>601197</v>
+      </c>
+      <c r="G3">
+        <v>597057</v>
+      </c>
+      <c r="H3">
+        <v>226499</v>
+      </c>
+      <c r="I3">
+        <v>227211</v>
+      </c>
+      <c r="J3">
+        <v>225589</v>
+      </c>
+      <c r="K3">
+        <v>63477</v>
+      </c>
+      <c r="L3">
+        <v>63757</v>
+      </c>
+      <c r="M3">
+        <v>63113</v>
+      </c>
+      <c r="N3">
+        <v>319613</v>
+      </c>
+      <c r="O3">
+        <v>320540</v>
+      </c>
+      <c r="P3">
+        <v>318462</v>
+      </c>
+      <c r="Q3">
+        <v>224716</v>
+      </c>
+      <c r="R3">
+        <v>225472</v>
+      </c>
+      <c r="S3">
+        <v>223768</v>
+      </c>
+      <c r="T3">
+        <v>204542</v>
+      </c>
+      <c r="U3">
+        <v>205349</v>
+      </c>
+      <c r="V3">
+        <v>203521</v>
+      </c>
+      <c r="W3">
+        <v>607068</v>
+      </c>
+      <c r="X3">
+        <v>609720</v>
+      </c>
+      <c r="Y3">
+        <v>603693</v>
+      </c>
+      <c r="Z3">
+        <v>405763</v>
+      </c>
+      <c r="AA3">
+        <v>407118</v>
+      </c>
+      <c r="AB3">
+        <v>404017</v>
+      </c>
+      <c r="AC3">
+        <v>148981</v>
+      </c>
+      <c r="AD3">
+        <v>149409</v>
+      </c>
+      <c r="AE3">
+        <v>148459</v>
+      </c>
+      <c r="AF3">
+        <v>143522</v>
+      </c>
+      <c r="AG3">
+        <v>144109</v>
+      </c>
+      <c r="AH3">
+        <v>142798</v>
+      </c>
+      <c r="AI3">
+        <v>403484</v>
+      </c>
+      <c r="AJ3">
+        <v>404813</v>
+      </c>
+      <c r="AK3">
+        <v>401783</v>
+      </c>
+      <c r="AL3">
+        <v>215041</v>
+      </c>
+      <c r="AM3">
+        <v>215594</v>
+      </c>
+      <c r="AN3">
+        <v>214357</v>
+      </c>
+      <c r="AO3">
+        <v>538898</v>
+      </c>
+      <c r="AP3">
+        <v>540516</v>
+      </c>
+      <c r="AQ3">
+        <v>536856</v>
+      </c>
+      <c r="AR3">
+        <v>261942</v>
+      </c>
+      <c r="AS3">
+        <v>262574</v>
+      </c>
+      <c r="AT3">
+        <v>261197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2026</v>
+      </c>
+      <c r="B4">
+        <v>267678</v>
+      </c>
+      <c r="C4">
+        <v>269471</v>
+      </c>
+      <c r="D4">
+        <v>265917</v>
+      </c>
+      <c r="E4">
+        <v>609008</v>
+      </c>
+      <c r="F4">
+        <v>613291</v>
+      </c>
+      <c r="G4">
+        <v>604717</v>
+      </c>
+      <c r="H4">
+        <v>228847</v>
+      </c>
+      <c r="I4">
+        <v>230532</v>
+      </c>
+      <c r="J4">
+        <v>227162</v>
+      </c>
+      <c r="K4">
+        <v>63971</v>
+      </c>
+      <c r="L4">
+        <v>64639</v>
+      </c>
+      <c r="M4">
+        <v>63328</v>
+      </c>
+      <c r="N4">
+        <v>321711</v>
+      </c>
+      <c r="O4">
+        <v>323910</v>
+      </c>
+      <c r="P4">
+        <v>319587</v>
+      </c>
+      <c r="Q4">
+        <v>226364</v>
+      </c>
+      <c r="R4">
+        <v>228095</v>
+      </c>
+      <c r="S4">
+        <v>224632</v>
+      </c>
+      <c r="T4">
+        <v>205566</v>
+      </c>
+      <c r="U4">
+        <v>207383</v>
+      </c>
+      <c r="V4">
+        <v>203752</v>
+      </c>
+      <c r="W4">
+        <v>613213</v>
+      </c>
+      <c r="X4">
+        <v>619440</v>
+      </c>
+      <c r="Y4">
+        <v>607071</v>
+      </c>
+      <c r="Z4">
+        <v>410512</v>
+      </c>
+      <c r="AA4">
+        <v>413731</v>
+      </c>
+      <c r="AB4">
+        <v>407335</v>
+      </c>
+      <c r="AC4">
+        <v>150014</v>
+      </c>
+      <c r="AD4">
+        <v>150993</v>
+      </c>
+      <c r="AE4">
+        <v>149042</v>
+      </c>
+      <c r="AF4">
+        <v>144576</v>
+      </c>
+      <c r="AG4">
+        <v>145906</v>
+      </c>
+      <c r="AH4">
+        <v>143240</v>
+      </c>
+      <c r="AI4">
+        <v>407228</v>
+      </c>
+      <c r="AJ4">
+        <v>410349</v>
+      </c>
+      <c r="AK4">
+        <v>404131</v>
+      </c>
+      <c r="AL4">
+        <v>217135</v>
+      </c>
+      <c r="AM4">
+        <v>218437</v>
+      </c>
+      <c r="AN4">
+        <v>215857</v>
+      </c>
+      <c r="AO4">
+        <v>543225</v>
+      </c>
+      <c r="AP4">
+        <v>547073</v>
+      </c>
+      <c r="AQ4">
+        <v>539447</v>
+      </c>
+      <c r="AR4">
+        <v>264960</v>
+      </c>
+      <c r="AS4">
+        <v>266405</v>
+      </c>
+      <c r="AT4">
+        <v>263521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2027</v>
+      </c>
+      <c r="B5">
+        <v>270272</v>
+      </c>
+      <c r="C5">
+        <v>272882</v>
+      </c>
+      <c r="D5">
+        <v>268043</v>
+      </c>
+      <c r="E5">
+        <v>616803</v>
+      </c>
+      <c r="F5">
+        <v>623031</v>
+      </c>
+      <c r="G5">
+        <v>611464</v>
+      </c>
+      <c r="H5">
+        <v>230748</v>
+      </c>
+      <c r="I5">
+        <v>233204</v>
+      </c>
+      <c r="J5">
+        <v>228637</v>
+      </c>
+      <c r="K5">
+        <v>64226</v>
+      </c>
+      <c r="L5">
+        <v>65163</v>
+      </c>
+      <c r="M5">
+        <v>63423</v>
+      </c>
+      <c r="N5">
+        <v>323251</v>
+      </c>
+      <c r="O5">
+        <v>326397</v>
+      </c>
+      <c r="P5">
+        <v>320492</v>
+      </c>
+      <c r="Q5">
+        <v>227361</v>
+      </c>
+      <c r="R5">
+        <v>229895</v>
+      </c>
+      <c r="S5">
+        <v>225201</v>
+      </c>
+      <c r="T5">
+        <v>205989</v>
+      </c>
+      <c r="U5">
+        <v>208626</v>
+      </c>
+      <c r="V5">
+        <v>203738</v>
+      </c>
+      <c r="W5">
+        <v>617914</v>
+      </c>
+      <c r="X5">
+        <v>626804</v>
+      </c>
+      <c r="Y5">
+        <v>610569</v>
+      </c>
+      <c r="Z5">
+        <v>414289</v>
+      </c>
+      <c r="AA5">
+        <v>418908</v>
+      </c>
+      <c r="AB5">
+        <v>410388</v>
+      </c>
+      <c r="AC5">
+        <v>150832</v>
+      </c>
+      <c r="AD5">
+        <v>152273</v>
+      </c>
+      <c r="AE5">
+        <v>149598</v>
+      </c>
+      <c r="AF5">
+        <v>145260</v>
+      </c>
+      <c r="AG5">
+        <v>147150</v>
+      </c>
+      <c r="AH5">
+        <v>143619</v>
+      </c>
+      <c r="AI5">
+        <v>410193</v>
+      </c>
+      <c r="AJ5">
+        <v>414680</v>
+      </c>
+      <c r="AK5">
+        <v>406345</v>
+      </c>
+      <c r="AL5">
+        <v>218954</v>
+      </c>
+      <c r="AM5">
+        <v>220865</v>
+      </c>
+      <c r="AN5">
+        <v>217309</v>
+      </c>
+      <c r="AO5">
+        <v>546580</v>
+      </c>
+      <c r="AP5">
+        <v>552093</v>
+      </c>
+      <c r="AQ5">
+        <v>541883</v>
+      </c>
+      <c r="AR5">
+        <v>267281</v>
+      </c>
+      <c r="AS5">
+        <v>269432</v>
+      </c>
+      <c r="AT5">
+        <v>265407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2028</v>
+      </c>
+      <c r="B6">
+        <v>272649</v>
+      </c>
+      <c r="C6">
+        <v>275684</v>
+      </c>
+      <c r="D6">
+        <v>269919</v>
+      </c>
+      <c r="E6">
+        <v>623730</v>
+      </c>
+      <c r="F6">
+        <v>630905</v>
+      </c>
+      <c r="G6">
+        <v>617207</v>
+      </c>
+      <c r="H6">
+        <v>232599</v>
+      </c>
+      <c r="I6">
+        <v>235453</v>
+      </c>
+      <c r="J6">
+        <v>230005</v>
+      </c>
+      <c r="K6">
+        <v>64404</v>
+      </c>
+      <c r="L6">
+        <v>65486</v>
+      </c>
+      <c r="M6">
+        <v>63454</v>
+      </c>
+      <c r="N6">
+        <v>324519</v>
+      </c>
+      <c r="O6">
+        <v>328267</v>
+      </c>
+      <c r="P6">
+        <v>321151</v>
+      </c>
+      <c r="Q6">
+        <v>228363</v>
+      </c>
+      <c r="R6">
+        <v>231273</v>
+      </c>
+      <c r="S6">
+        <v>225718</v>
+      </c>
+      <c r="T6">
+        <v>206354</v>
+      </c>
+      <c r="U6">
+        <v>209387</v>
+      </c>
+      <c r="V6">
+        <v>203633</v>
+      </c>
+      <c r="W6">
+        <v>622959</v>
+      </c>
+      <c r="X6">
+        <v>632782</v>
+      </c>
+      <c r="Y6">
+        <v>614215</v>
+      </c>
+      <c r="Z6">
+        <v>417602</v>
+      </c>
+      <c r="AA6">
+        <v>422858</v>
+      </c>
+      <c r="AB6">
+        <v>412877</v>
+      </c>
+      <c r="AC6">
+        <v>151568</v>
+      </c>
+      <c r="AD6">
+        <v>153251</v>
+      </c>
+      <c r="AE6">
+        <v>150033</v>
+      </c>
+      <c r="AF6">
+        <v>145752</v>
+      </c>
+      <c r="AG6">
+        <v>147914</v>
+      </c>
+      <c r="AH6">
+        <v>143784</v>
+      </c>
+      <c r="AI6">
+        <v>413006</v>
+      </c>
+      <c r="AJ6">
+        <v>418113</v>
+      </c>
+      <c r="AK6">
+        <v>408332</v>
+      </c>
+      <c r="AL6">
+        <v>220647</v>
+      </c>
+      <c r="AM6">
+        <v>222893</v>
+      </c>
+      <c r="AN6">
+        <v>218586</v>
+      </c>
+      <c r="AO6">
+        <v>549756</v>
+      </c>
+      <c r="AP6">
+        <v>556083</v>
+      </c>
+      <c r="AQ6">
+        <v>544041</v>
+      </c>
+      <c r="AR6">
+        <v>269491</v>
+      </c>
+      <c r="AS6">
+        <v>272048</v>
+      </c>
+      <c r="AT6">
+        <v>267138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2029</v>
+      </c>
+      <c r="B7">
+        <v>274954</v>
+      </c>
+      <c r="C7">
+        <v>278457</v>
+      </c>
+      <c r="D7">
+        <v>271684</v>
+      </c>
+      <c r="E7">
+        <v>630295</v>
+      </c>
+      <c r="F7">
+        <v>638556</v>
+      </c>
+      <c r="G7">
+        <v>622541</v>
+      </c>
+      <c r="H7">
+        <v>234371</v>
+      </c>
+      <c r="I7">
+        <v>237655</v>
+      </c>
+      <c r="J7">
+        <v>231285</v>
+      </c>
+      <c r="K7">
+        <v>64549</v>
+      </c>
+      <c r="L7">
+        <v>65773</v>
+      </c>
+      <c r="M7">
+        <v>63430</v>
+      </c>
+      <c r="N7">
+        <v>325867</v>
+      </c>
+      <c r="O7">
+        <v>330199</v>
+      </c>
+      <c r="P7">
+        <v>321782</v>
+      </c>
+      <c r="Q7">
+        <v>229259</v>
+      </c>
+      <c r="R7">
+        <v>232575</v>
+      </c>
+      <c r="S7">
+        <v>226146</v>
+      </c>
+      <c r="T7">
+        <v>206670</v>
+      </c>
+      <c r="U7">
+        <v>210139</v>
+      </c>
+      <c r="V7">
+        <v>203456</v>
+      </c>
+      <c r="W7">
+        <v>628368</v>
+      </c>
+      <c r="X7">
+        <v>639319</v>
+      </c>
+      <c r="Y7">
+        <v>618135</v>
+      </c>
+      <c r="Z7">
+        <v>420718</v>
+      </c>
+      <c r="AA7">
+        <v>426683</v>
+      </c>
+      <c r="AB7">
+        <v>415158</v>
+      </c>
+      <c r="AC7">
+        <v>152226</v>
+      </c>
+      <c r="AD7">
+        <v>154187</v>
+      </c>
+      <c r="AE7">
+        <v>150393</v>
+      </c>
+      <c r="AF7">
+        <v>146133</v>
+      </c>
+      <c r="AG7">
+        <v>148616</v>
+      </c>
+      <c r="AH7">
+        <v>143847</v>
+      </c>
+      <c r="AI7">
+        <v>415650</v>
+      </c>
+      <c r="AJ7">
+        <v>421505</v>
+      </c>
+      <c r="AK7">
+        <v>410172</v>
+      </c>
+      <c r="AL7">
+        <v>222282</v>
+      </c>
+      <c r="AM7">
+        <v>224909</v>
+      </c>
+      <c r="AN7">
+        <v>219804</v>
+      </c>
+      <c r="AO7">
+        <v>552820</v>
+      </c>
+      <c r="AP7">
+        <v>560035</v>
+      </c>
+      <c r="AQ7">
+        <v>546033</v>
+      </c>
+      <c r="AR7">
+        <v>271664</v>
+      </c>
+      <c r="AS7">
+        <v>274691</v>
+      </c>
+      <c r="AT7">
+        <v>268806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2030</v>
+      </c>
+      <c r="B8">
+        <v>276911</v>
+      </c>
+      <c r="C8">
+        <v>280930</v>
+      </c>
+      <c r="D8">
+        <v>273092</v>
+      </c>
+      <c r="E8">
+        <v>636161</v>
+      </c>
+      <c r="F8">
+        <v>645616</v>
+      </c>
+      <c r="G8">
+        <v>627130</v>
+      </c>
+      <c r="H8">
+        <v>235976</v>
+      </c>
+      <c r="I8">
+        <v>239735</v>
+      </c>
+      <c r="J8">
+        <v>232381</v>
+      </c>
+      <c r="K8">
+        <v>64663</v>
+      </c>
+      <c r="L8">
+        <v>66040</v>
+      </c>
+      <c r="M8">
+        <v>63382</v>
+      </c>
+      <c r="N8">
+        <v>326926</v>
+      </c>
+      <c r="O8">
+        <v>331926</v>
+      </c>
+      <c r="P8">
+        <v>322170</v>
+      </c>
+      <c r="Q8">
+        <v>230046</v>
+      </c>
+      <c r="R8">
+        <v>233836</v>
+      </c>
+      <c r="S8">
+        <v>226437</v>
+      </c>
+      <c r="T8">
+        <v>206945</v>
+      </c>
+      <c r="U8">
+        <v>210857</v>
+      </c>
+      <c r="V8">
+        <v>203245</v>
+      </c>
+      <c r="W8">
+        <v>633842</v>
+      </c>
+      <c r="X8">
+        <v>646154</v>
+      </c>
+      <c r="Y8">
+        <v>622057</v>
+      </c>
+      <c r="Z8">
+        <v>423414</v>
+      </c>
+      <c r="AA8">
+        <v>430160</v>
+      </c>
+      <c r="AB8">
+        <v>416963</v>
+      </c>
+      <c r="AC8">
+        <v>152810</v>
+      </c>
+      <c r="AD8">
+        <v>155050</v>
+      </c>
+      <c r="AE8">
+        <v>150658</v>
+      </c>
+      <c r="AF8">
+        <v>146495</v>
+      </c>
+      <c r="AG8">
+        <v>149284</v>
+      </c>
+      <c r="AH8">
+        <v>143869</v>
+      </c>
+      <c r="AI8">
+        <v>418420</v>
+      </c>
+      <c r="AJ8">
+        <v>425060</v>
+      </c>
+      <c r="AK8">
+        <v>412053</v>
+      </c>
+      <c r="AL8">
+        <v>223831</v>
+      </c>
+      <c r="AM8">
+        <v>226882</v>
+      </c>
+      <c r="AN8">
+        <v>220896</v>
+      </c>
+      <c r="AO8">
+        <v>555527</v>
+      </c>
+      <c r="AP8">
+        <v>563775</v>
+      </c>
+      <c r="AQ8">
+        <v>547631</v>
+      </c>
+      <c r="AR8">
+        <v>273659</v>
+      </c>
+      <c r="AS8">
+        <v>277162</v>
+      </c>
+      <c r="AT8">
+        <v>270262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2031</v>
+      </c>
+      <c r="B9">
+        <v>278699</v>
+      </c>
+      <c r="C9">
+        <v>283278</v>
+      </c>
+      <c r="D9">
+        <v>274294</v>
+      </c>
+      <c r="E9">
+        <v>642009</v>
+      </c>
+      <c r="F9">
+        <v>652797</v>
+      </c>
+      <c r="G9">
+        <v>631596</v>
+      </c>
+      <c r="H9">
+        <v>237576</v>
+      </c>
+      <c r="I9">
+        <v>241850</v>
+      </c>
+      <c r="J9">
+        <v>233455</v>
+      </c>
+      <c r="K9">
+        <v>64761</v>
+      </c>
+      <c r="L9">
+        <v>66280</v>
+      </c>
+      <c r="M9">
+        <v>63299</v>
+      </c>
+      <c r="N9">
+        <v>327999</v>
+      </c>
+      <c r="O9">
+        <v>333697</v>
+      </c>
+      <c r="P9">
+        <v>322511</v>
+      </c>
+      <c r="Q9">
+        <v>230708</v>
+      </c>
+      <c r="R9">
+        <v>234992</v>
+      </c>
+      <c r="S9">
+        <v>226581</v>
+      </c>
+      <c r="T9">
+        <v>207133</v>
+      </c>
+      <c r="U9">
+        <v>211530</v>
+      </c>
+      <c r="V9">
+        <v>202920</v>
+      </c>
+      <c r="W9">
+        <v>639371</v>
+      </c>
+      <c r="X9">
+        <v>653210</v>
+      </c>
+      <c r="Y9">
+        <v>625989</v>
+      </c>
+      <c r="Z9">
+        <v>426004</v>
+      </c>
+      <c r="AA9">
+        <v>433661</v>
+      </c>
+      <c r="AB9">
+        <v>418637</v>
+      </c>
+      <c r="AC9">
+        <v>153289</v>
+      </c>
+      <c r="AD9">
+        <v>155852</v>
+      </c>
+      <c r="AE9">
+        <v>150814</v>
+      </c>
+      <c r="AF9">
+        <v>146831</v>
+      </c>
+      <c r="AG9">
+        <v>149962</v>
+      </c>
+      <c r="AH9">
+        <v>143843</v>
+      </c>
+      <c r="AI9">
+        <v>420924</v>
+      </c>
+      <c r="AJ9">
+        <v>428474</v>
+      </c>
+      <c r="AK9">
+        <v>413671</v>
+      </c>
+      <c r="AL9">
+        <v>225347</v>
+      </c>
+      <c r="AM9">
+        <v>228862</v>
+      </c>
+      <c r="AN9">
+        <v>221939</v>
+      </c>
+      <c r="AO9">
+        <v>558281</v>
+      </c>
+      <c r="AP9">
+        <v>567654</v>
+      </c>
+      <c r="AQ9">
+        <v>549214</v>
+      </c>
+      <c r="AR9">
+        <v>275618</v>
+      </c>
+      <c r="AS9">
+        <v>279670</v>
+      </c>
+      <c r="AT9">
+        <v>271671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2032</v>
+      </c>
+      <c r="B10">
+        <v>280528</v>
+      </c>
+      <c r="C10">
+        <v>285721</v>
+      </c>
+      <c r="D10">
+        <v>275511</v>
+      </c>
+      <c r="E10">
+        <v>647852</v>
+      </c>
+      <c r="F10">
+        <v>660116</v>
+      </c>
+      <c r="G10">
+        <v>635988</v>
+      </c>
+      <c r="H10">
+        <v>239111</v>
+      </c>
+      <c r="I10">
+        <v>243987</v>
+      </c>
+      <c r="J10">
+        <v>234445</v>
+      </c>
+      <c r="K10">
+        <v>64859</v>
+      </c>
+      <c r="L10">
+        <v>66567</v>
+      </c>
+      <c r="M10">
+        <v>63219</v>
+      </c>
+      <c r="N10">
+        <v>328945</v>
+      </c>
+      <c r="O10">
+        <v>335379</v>
+      </c>
+      <c r="P10">
+        <v>322674</v>
+      </c>
+      <c r="Q10">
+        <v>231365</v>
+      </c>
+      <c r="R10">
+        <v>236197</v>
+      </c>
+      <c r="S10">
+        <v>226699</v>
+      </c>
+      <c r="T10">
+        <v>207282</v>
+      </c>
+      <c r="U10">
+        <v>212206</v>
+      </c>
+      <c r="V10">
+        <v>202572</v>
+      </c>
+      <c r="W10">
+        <v>644394</v>
+      </c>
+      <c r="X10">
+        <v>659914</v>
+      </c>
+      <c r="Y10">
+        <v>629367</v>
+      </c>
+      <c r="Z10">
+        <v>428485</v>
+      </c>
+      <c r="AA10">
+        <v>437112</v>
+      </c>
+      <c r="AB10">
+        <v>420163</v>
+      </c>
+      <c r="AC10">
+        <v>153744</v>
+      </c>
+      <c r="AD10">
+        <v>156643</v>
+      </c>
+      <c r="AE10">
+        <v>150925</v>
+      </c>
+      <c r="AF10">
+        <v>147145</v>
+      </c>
+      <c r="AG10">
+        <v>150652</v>
+      </c>
+      <c r="AH10">
+        <v>143768</v>
+      </c>
+      <c r="AI10">
+        <v>423277</v>
+      </c>
+      <c r="AJ10">
+        <v>431752</v>
+      </c>
+      <c r="AK10">
+        <v>415046</v>
+      </c>
+      <c r="AL10">
+        <v>226835</v>
+      </c>
+      <c r="AM10">
+        <v>230853</v>
+      </c>
+      <c r="AN10">
+        <v>222917</v>
+      </c>
+      <c r="AO10">
+        <v>561084</v>
+      </c>
+      <c r="AP10">
+        <v>571688</v>
+      </c>
+      <c r="AQ10">
+        <v>550807</v>
+      </c>
+      <c r="AR10">
+        <v>277522</v>
+      </c>
+      <c r="AS10">
+        <v>282181</v>
+      </c>
+      <c r="AT10">
+        <v>272976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2033</v>
+      </c>
+      <c r="B11">
+        <v>282253</v>
+      </c>
+      <c r="C11">
+        <v>288103</v>
+      </c>
+      <c r="D11">
+        <v>276593</v>
+      </c>
+      <c r="E11">
+        <v>653618</v>
+      </c>
+      <c r="F11">
+        <v>667492</v>
+      </c>
+      <c r="G11">
+        <v>640271</v>
+      </c>
+      <c r="H11">
+        <v>240485</v>
+      </c>
+      <c r="I11">
+        <v>245955</v>
+      </c>
+      <c r="J11">
+        <v>235223</v>
+      </c>
+      <c r="K11">
+        <v>64940</v>
+      </c>
+      <c r="L11">
+        <v>66854</v>
+      </c>
+      <c r="M11">
+        <v>63134</v>
+      </c>
+      <c r="N11">
+        <v>329875</v>
+      </c>
+      <c r="O11">
+        <v>337144</v>
+      </c>
+      <c r="P11">
+        <v>322837</v>
+      </c>
+      <c r="Q11">
+        <v>232010</v>
+      </c>
+      <c r="R11">
+        <v>237442</v>
+      </c>
+      <c r="S11">
+        <v>226800</v>
+      </c>
+      <c r="T11">
+        <v>207374</v>
+      </c>
+      <c r="U11">
+        <v>212857</v>
+      </c>
+      <c r="V11">
+        <v>202150</v>
+      </c>
+      <c r="W11">
+        <v>649179</v>
+      </c>
+      <c r="X11">
+        <v>666532</v>
+      </c>
+      <c r="Y11">
+        <v>632515</v>
+      </c>
+      <c r="Z11">
+        <v>430909</v>
+      </c>
+      <c r="AA11">
+        <v>440626</v>
+      </c>
+      <c r="AB11">
+        <v>421617</v>
+      </c>
+      <c r="AC11">
+        <v>154269</v>
+      </c>
+      <c r="AD11">
+        <v>157547</v>
+      </c>
+      <c r="AE11">
+        <v>151096</v>
+      </c>
+      <c r="AF11">
+        <v>147417</v>
+      </c>
+      <c r="AG11">
+        <v>151331</v>
+      </c>
+      <c r="AH11">
+        <v>143676</v>
+      </c>
+      <c r="AI11">
+        <v>425479</v>
+      </c>
+      <c r="AJ11">
+        <v>434997</v>
+      </c>
+      <c r="AK11">
+        <v>416322</v>
+      </c>
+      <c r="AL11">
+        <v>228317</v>
+      </c>
+      <c r="AM11">
+        <v>232870</v>
+      </c>
+      <c r="AN11">
+        <v>223898</v>
+      </c>
+      <c r="AO11">
+        <v>563706</v>
+      </c>
+      <c r="AP11">
+        <v>575643</v>
+      </c>
+      <c r="AQ11">
+        <v>552174</v>
+      </c>
+      <c r="AR11">
+        <v>279418</v>
+      </c>
+      <c r="AS11">
+        <v>284726</v>
+      </c>
+      <c r="AT11">
+        <v>274256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2034</v>
+      </c>
+      <c r="B12">
+        <v>283730</v>
+      </c>
+      <c r="C12">
+        <v>290279</v>
+      </c>
+      <c r="D12">
+        <v>277441</v>
+      </c>
+      <c r="E12">
+        <v>658883</v>
+      </c>
+      <c r="F12">
+        <v>674436</v>
+      </c>
+      <c r="G12">
+        <v>643975</v>
+      </c>
+      <c r="H12">
+        <v>241834</v>
+      </c>
+      <c r="I12">
+        <v>247925</v>
+      </c>
+      <c r="J12">
+        <v>235977</v>
+      </c>
+      <c r="K12">
+        <v>65035</v>
+      </c>
+      <c r="L12">
+        <v>67136</v>
+      </c>
+      <c r="M12">
+        <v>63017</v>
+      </c>
+      <c r="N12">
+        <v>330634</v>
+      </c>
+      <c r="O12">
+        <v>338749</v>
+      </c>
+      <c r="P12">
+        <v>322759</v>
+      </c>
+      <c r="Q12">
+        <v>232581</v>
+      </c>
+      <c r="R12">
+        <v>238617</v>
+      </c>
+      <c r="S12">
+        <v>226791</v>
+      </c>
+      <c r="T12">
+        <v>207364</v>
+      </c>
+      <c r="U12">
+        <v>213414</v>
+      </c>
+      <c r="V12">
+        <v>201572</v>
+      </c>
+      <c r="W12">
+        <v>653593</v>
+      </c>
+      <c r="X12">
+        <v>672851</v>
+      </c>
+      <c r="Y12">
+        <v>635269</v>
+      </c>
+      <c r="Z12">
+        <v>433085</v>
+      </c>
+      <c r="AA12">
+        <v>443908</v>
+      </c>
+      <c r="AB12">
+        <v>422789</v>
+      </c>
+      <c r="AC12">
+        <v>154592</v>
+      </c>
+      <c r="AD12">
+        <v>158265</v>
+      </c>
+      <c r="AE12">
+        <v>151060</v>
+      </c>
+      <c r="AF12">
+        <v>147597</v>
+      </c>
+      <c r="AG12">
+        <v>151919</v>
+      </c>
+      <c r="AH12">
+        <v>143459</v>
+      </c>
+      <c r="AI12">
+        <v>427353</v>
+      </c>
+      <c r="AJ12">
+        <v>437961</v>
+      </c>
+      <c r="AK12">
+        <v>417205</v>
+      </c>
+      <c r="AL12">
+        <v>229642</v>
+      </c>
+      <c r="AM12">
+        <v>234761</v>
+      </c>
+      <c r="AN12">
+        <v>224682</v>
+      </c>
+      <c r="AO12">
+        <v>565768</v>
+      </c>
+      <c r="AP12">
+        <v>579100</v>
+      </c>
+      <c r="AQ12">
+        <v>552956</v>
+      </c>
+      <c r="AR12">
+        <v>281178</v>
+      </c>
+      <c r="AS12">
+        <v>287164</v>
+      </c>
+      <c r="AT12">
+        <v>275373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2035</v>
+      </c>
+      <c r="B13">
+        <v>285070</v>
+      </c>
+      <c r="C13">
+        <v>292342</v>
+      </c>
+      <c r="D13">
+        <v>278124</v>
+      </c>
+      <c r="E13">
+        <v>664107</v>
+      </c>
+      <c r="F13">
+        <v>681419</v>
+      </c>
+      <c r="G13">
+        <v>647601</v>
+      </c>
+      <c r="H13">
+        <v>243075</v>
+      </c>
+      <c r="I13">
+        <v>249838</v>
+      </c>
+      <c r="J13">
+        <v>236607</v>
+      </c>
+      <c r="K13">
+        <v>65057</v>
+      </c>
+      <c r="L13">
+        <v>67364</v>
+      </c>
+      <c r="M13">
+        <v>62850</v>
+      </c>
+      <c r="N13">
+        <v>331212</v>
+      </c>
+      <c r="O13">
+        <v>340231</v>
+      </c>
+      <c r="P13">
+        <v>322523</v>
+      </c>
+      <c r="Q13">
+        <v>233040</v>
+      </c>
+      <c r="R13">
+        <v>239712</v>
+      </c>
+      <c r="S13">
+        <v>226676</v>
+      </c>
+      <c r="T13">
+        <v>207254</v>
+      </c>
+      <c r="U13">
+        <v>213935</v>
+      </c>
+      <c r="V13">
+        <v>200923</v>
+      </c>
+      <c r="W13">
+        <v>657664</v>
+      </c>
+      <c r="X13">
+        <v>678895</v>
+      </c>
+      <c r="Y13">
+        <v>637650</v>
+      </c>
+      <c r="Z13">
+        <v>434872</v>
+      </c>
+      <c r="AA13">
+        <v>446836</v>
+      </c>
+      <c r="AB13">
+        <v>423510</v>
+      </c>
+      <c r="AC13">
+        <v>154954</v>
+      </c>
+      <c r="AD13">
+        <v>159033</v>
+      </c>
+      <c r="AE13">
+        <v>151040</v>
+      </c>
+      <c r="AF13">
+        <v>147766</v>
+      </c>
+      <c r="AG13">
+        <v>152534</v>
+      </c>
+      <c r="AH13">
+        <v>143210</v>
+      </c>
+      <c r="AI13">
+        <v>428954</v>
+      </c>
+      <c r="AJ13">
+        <v>440680</v>
+      </c>
+      <c r="AK13">
+        <v>417785</v>
+      </c>
+      <c r="AL13">
+        <v>230871</v>
+      </c>
+      <c r="AM13">
+        <v>236596</v>
+      </c>
+      <c r="AN13">
+        <v>225376</v>
+      </c>
+      <c r="AO13">
+        <v>567554</v>
+      </c>
+      <c r="AP13">
+        <v>582335</v>
+      </c>
+      <c r="AQ13">
+        <v>553450</v>
+      </c>
+      <c r="AR13">
+        <v>282726</v>
+      </c>
+      <c r="AS13">
+        <v>289404</v>
+      </c>
+      <c r="AT13">
+        <v>276268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2036</v>
+      </c>
+      <c r="B14">
+        <v>286330</v>
+      </c>
+      <c r="C14">
+        <v>294364</v>
+      </c>
+      <c r="D14">
+        <v>278680</v>
+      </c>
+      <c r="E14">
+        <v>668989</v>
+      </c>
+      <c r="F14">
+        <v>688133</v>
+      </c>
+      <c r="G14">
+        <v>650811</v>
+      </c>
+      <c r="H14">
+        <v>244286</v>
+      </c>
+      <c r="I14">
+        <v>251751</v>
+      </c>
+      <c r="J14">
+        <v>237198</v>
+      </c>
+      <c r="K14">
+        <v>65116</v>
+      </c>
+      <c r="L14">
+        <v>67644</v>
+      </c>
+      <c r="M14">
+        <v>62713</v>
+      </c>
+      <c r="N14">
+        <v>331802</v>
+      </c>
+      <c r="O14">
+        <v>341743</v>
+      </c>
+      <c r="P14">
+        <v>322260</v>
+      </c>
+      <c r="Q14">
+        <v>233366</v>
+      </c>
+      <c r="R14">
+        <v>240712</v>
+      </c>
+      <c r="S14">
+        <v>226421</v>
+      </c>
+      <c r="T14">
+        <v>207133</v>
+      </c>
+      <c r="U14">
+        <v>214459</v>
+      </c>
+      <c r="V14">
+        <v>200240</v>
+      </c>
+      <c r="W14">
+        <v>661651</v>
+      </c>
+      <c r="X14">
+        <v>684927</v>
+      </c>
+      <c r="Y14">
+        <v>639893</v>
+      </c>
+      <c r="Z14">
+        <v>436523</v>
+      </c>
+      <c r="AA14">
+        <v>449691</v>
+      </c>
+      <c r="AB14">
+        <v>424087</v>
+      </c>
+      <c r="AC14">
+        <v>155227</v>
+      </c>
+      <c r="AD14">
+        <v>159725</v>
+      </c>
+      <c r="AE14">
+        <v>150920</v>
+      </c>
+      <c r="AF14">
+        <v>147861</v>
+      </c>
+      <c r="AG14">
+        <v>153094</v>
+      </c>
+      <c r="AH14">
+        <v>142904</v>
+      </c>
+      <c r="AI14">
+        <v>430437</v>
+      </c>
+      <c r="AJ14">
+        <v>443325</v>
+      </c>
+      <c r="AK14">
+        <v>418208</v>
+      </c>
+      <c r="AL14">
+        <v>232026</v>
+      </c>
+      <c r="AM14">
+        <v>238356</v>
+      </c>
+      <c r="AN14">
+        <v>225960</v>
+      </c>
+      <c r="AO14">
+        <v>569093</v>
+      </c>
+      <c r="AP14">
+        <v>585392</v>
+      </c>
+      <c r="AQ14">
+        <v>553667</v>
+      </c>
+      <c r="AR14">
+        <v>284259</v>
+      </c>
+      <c r="AS14">
+        <v>291685</v>
+      </c>
+      <c r="AT14">
+        <v>277120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2037</v>
+      </c>
+      <c r="B15">
+        <v>287393</v>
+      </c>
+      <c r="C15">
+        <v>296201</v>
+      </c>
+      <c r="D15">
+        <v>279029</v>
+      </c>
+      <c r="E15">
+        <v>673642</v>
+      </c>
+      <c r="F15">
+        <v>694702</v>
+      </c>
+      <c r="G15">
+        <v>653744</v>
+      </c>
+      <c r="H15">
+        <v>245390</v>
+      </c>
+      <c r="I15">
+        <v>253562</v>
+      </c>
+      <c r="J15">
+        <v>237647</v>
+      </c>
+      <c r="K15">
+        <v>65147</v>
+      </c>
+      <c r="L15">
+        <v>67880</v>
+      </c>
+      <c r="M15">
+        <v>62545</v>
+      </c>
+      <c r="N15">
+        <v>332232</v>
+      </c>
+      <c r="O15">
+        <v>343069</v>
+      </c>
+      <c r="P15">
+        <v>321824</v>
+      </c>
+      <c r="Q15">
+        <v>233603</v>
+      </c>
+      <c r="R15">
+        <v>241619</v>
+      </c>
+      <c r="S15">
+        <v>226035</v>
+      </c>
+      <c r="T15">
+        <v>206876</v>
+      </c>
+      <c r="U15">
+        <v>214824</v>
+      </c>
+      <c r="V15">
+        <v>199393</v>
+      </c>
+      <c r="W15">
+        <v>665266</v>
+      </c>
+      <c r="X15">
+        <v>690666</v>
+      </c>
+      <c r="Y15">
+        <v>641714</v>
+      </c>
+      <c r="Z15">
+        <v>438012</v>
+      </c>
+      <c r="AA15">
+        <v>452411</v>
+      </c>
+      <c r="AB15">
+        <v>424465</v>
+      </c>
+      <c r="AC15">
+        <v>155455</v>
+      </c>
+      <c r="AD15">
+        <v>160375</v>
+      </c>
+      <c r="AE15">
+        <v>150745</v>
+      </c>
+      <c r="AF15">
+        <v>147923</v>
+      </c>
+      <c r="AG15">
+        <v>153621</v>
+      </c>
+      <c r="AH15">
+        <v>142551</v>
+      </c>
+      <c r="AI15">
+        <v>431712</v>
+      </c>
+      <c r="AJ15">
+        <v>445807</v>
+      </c>
+      <c r="AK15">
+        <v>418412</v>
+      </c>
+      <c r="AL15">
+        <v>233076</v>
+      </c>
+      <c r="AM15">
+        <v>240032</v>
+      </c>
+      <c r="AN15">
+        <v>226423</v>
+      </c>
+      <c r="AO15">
+        <v>570455</v>
+      </c>
+      <c r="AP15">
+        <v>588256</v>
+      </c>
+      <c r="AQ15">
+        <v>553616</v>
+      </c>
+      <c r="AR15">
+        <v>285619</v>
+      </c>
+      <c r="AS15">
+        <v>293785</v>
+      </c>
+      <c r="AT15">
+        <v>277767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2038</v>
+      </c>
+      <c r="B16">
+        <v>288583</v>
+      </c>
+      <c r="C16">
+        <v>298199</v>
+      </c>
+      <c r="D16">
+        <v>279480</v>
+      </c>
+      <c r="E16">
+        <v>678556</v>
+      </c>
+      <c r="F16">
+        <v>701630</v>
+      </c>
+      <c r="G16">
+        <v>656882</v>
+      </c>
+      <c r="H16">
+        <v>246575</v>
+      </c>
+      <c r="I16">
+        <v>255494</v>
+      </c>
+      <c r="J16">
+        <v>238161</v>
+      </c>
+      <c r="K16">
+        <v>65205</v>
+      </c>
+      <c r="L16">
+        <v>68174</v>
+      </c>
+      <c r="M16">
+        <v>62402</v>
+      </c>
+      <c r="N16">
+        <v>332763</v>
+      </c>
+      <c r="O16">
+        <v>344610</v>
+      </c>
+      <c r="P16">
+        <v>321477</v>
+      </c>
+      <c r="Q16">
+        <v>234001</v>
+      </c>
+      <c r="R16">
+        <v>242713</v>
+      </c>
+      <c r="S16">
+        <v>225810</v>
+      </c>
+      <c r="T16">
+        <v>206793</v>
+      </c>
+      <c r="U16">
+        <v>215401</v>
+      </c>
+      <c r="V16">
+        <v>198712</v>
+      </c>
+      <c r="W16">
+        <v>668876</v>
+      </c>
+      <c r="X16">
+        <v>696517</v>
+      </c>
+      <c r="Y16">
+        <v>643497</v>
+      </c>
+      <c r="Z16">
+        <v>439698</v>
+      </c>
+      <c r="AA16">
+        <v>455401</v>
+      </c>
+      <c r="AB16">
+        <v>425024</v>
+      </c>
+      <c r="AC16">
+        <v>155732</v>
+      </c>
+      <c r="AD16">
+        <v>161098</v>
+      </c>
+      <c r="AE16">
+        <v>150615</v>
+      </c>
+      <c r="AF16">
+        <v>148079</v>
+      </c>
+      <c r="AG16">
+        <v>154268</v>
+      </c>
+      <c r="AH16">
+        <v>142292</v>
+      </c>
+      <c r="AI16">
+        <v>433211</v>
+      </c>
+      <c r="AJ16">
+        <v>448583</v>
+      </c>
+      <c r="AK16">
+        <v>418812</v>
+      </c>
+      <c r="AL16">
+        <v>234146</v>
+      </c>
+      <c r="AM16">
+        <v>241771</v>
+      </c>
+      <c r="AN16">
+        <v>226903</v>
+      </c>
+      <c r="AO16">
+        <v>572008</v>
+      </c>
+      <c r="AP16">
+        <v>591423</v>
+      </c>
+      <c r="AQ16">
+        <v>553725</v>
+      </c>
+      <c r="AR16">
+        <v>287078</v>
+      </c>
+      <c r="AS16">
+        <v>296035</v>
+      </c>
+      <c r="AT16">
+        <v>278509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2039</v>
+      </c>
+      <c r="B17">
+        <v>289551</v>
+      </c>
+      <c r="C17">
+        <v>300051</v>
+      </c>
+      <c r="D17">
+        <v>279715</v>
+      </c>
+      <c r="E17">
+        <v>682586</v>
+      </c>
+      <c r="F17">
+        <v>707819</v>
+      </c>
+      <c r="G17">
+        <v>659097</v>
+      </c>
+      <c r="H17">
+        <v>247534</v>
+      </c>
+      <c r="I17">
+        <v>257265</v>
+      </c>
+      <c r="J17">
+        <v>238458</v>
+      </c>
+      <c r="K17">
+        <v>65168</v>
+      </c>
+      <c r="L17">
+        <v>68387</v>
+      </c>
+      <c r="M17">
+        <v>62173</v>
+      </c>
+      <c r="N17">
+        <v>333118</v>
+      </c>
+      <c r="O17">
+        <v>346002</v>
+      </c>
+      <c r="P17">
+        <v>320935</v>
+      </c>
+      <c r="Q17">
+        <v>234054</v>
+      </c>
+      <c r="R17">
+        <v>243532</v>
+      </c>
+      <c r="S17">
+        <v>225208</v>
+      </c>
+      <c r="T17">
+        <v>206525</v>
+      </c>
+      <c r="U17">
+        <v>215847</v>
+      </c>
+      <c r="V17">
+        <v>197860</v>
+      </c>
+      <c r="W17">
+        <v>671692</v>
+      </c>
+      <c r="X17">
+        <v>701687</v>
+      </c>
+      <c r="Y17">
+        <v>644437</v>
+      </c>
+      <c r="Z17">
+        <v>440829</v>
+      </c>
+      <c r="AA17">
+        <v>457913</v>
+      </c>
+      <c r="AB17">
+        <v>424986</v>
+      </c>
+      <c r="AC17">
+        <v>155921</v>
+      </c>
+      <c r="AD17">
+        <v>161776</v>
+      </c>
+      <c r="AE17">
+        <v>150407</v>
+      </c>
+      <c r="AF17">
+        <v>148080</v>
+      </c>
+      <c r="AG17">
+        <v>154783</v>
+      </c>
+      <c r="AH17">
+        <v>141861</v>
+      </c>
+      <c r="AI17">
+        <v>434320</v>
+      </c>
+      <c r="AJ17">
+        <v>451012</v>
+      </c>
+      <c r="AK17">
+        <v>418750</v>
+      </c>
+      <c r="AL17">
+        <v>234953</v>
+      </c>
+      <c r="AM17">
+        <v>243271</v>
+      </c>
+      <c r="AN17">
+        <v>227088</v>
+      </c>
+      <c r="AO17">
+        <v>572922</v>
+      </c>
+      <c r="AP17">
+        <v>594063</v>
+      </c>
+      <c r="AQ17">
+        <v>553180</v>
+      </c>
+      <c r="AR17">
+        <v>288266</v>
+      </c>
+      <c r="AS17">
+        <v>298082</v>
+      </c>
+      <c r="AT17">
+        <v>278963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2040</v>
+      </c>
+      <c r="B18">
+        <v>290411</v>
+      </c>
+      <c r="C18">
+        <v>301799</v>
+      </c>
+      <c r="D18">
+        <v>279791</v>
+      </c>
+      <c r="E18">
+        <v>686529</v>
+      </c>
+      <c r="F18">
+        <v>713956</v>
+      </c>
+      <c r="G18">
+        <v>661138</v>
+      </c>
+      <c r="H18">
+        <v>248493</v>
+      </c>
+      <c r="I18">
+        <v>259011</v>
+      </c>
+      <c r="J18">
+        <v>238713</v>
+      </c>
+      <c r="K18">
+        <v>65164</v>
+      </c>
+      <c r="L18">
+        <v>68619</v>
+      </c>
+      <c r="M18">
+        <v>61962</v>
+      </c>
+      <c r="N18">
+        <v>333426</v>
+      </c>
+      <c r="O18">
+        <v>347356</v>
+      </c>
+      <c r="P18">
+        <v>320340</v>
+      </c>
+      <c r="Q18">
+        <v>234041</v>
+      </c>
+      <c r="R18">
+        <v>244270</v>
+      </c>
+      <c r="S18">
+        <v>224539</v>
+      </c>
+      <c r="T18">
+        <v>206330</v>
+      </c>
+      <c r="U18">
+        <v>216376</v>
+      </c>
+      <c r="V18">
+        <v>197049</v>
+      </c>
+      <c r="W18">
+        <v>674349</v>
+      </c>
+      <c r="X18">
+        <v>706750</v>
+      </c>
+      <c r="Y18">
+        <v>645166</v>
+      </c>
+      <c r="Z18">
+        <v>441887</v>
+      </c>
+      <c r="AA18">
+        <v>460413</v>
+      </c>
+      <c r="AB18">
+        <v>424847</v>
+      </c>
+      <c r="AC18">
+        <v>156078</v>
+      </c>
+      <c r="AD18">
+        <v>162405</v>
+      </c>
+      <c r="AE18">
+        <v>150126</v>
+      </c>
+      <c r="AF18">
+        <v>148101</v>
+      </c>
+      <c r="AG18">
+        <v>155340</v>
+      </c>
+      <c r="AH18">
+        <v>141450</v>
+      </c>
+      <c r="AI18">
+        <v>435271</v>
+      </c>
+      <c r="AJ18">
+        <v>453321</v>
+      </c>
+      <c r="AK18">
+        <v>418558</v>
+      </c>
+      <c r="AL18">
+        <v>235740</v>
+      </c>
+      <c r="AM18">
+        <v>244783</v>
+      </c>
+      <c r="AN18">
+        <v>227249</v>
+      </c>
+      <c r="AO18">
+        <v>573587</v>
+      </c>
+      <c r="AP18">
+        <v>596509</v>
+      </c>
+      <c r="AQ18">
+        <v>552350</v>
+      </c>
+      <c r="AR18">
+        <v>289476</v>
+      </c>
+      <c r="AS18">
+        <v>300147</v>
+      </c>
+      <c r="AT18">
+        <v>279401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2041</v>
+      </c>
+      <c r="B19">
+        <v>291249</v>
+      </c>
+      <c r="C19">
+        <v>303632</v>
+      </c>
+      <c r="D19">
+        <v>279693</v>
+      </c>
+      <c r="E19">
+        <v>690452</v>
+      </c>
+      <c r="F19">
+        <v>720387</v>
+      </c>
+      <c r="G19">
+        <v>662760</v>
+      </c>
+      <c r="H19">
+        <v>249384</v>
+      </c>
+      <c r="I19">
+        <v>260811</v>
+      </c>
+      <c r="J19">
+        <v>238803</v>
+      </c>
+      <c r="K19">
+        <v>65160</v>
+      </c>
+      <c r="L19">
+        <v>68897</v>
+      </c>
+      <c r="M19">
+        <v>61718</v>
+      </c>
+      <c r="N19">
+        <v>333724</v>
+      </c>
+      <c r="O19">
+        <v>348827</v>
+      </c>
+      <c r="P19">
+        <v>319544</v>
+      </c>
+      <c r="Q19">
+        <v>234023</v>
+      </c>
+      <c r="R19">
+        <v>245120</v>
+      </c>
+      <c r="S19">
+        <v>223760</v>
+      </c>
+      <c r="T19">
+        <v>206099</v>
+      </c>
+      <c r="U19">
+        <v>216965</v>
+      </c>
+      <c r="V19">
+        <v>196147</v>
+      </c>
+      <c r="W19">
+        <v>676816</v>
+      </c>
+      <c r="X19">
+        <v>711840</v>
+      </c>
+      <c r="Y19">
+        <v>645419</v>
+      </c>
+      <c r="Z19">
+        <v>442798</v>
+      </c>
+      <c r="AA19">
+        <v>462923</v>
+      </c>
+      <c r="AB19">
+        <v>424314</v>
+      </c>
+      <c r="AC19">
+        <v>156224</v>
+      </c>
+      <c r="AD19">
+        <v>163088</v>
+      </c>
+      <c r="AE19">
+        <v>149771</v>
+      </c>
+      <c r="AF19">
+        <v>148133</v>
+      </c>
+      <c r="AG19">
+        <v>155950</v>
+      </c>
+      <c r="AH19">
+        <v>140982</v>
+      </c>
+      <c r="AI19">
+        <v>436222</v>
+      </c>
+      <c r="AJ19">
+        <v>455783</v>
+      </c>
+      <c r="AK19">
+        <v>418114</v>
+      </c>
+      <c r="AL19">
+        <v>236526</v>
+      </c>
+      <c r="AM19">
+        <v>246370</v>
+      </c>
+      <c r="AN19">
+        <v>227290</v>
+      </c>
+      <c r="AO19">
+        <v>574240</v>
+      </c>
+      <c r="AP19">
+        <v>599113</v>
+      </c>
+      <c r="AQ19">
+        <v>551192</v>
+      </c>
+      <c r="AR19">
+        <v>290624</v>
+      </c>
+      <c r="AS19">
+        <v>302280</v>
+      </c>
+      <c r="AT19">
+        <v>279628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2042</v>
+      </c>
+      <c r="B20">
+        <v>292101</v>
+      </c>
+      <c r="C20">
+        <v>305595</v>
+      </c>
+      <c r="D20">
+        <v>279446</v>
+      </c>
+      <c r="E20">
+        <v>694435</v>
+      </c>
+      <c r="F20">
+        <v>727173</v>
+      </c>
+      <c r="G20">
+        <v>663995</v>
+      </c>
+      <c r="H20">
+        <v>250309</v>
+      </c>
+      <c r="I20">
+        <v>262732</v>
+      </c>
+      <c r="J20">
+        <v>238752</v>
+      </c>
+      <c r="K20">
+        <v>65159</v>
+      </c>
+      <c r="L20">
+        <v>69201</v>
+      </c>
+      <c r="M20">
+        <v>61441</v>
+      </c>
+      <c r="N20">
+        <v>334065</v>
+      </c>
+      <c r="O20">
+        <v>350447</v>
+      </c>
+      <c r="P20">
+        <v>318621</v>
+      </c>
+      <c r="Q20">
+        <v>234032</v>
+      </c>
+      <c r="R20">
+        <v>246052</v>
+      </c>
+      <c r="S20">
+        <v>222859</v>
+      </c>
+      <c r="T20">
+        <v>205924</v>
+      </c>
+      <c r="U20">
+        <v>217642</v>
+      </c>
+      <c r="V20">
+        <v>195131</v>
+      </c>
+      <c r="W20">
+        <v>679163</v>
+      </c>
+      <c r="X20">
+        <v>717060</v>
+      </c>
+      <c r="Y20">
+        <v>645215</v>
+      </c>
+      <c r="Z20">
+        <v>443725</v>
+      </c>
+      <c r="AA20">
+        <v>465635</v>
+      </c>
+      <c r="AB20">
+        <v>423501</v>
+      </c>
+      <c r="AC20">
+        <v>156375</v>
+      </c>
+      <c r="AD20">
+        <v>163833</v>
+      </c>
+      <c r="AE20">
+        <v>149317</v>
+      </c>
+      <c r="AF20">
+        <v>148173</v>
+      </c>
+      <c r="AG20">
+        <v>156633</v>
+      </c>
+      <c r="AH20">
+        <v>140441</v>
+      </c>
+      <c r="AI20">
+        <v>437174</v>
+      </c>
+      <c r="AJ20">
+        <v>458475</v>
+      </c>
+      <c r="AK20">
+        <v>417435</v>
+      </c>
+      <c r="AL20">
+        <v>237324</v>
+      </c>
+      <c r="AM20">
+        <v>248073</v>
+      </c>
+      <c r="AN20">
+        <v>227191</v>
+      </c>
+      <c r="AO20">
+        <v>574886</v>
+      </c>
+      <c r="AP20">
+        <v>601983</v>
+      </c>
+      <c r="AQ20">
+        <v>549705</v>
+      </c>
+      <c r="AR20">
+        <v>291800</v>
+      </c>
+      <c r="AS20">
+        <v>304534</v>
+      </c>
+      <c r="AT20">
+        <v>279702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2043</v>
+      </c>
+      <c r="B21">
+        <v>292963</v>
+      </c>
+      <c r="C21">
+        <v>307723</v>
+      </c>
+      <c r="D21">
+        <v>279034</v>
+      </c>
+      <c r="E21">
+        <v>698447</v>
+      </c>
+      <c r="F21">
+        <v>734336</v>
+      </c>
+      <c r="G21">
+        <v>664824</v>
+      </c>
+      <c r="H21">
+        <v>251223</v>
+      </c>
+      <c r="I21">
+        <v>264759</v>
+      </c>
+      <c r="J21">
+        <v>238573</v>
+      </c>
+      <c r="K21">
+        <v>65158</v>
+      </c>
+      <c r="L21">
+        <v>69515</v>
+      </c>
+      <c r="M21">
+        <v>61141</v>
+      </c>
+      <c r="N21">
+        <v>334364</v>
+      </c>
+      <c r="O21">
+        <v>352226</v>
+      </c>
+      <c r="P21">
+        <v>317539</v>
+      </c>
+      <c r="Q21">
+        <v>234058</v>
+      </c>
+      <c r="R21">
+        <v>247134</v>
+      </c>
+      <c r="S21">
+        <v>221853</v>
+      </c>
+      <c r="T21">
+        <v>205736</v>
+      </c>
+      <c r="U21">
+        <v>218434</v>
+      </c>
+      <c r="V21">
+        <v>194048</v>
+      </c>
+      <c r="W21">
+        <v>681397</v>
+      </c>
+      <c r="X21">
+        <v>722440</v>
+      </c>
+      <c r="Y21">
+        <v>644551</v>
+      </c>
+      <c r="Z21">
+        <v>444640</v>
+      </c>
+      <c r="AA21">
+        <v>468533</v>
+      </c>
+      <c r="AB21">
+        <v>422435</v>
+      </c>
+      <c r="AC21">
+        <v>156503</v>
+      </c>
+      <c r="AD21">
+        <v>164640</v>
+      </c>
+      <c r="AE21">
+        <v>148774</v>
+      </c>
+      <c r="AF21">
+        <v>148224</v>
+      </c>
+      <c r="AG21">
+        <v>157398</v>
+      </c>
+      <c r="AH21">
+        <v>139816</v>
+      </c>
+      <c r="AI21">
+        <v>438180</v>
+      </c>
+      <c r="AJ21">
+        <v>461367</v>
+      </c>
+      <c r="AK21">
+        <v>416542</v>
+      </c>
+      <c r="AL21">
+        <v>238125</v>
+      </c>
+      <c r="AM21">
+        <v>249881</v>
+      </c>
+      <c r="AN21">
+        <v>226993</v>
+      </c>
+      <c r="AO21">
+        <v>575571</v>
+      </c>
+      <c r="AP21">
+        <v>605144</v>
+      </c>
+      <c r="AQ21">
+        <v>547933</v>
+      </c>
+      <c r="AR21">
+        <v>292985</v>
+      </c>
+      <c r="AS21">
+        <v>306944</v>
+      </c>
+      <c r="AT21">
+        <v>279655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2044</v>
+      </c>
+      <c r="B22">
+        <v>293819</v>
+      </c>
+      <c r="C22">
+        <v>309958</v>
+      </c>
+      <c r="D22">
+        <v>278467</v>
+      </c>
+      <c r="E22">
+        <v>702459</v>
+      </c>
+      <c r="F22">
+        <v>741806</v>
+      </c>
+      <c r="G22">
+        <v>665279</v>
+      </c>
+      <c r="H22">
+        <v>252139</v>
+      </c>
+      <c r="I22">
+        <v>266867</v>
+      </c>
+      <c r="J22">
+        <v>238281</v>
+      </c>
+      <c r="K22">
+        <v>65163</v>
+      </c>
+      <c r="L22">
+        <v>69855</v>
+      </c>
+      <c r="M22">
+        <v>60806</v>
+      </c>
+      <c r="N22">
+        <v>334729</v>
+      </c>
+      <c r="O22">
+        <v>354121</v>
+      </c>
+      <c r="P22">
+        <v>316313</v>
+      </c>
+      <c r="Q22">
+        <v>234094</v>
+      </c>
+      <c r="R22">
+        <v>248297</v>
+      </c>
+      <c r="S22">
+        <v>220759</v>
+      </c>
+      <c r="T22">
+        <v>205568</v>
+      </c>
+      <c r="U22">
+        <v>219277</v>
+      </c>
+      <c r="V22">
+        <v>192864</v>
+      </c>
+      <c r="W22">
+        <v>683523</v>
+      </c>
+      <c r="X22">
+        <v>727984</v>
+      </c>
+      <c r="Y22">
+        <v>643453</v>
+      </c>
+      <c r="Z22">
+        <v>445514</v>
+      </c>
+      <c r="AA22">
+        <v>471589</v>
+      </c>
+      <c r="AB22">
+        <v>421111</v>
+      </c>
+      <c r="AC22">
+        <v>156634</v>
+      </c>
+      <c r="AD22">
+        <v>165499</v>
+      </c>
+      <c r="AE22">
+        <v>148183</v>
+      </c>
+      <c r="AF22">
+        <v>148280</v>
+      </c>
+      <c r="AG22">
+        <v>158206</v>
+      </c>
+      <c r="AH22">
+        <v>139120</v>
+      </c>
+      <c r="AI22">
+        <v>439187</v>
+      </c>
+      <c r="AJ22">
+        <v>464460</v>
+      </c>
+      <c r="AK22">
+        <v>415426</v>
+      </c>
+      <c r="AL22">
+        <v>238938</v>
+      </c>
+      <c r="AM22">
+        <v>251768</v>
+      </c>
+      <c r="AN22">
+        <v>226666</v>
+      </c>
+      <c r="AO22">
+        <v>576241</v>
+      </c>
+      <c r="AP22">
+        <v>608518</v>
+      </c>
+      <c r="AQ22">
+        <v>545872</v>
+      </c>
+      <c r="AR22">
+        <v>294177</v>
+      </c>
+      <c r="AS22">
+        <v>309462</v>
+      </c>
+      <c r="AT22">
+        <v>279450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2045</v>
+      </c>
+      <c r="B23">
+        <v>294698</v>
+      </c>
+      <c r="C23">
+        <v>312345</v>
+      </c>
+      <c r="D23">
+        <v>277849</v>
+      </c>
+      <c r="E23">
+        <v>706426</v>
+      </c>
+      <c r="F23">
+        <v>749551</v>
+      </c>
+      <c r="G23">
+        <v>665561</v>
+      </c>
+      <c r="H23">
+        <v>253065</v>
+      </c>
+      <c r="I23">
+        <v>269106</v>
+      </c>
+      <c r="J23">
+        <v>237936</v>
+      </c>
+      <c r="K23">
+        <v>65153</v>
+      </c>
+      <c r="L23">
+        <v>70229</v>
+      </c>
+      <c r="M23">
+        <v>60455</v>
+      </c>
+      <c r="N23">
+        <v>335091</v>
+      </c>
+      <c r="O23">
+        <v>356146</v>
+      </c>
+      <c r="P23">
+        <v>315046</v>
+      </c>
+      <c r="Q23">
+        <v>234127</v>
+      </c>
+      <c r="R23">
+        <v>249588</v>
+      </c>
+      <c r="S23">
+        <v>219628</v>
+      </c>
+      <c r="T23">
+        <v>205406</v>
+      </c>
+      <c r="U23">
+        <v>220226</v>
+      </c>
+      <c r="V23">
+        <v>191651</v>
+      </c>
+      <c r="W23">
+        <v>685551</v>
+      </c>
+      <c r="X23">
+        <v>733718</v>
+      </c>
+      <c r="Y23">
+        <v>642065</v>
+      </c>
+      <c r="Z23">
+        <v>446363</v>
+      </c>
+      <c r="AA23">
+        <v>474845</v>
+      </c>
+      <c r="AB23">
+        <v>419697</v>
+      </c>
+      <c r="AC23">
+        <v>156775</v>
+      </c>
+      <c r="AD23">
+        <v>166408</v>
+      </c>
+      <c r="AE23">
+        <v>147559</v>
+      </c>
+      <c r="AF23">
+        <v>148338</v>
+      </c>
+      <c r="AG23">
+        <v>159073</v>
+      </c>
+      <c r="AH23">
+        <v>138404</v>
+      </c>
+      <c r="AI23">
+        <v>440192</v>
+      </c>
+      <c r="AJ23">
+        <v>467787</v>
+      </c>
+      <c r="AK23">
+        <v>414195</v>
+      </c>
+      <c r="AL23">
+        <v>239724</v>
+      </c>
+      <c r="AM23">
+        <v>253756</v>
+      </c>
+      <c r="AN23">
+        <v>226299</v>
+      </c>
+      <c r="AO23">
+        <v>576958</v>
+      </c>
+      <c r="AP23">
+        <v>612165</v>
+      </c>
+      <c r="AQ23">
+        <v>543722</v>
+      </c>
+      <c r="AR23">
+        <v>295365</v>
+      </c>
+      <c r="AS23">
+        <v>312100</v>
+      </c>
+      <c r="AT23">
+        <v>279184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2046</v>
+      </c>
+      <c r="B24">
+        <v>295561</v>
+      </c>
+      <c r="C24">
+        <v>314832</v>
+      </c>
+      <c r="D24">
+        <v>277171</v>
+      </c>
+      <c r="E24">
+        <v>710331</v>
+      </c>
+      <c r="F24">
+        <v>757505</v>
+      </c>
+      <c r="G24">
+        <v>665695</v>
+      </c>
+      <c r="H24">
+        <v>253967</v>
+      </c>
+      <c r="I24">
+        <v>271423</v>
+      </c>
+      <c r="J24">
+        <v>237564</v>
+      </c>
+      <c r="K24">
+        <v>65144</v>
+      </c>
+      <c r="L24">
+        <v>70613</v>
+      </c>
+      <c r="M24">
+        <v>60085</v>
+      </c>
+      <c r="N24">
+        <v>335489</v>
+      </c>
+      <c r="O24">
+        <v>358314</v>
+      </c>
+      <c r="P24">
+        <v>313756</v>
+      </c>
+      <c r="Q24">
+        <v>234205</v>
+      </c>
+      <c r="R24">
+        <v>250974</v>
+      </c>
+      <c r="S24">
+        <v>218469</v>
+      </c>
+      <c r="T24">
+        <v>205250</v>
+      </c>
+      <c r="U24">
+        <v>221244</v>
+      </c>
+      <c r="V24">
+        <v>190433</v>
+      </c>
+      <c r="W24">
+        <v>687495</v>
+      </c>
+      <c r="X24">
+        <v>739659</v>
+      </c>
+      <c r="Y24">
+        <v>640430</v>
+      </c>
+      <c r="Z24">
+        <v>447246</v>
+      </c>
+      <c r="AA24">
+        <v>478247</v>
+      </c>
+      <c r="AB24">
+        <v>418220</v>
+      </c>
+      <c r="AC24">
+        <v>156915</v>
+      </c>
+      <c r="AD24">
+        <v>167381</v>
+      </c>
+      <c r="AE24">
+        <v>146937</v>
+      </c>
+      <c r="AF24">
+        <v>148389</v>
+      </c>
+      <c r="AG24">
+        <v>160004</v>
+      </c>
+      <c r="AH24">
+        <v>137669</v>
+      </c>
+      <c r="AI24">
+        <v>441242</v>
+      </c>
+      <c r="AJ24">
+        <v>471308</v>
+      </c>
+      <c r="AK24">
+        <v>412900</v>
+      </c>
+      <c r="AL24">
+        <v>240521</v>
+      </c>
+      <c r="AM24">
+        <v>255812</v>
+      </c>
+      <c r="AN24">
+        <v>225901</v>
+      </c>
+      <c r="AO24">
+        <v>577667</v>
+      </c>
+      <c r="AP24">
+        <v>616056</v>
+      </c>
+      <c r="AQ24">
+        <v>541464</v>
+      </c>
+      <c r="AR24">
+        <v>296562</v>
+      </c>
+      <c r="AS24">
+        <v>314845</v>
+      </c>
+      <c r="AT24">
+        <v>278911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2047</v>
+      </c>
+      <c r="B25">
+        <v>296440</v>
+      </c>
+      <c r="C25">
+        <v>317444</v>
+      </c>
+      <c r="D25">
+        <v>276477</v>
+      </c>
+      <c r="E25">
+        <v>714159</v>
+      </c>
+      <c r="F25">
+        <v>765631</v>
+      </c>
+      <c r="G25">
+        <v>665692</v>
+      </c>
+      <c r="H25">
+        <v>254875</v>
+      </c>
+      <c r="I25">
+        <v>273833</v>
+      </c>
+      <c r="J25">
+        <v>237154</v>
+      </c>
+      <c r="K25">
+        <v>65127</v>
+      </c>
+      <c r="L25">
+        <v>71028</v>
+      </c>
+      <c r="M25">
+        <v>59710</v>
+      </c>
+      <c r="N25">
+        <v>335870</v>
+      </c>
+      <c r="O25">
+        <v>360593</v>
+      </c>
+      <c r="P25">
+        <v>312441</v>
+      </c>
+      <c r="Q25">
+        <v>234259</v>
+      </c>
+      <c r="R25">
+        <v>252427</v>
+      </c>
+      <c r="S25">
+        <v>217306</v>
+      </c>
+      <c r="T25">
+        <v>205086</v>
+      </c>
+      <c r="U25">
+        <v>222307</v>
+      </c>
+      <c r="V25">
+        <v>189185</v>
+      </c>
+      <c r="W25">
+        <v>689394</v>
+      </c>
+      <c r="X25">
+        <v>745857</v>
+      </c>
+      <c r="Y25">
+        <v>638566</v>
+      </c>
+      <c r="Z25">
+        <v>448113</v>
+      </c>
+      <c r="AA25">
+        <v>481826</v>
+      </c>
+      <c r="AB25">
+        <v>416691</v>
+      </c>
+      <c r="AC25">
+        <v>157069</v>
+      </c>
+      <c r="AD25">
+        <v>168408</v>
+      </c>
+      <c r="AE25">
+        <v>146288</v>
+      </c>
+      <c r="AF25">
+        <v>148440</v>
+      </c>
+      <c r="AG25">
+        <v>160986</v>
+      </c>
+      <c r="AH25">
+        <v>136918</v>
+      </c>
+      <c r="AI25">
+        <v>442277</v>
+      </c>
+      <c r="AJ25">
+        <v>475015</v>
+      </c>
+      <c r="AK25">
+        <v>411519</v>
+      </c>
+      <c r="AL25">
+        <v>241306</v>
+      </c>
+      <c r="AM25">
+        <v>257933</v>
+      </c>
+      <c r="AN25">
+        <v>225478</v>
+      </c>
+      <c r="AO25">
+        <v>578386</v>
+      </c>
+      <c r="AP25">
+        <v>620172</v>
+      </c>
+      <c r="AQ25">
+        <v>539137</v>
+      </c>
+      <c r="AR25">
+        <v>297732</v>
+      </c>
+      <c r="AS25">
+        <v>317678</v>
+      </c>
+      <c r="AT25">
+        <v>278568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2048</v>
+      </c>
+      <c r="B26">
+        <v>297312</v>
+      </c>
+      <c r="C26">
+        <v>320167</v>
+      </c>
+      <c r="D26">
+        <v>275701</v>
+      </c>
+      <c r="E26">
+        <v>717864</v>
+      </c>
+      <c r="F26">
+        <v>773915</v>
+      </c>
+      <c r="G26">
+        <v>665456</v>
+      </c>
+      <c r="H26">
+        <v>255785</v>
+      </c>
+      <c r="I26">
+        <v>276315</v>
+      </c>
+      <c r="J26">
+        <v>236697</v>
+      </c>
+      <c r="K26">
+        <v>65109</v>
+      </c>
+      <c r="L26">
+        <v>71452</v>
+      </c>
+      <c r="M26">
+        <v>59324</v>
+      </c>
+      <c r="N26">
+        <v>336264</v>
+      </c>
+      <c r="O26">
+        <v>363005</v>
+      </c>
+      <c r="P26">
+        <v>311066</v>
+      </c>
+      <c r="Q26">
+        <v>234344</v>
+      </c>
+      <c r="R26">
+        <v>253977</v>
+      </c>
+      <c r="S26">
+        <v>216141</v>
+      </c>
+      <c r="T26">
+        <v>204882</v>
+      </c>
+      <c r="U26">
+        <v>223432</v>
+      </c>
+      <c r="V26">
+        <v>187898</v>
+      </c>
+      <c r="W26">
+        <v>691245</v>
+      </c>
+      <c r="X26">
+        <v>752325</v>
+      </c>
+      <c r="Y26">
+        <v>636417</v>
+      </c>
+      <c r="Z26">
+        <v>448982</v>
+      </c>
+      <c r="AA26">
+        <v>485570</v>
+      </c>
+      <c r="AB26">
+        <v>415061</v>
+      </c>
+      <c r="AC26">
+        <v>157228</v>
+      </c>
+      <c r="AD26">
+        <v>169494</v>
+      </c>
+      <c r="AE26">
+        <v>145623</v>
+      </c>
+      <c r="AF26">
+        <v>148490</v>
+      </c>
+      <c r="AG26">
+        <v>162029</v>
+      </c>
+      <c r="AH26">
+        <v>136125</v>
+      </c>
+      <c r="AI26">
+        <v>443315</v>
+      </c>
+      <c r="AJ26">
+        <v>478900</v>
+      </c>
+      <c r="AK26">
+        <v>410035</v>
+      </c>
+      <c r="AL26">
+        <v>242067</v>
+      </c>
+      <c r="AM26">
+        <v>260130</v>
+      </c>
+      <c r="AN26">
+        <v>225002</v>
+      </c>
+      <c r="AO26">
+        <v>579153</v>
+      </c>
+      <c r="AP26">
+        <v>624529</v>
+      </c>
+      <c r="AQ26">
+        <v>536700</v>
+      </c>
+      <c r="AR26">
+        <v>298897</v>
+      </c>
+      <c r="AS26">
+        <v>320621</v>
+      </c>
+      <c r="AT26">
+        <v>278156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2049</v>
+      </c>
+      <c r="B27">
+        <v>298192</v>
+      </c>
+      <c r="C27">
+        <v>322890</v>
+      </c>
+      <c r="D27">
+        <v>274882</v>
+      </c>
+      <c r="E27">
+        <v>721479</v>
+      </c>
+      <c r="F27">
+        <v>782015</v>
+      </c>
+      <c r="G27">
+        <v>665038</v>
+      </c>
+      <c r="H27">
+        <v>256682</v>
+      </c>
+      <c r="I27">
+        <v>278787</v>
+      </c>
+      <c r="J27">
+        <v>236189</v>
+      </c>
+      <c r="K27">
+        <v>65082</v>
+      </c>
+      <c r="L27">
+        <v>71872</v>
+      </c>
+      <c r="M27">
+        <v>58944</v>
+      </c>
+      <c r="N27">
+        <v>336674</v>
+      </c>
+      <c r="O27">
+        <v>365417</v>
+      </c>
+      <c r="P27">
+        <v>309664</v>
+      </c>
+      <c r="Q27">
+        <v>234411</v>
+      </c>
+      <c r="R27">
+        <v>255514</v>
+      </c>
+      <c r="S27">
+        <v>214939</v>
+      </c>
+      <c r="T27">
+        <v>204703</v>
+      </c>
+      <c r="U27">
+        <v>224524</v>
+      </c>
+      <c r="V27">
+        <v>186607</v>
+      </c>
+      <c r="W27">
+        <v>693072</v>
+      </c>
+      <c r="X27">
+        <v>758876</v>
+      </c>
+      <c r="Y27">
+        <v>634025</v>
+      </c>
+      <c r="Z27">
+        <v>449861</v>
+      </c>
+      <c r="AA27">
+        <v>489276</v>
+      </c>
+      <c r="AB27">
+        <v>413382</v>
+      </c>
+      <c r="AC27">
+        <v>157374</v>
+      </c>
+      <c r="AD27">
+        <v>170573</v>
+      </c>
+      <c r="AE27">
+        <v>144949</v>
+      </c>
+      <c r="AF27">
+        <v>148527</v>
+      </c>
+      <c r="AG27">
+        <v>163058</v>
+      </c>
+      <c r="AH27">
+        <v>135302</v>
+      </c>
+      <c r="AI27">
+        <v>444368</v>
+      </c>
+      <c r="AJ27">
+        <v>482787</v>
+      </c>
+      <c r="AK27">
+        <v>408475</v>
+      </c>
+      <c r="AL27">
+        <v>242830</v>
+      </c>
+      <c r="AM27">
+        <v>262295</v>
+      </c>
+      <c r="AN27">
+        <v>224488</v>
+      </c>
+      <c r="AO27">
+        <v>579915</v>
+      </c>
+      <c r="AP27">
+        <v>628900</v>
+      </c>
+      <c r="AQ27">
+        <v>534187</v>
+      </c>
+      <c r="AR27">
+        <v>300049</v>
+      </c>
+      <c r="AS27">
+        <v>323514</v>
+      </c>
+      <c r="AT27">
+        <v>277696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2050</v>
+      </c>
+      <c r="B28">
+        <v>299059</v>
+      </c>
+      <c r="C28">
+        <v>325553</v>
+      </c>
+      <c r="D28">
+        <v>274035</v>
+      </c>
+      <c r="E28">
+        <v>724953</v>
+      </c>
+      <c r="F28">
+        <v>789855</v>
+      </c>
+      <c r="G28">
+        <v>664412</v>
+      </c>
+      <c r="H28">
+        <v>257577</v>
+      </c>
+      <c r="I28">
+        <v>281219</v>
+      </c>
+      <c r="J28">
+        <v>235653</v>
+      </c>
+      <c r="K28">
+        <v>65055</v>
+      </c>
+      <c r="L28">
+        <v>72274</v>
+      </c>
+      <c r="M28">
+        <v>58541</v>
+      </c>
+      <c r="N28">
+        <v>337080</v>
+      </c>
+      <c r="O28">
+        <v>367775</v>
+      </c>
+      <c r="P28">
+        <v>308257</v>
+      </c>
+      <c r="Q28">
+        <v>234513</v>
+      </c>
+      <c r="R28">
+        <v>257014</v>
+      </c>
+      <c r="S28">
+        <v>213727</v>
+      </c>
+      <c r="T28">
+        <v>204498</v>
+      </c>
+      <c r="U28">
+        <v>225603</v>
+      </c>
+      <c r="V28">
+        <v>185295</v>
+      </c>
+      <c r="W28">
+        <v>694900</v>
+      </c>
+      <c r="X28">
+        <v>765503</v>
+      </c>
+      <c r="Y28">
+        <v>631420</v>
+      </c>
+      <c r="Z28">
+        <v>450744</v>
+      </c>
+      <c r="AA28">
+        <v>492954</v>
+      </c>
+      <c r="AB28">
+        <v>411651</v>
+      </c>
+      <c r="AC28">
+        <v>157531</v>
+      </c>
+      <c r="AD28">
+        <v>171637</v>
+      </c>
+      <c r="AE28">
+        <v>144261</v>
+      </c>
+      <c r="AF28">
+        <v>148582</v>
+      </c>
+      <c r="AG28">
+        <v>164079</v>
+      </c>
+      <c r="AH28">
+        <v>134462</v>
+      </c>
+      <c r="AI28">
+        <v>445428</v>
+      </c>
+      <c r="AJ28">
+        <v>486661</v>
+      </c>
+      <c r="AK28">
+        <v>406848</v>
+      </c>
+      <c r="AL28">
+        <v>243579</v>
+      </c>
+      <c r="AM28">
+        <v>264415</v>
+      </c>
+      <c r="AN28">
+        <v>223930</v>
+      </c>
+      <c r="AO28">
+        <v>580709</v>
+      </c>
+      <c r="AP28">
+        <v>633234</v>
+      </c>
+      <c r="AQ28">
+        <v>531641</v>
+      </c>
+      <c r="AR28">
+        <v>301194</v>
+      </c>
+      <c r="AS28">
+        <v>326348</v>
+      </c>
+      <c r="AT28">
+        <v>277184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Prosjekter.xlsx
+++ b/data/Prosjekter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100304\prosjekt\JKS_modell\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E86CB1E-E0BE-4BAD-BDA0-04D8E54A17C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ED4AD0-BAD3-4FA5-8037-62019D7E7840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProsjektData" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tabell prisvekst" sheetId="2" r:id="rId3"/>
     <sheet name="Tabell lønnsvekst" sheetId="3" r:id="rId4"/>
     <sheet name="Befolkningsfremskrivinger" sheetId="5" r:id="rId5"/>
+    <sheet name="bef. til trafikk" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="242">
   <si>
     <t>FO_ARBEID</t>
   </si>
@@ -576,9 +577,6 @@
     <t>Bruker gjennomsnittlig elastisiteter for generaliserte kostnader</t>
   </si>
   <si>
-    <t>Region (Bruk header name fra "Befolkningsfremskrivinger.xlxs")</t>
-  </si>
-  <si>
     <t>Tid</t>
   </si>
   <si>
@@ -609,15 +607,6 @@
     <t>Buskerud_Lav nasjonal vekst (LLML)</t>
   </si>
   <si>
-    <t>Finnmark - Finnmárku - Finmarkku_Hovedalternativet (MMMM)</t>
-  </si>
-  <si>
-    <t>Finnmark - Finnmárku - Finmarkku_Høy nasjonal vekst (HHMH)</t>
-  </si>
-  <si>
-    <t>Finnmark - Finnmárku - Finmarkku_Lav nasjonal vekst (LLML)</t>
-  </si>
-  <si>
     <t>Innlandet_Hovedalternativet (MMMM)</t>
   </si>
   <si>
@@ -636,15 +625,6 @@
     <t>Møre og Romsdal_Lav nasjonal vekst (LLML)</t>
   </si>
   <si>
-    <t>Nordland - Nordlánnda_Hovedalternativet (MMMM)</t>
-  </si>
-  <si>
-    <t>Nordland - Nordlánnda_Høy nasjonal vekst (HHMH)</t>
-  </si>
-  <si>
-    <t>Nordland - Nordlánnda_Lav nasjonal vekst (LLML)</t>
-  </si>
-  <si>
     <t>Oslo_Hovedalternativet (MMMM)</t>
   </si>
   <si>
@@ -672,24 +652,6 @@
     <t>Telemark_Lav nasjonal vekst (LLML)</t>
   </si>
   <si>
-    <t>Troms - Romsa - Tromssa_Hovedalternativet (MMMM)</t>
-  </si>
-  <si>
-    <t>Troms - Romsa - Tromssa_Høy nasjonal vekst (HHMH)</t>
-  </si>
-  <si>
-    <t>Troms - Romsa - Tromssa_Lav nasjonal vekst (LLML)</t>
-  </si>
-  <si>
-    <t>Trøndelag - Trööndelage_Hovedalternativet (MMMM)</t>
-  </si>
-  <si>
-    <t>Trøndelag - Trööndelage_Høy nasjonal vekst (HHMH)</t>
-  </si>
-  <si>
-    <t>Trøndelag - Trööndelage_Lav nasjonal vekst (LLML)</t>
-  </si>
-  <si>
     <t>Vestfold_Hovedalternativet (MMMM)</t>
   </si>
   <si>
@@ -715,6 +677,96 @@
   </si>
   <si>
     <t>Østfold_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Fylke (Bruk fylkenavn fra "Befolkningsfremskrivinger")</t>
+  </si>
+  <si>
+    <t>Fylke</t>
+  </si>
+  <si>
+    <t>Østfold</t>
+  </si>
+  <si>
+    <t>Akershus</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Buskerud</t>
+  </si>
+  <si>
+    <t>Vestfold</t>
+  </si>
+  <si>
+    <t>Telemark</t>
+  </si>
+  <si>
+    <t>Rogaland</t>
+  </si>
+  <si>
+    <t>Møre og Romsdal</t>
+  </si>
+  <si>
+    <t>Nordland</t>
+  </si>
+  <si>
+    <t>Troms</t>
+  </si>
+  <si>
+    <t>Finnmark</t>
+  </si>
+  <si>
+    <t>transportarbeid_koeffisient</t>
+  </si>
+  <si>
+    <t>Innlandet</t>
+  </si>
+  <si>
+    <t>Trøndelag</t>
+  </si>
+  <si>
+    <t>Vestland</t>
+  </si>
+  <si>
+    <t>Agder</t>
+  </si>
+  <si>
+    <t>Finnmark_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Finnmark_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Finnmark_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Nordland_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Nordland_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Nordland_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Troms_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Troms_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Troms_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Trøndelag_Hovedalternativet (MMMM)</t>
+  </si>
+  <si>
+    <t>Trøndelag_Høy nasjonal vekst (HHMH)</t>
+  </si>
+  <si>
+    <t>Trøndelag_Lav nasjonal vekst (LLML)</t>
   </si>
 </sst>
 </file>
@@ -856,7 +908,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -897,6 +949,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperkobling" xfId="2" builtinId="8"/>
@@ -1181,11 +1236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,9 +2093,11 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" s="15"/>
+        <v>212</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>229</v>
+      </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -3680,8 +3737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23557DD3-22E1-4147-8D24-DD782F0892A4}">
   <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3691,142 +3748,142 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
         <v>179</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>184</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" t="s">
         <v>188</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>189</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>190</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>191</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>192</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>193</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>195</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>196</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>197</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>198</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>199</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>200</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>201</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AF1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL1" t="s">
         <v>203</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AM1" t="s">
         <v>204</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AN1" t="s">
         <v>205</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AO1" t="s">
         <v>206</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AP1" t="s">
         <v>207</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AQ1" t="s">
         <v>208</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AR1" t="s">
         <v>209</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AS1" t="s">
         <v>210</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AT1" t="s">
         <v>211</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -7607,6 +7664,183 @@
       </c>
       <c r="AT28">
         <v>277184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEBABEF-DA5D-4749-B0DC-CC3CEA0D78C1}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Prosjekter.xlsx
+++ b/data/Prosjekter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100304\prosjekt\JKS_modell\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ED4AD0-BAD3-4FA5-8037-62019D7E7840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15DFBD0-04E7-482A-8A45-AC0BF7816CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProsjektData" sheetId="1" r:id="rId1"/>
@@ -565,9 +565,6 @@
     <t>Videre vekst pr år (reallønn)</t>
   </si>
   <si>
-    <t>TestProsjekt</t>
-  </si>
-  <si>
     <t>https://www.moreforsk.no/publikasjoner/rapporter/transportokonomi/nye-tidsverdier-i-samfunnsokonomiske-beregninger-alternative-vurderinger-basert-pa-analyser-av-to-vegprosjekter/1094/3425/</t>
   </si>
   <si>
@@ -767,6 +764,9 @@
   </si>
   <si>
     <t>Trøndelag_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -903,29 +903,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -933,14 +923,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -952,10 +936,28 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperkobling" xfId="2" builtinId="8"/>
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Komma 2" xfId="3" xr:uid="{B4A7F91F-A5EF-4F9B-9B42-EA80E61DAD7F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1234,13 +1236,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,1339 +1250,1256 @@
     <col min="1" max="1" width="72.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="9" width="27.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="20">
         <v>51.107999999999997</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="20"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="20">
         <v>29.7</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="20"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="20">
         <v>37.299999999999997</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="18">
         <v>515.82861559540584</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="18"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="18">
         <v>134.15424422380099</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="18"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="18">
         <v>456.30121234268609</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="18"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="18">
         <v>213.2200451254206</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="18"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="18">
         <v>498.14140842764328</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="18"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="18">
         <v>12.62697678484777</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="18">
         <v>1402.5416673231191</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="18">
         <v>1197.2348506331689</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="18">
         <v>320.85823257572201</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="18"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="18">
         <v>1199.696775791266</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="18"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="18">
         <v>540.89088931634967</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="18">
         <v>1270.162068024184</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="18"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="18">
         <v>23.40194889880253</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="18">
         <v>3456.8547898810361</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="18"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="18">
         <v>0</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="18"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="18">
         <v>552.52309316760579</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="18">
         <v>1788.5705783675739</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="18"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="18">
         <v>92.688305970689512</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="18"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="18">
         <v>155.26074888138839</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="18"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="18">
         <v>778.15308574039295</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="18"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="18">
         <v>59.601695990060257</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="18"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="18">
         <v>210.9680602302966</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="18"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="18">
         <v>1.0716724045159269</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="19">
         <v>2566.1310375835478</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="19"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="24">
         <v>53.7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="14">
-        <v>41.6</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="24">
+        <v>47</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="13">
-        <v>43.2</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="24">
+        <v>50</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="24">
         <v>75</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="23">
         <v>2030</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="11">
         <v>2029</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="23">
         <v>2025</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="23">
         <v>2020</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="23">
         <v>2020</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="11">
         <v>2050</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="11">
         <v>2060</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>1</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>1</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="8">
         <v>0.04</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="8">
         <v>0.03</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="11">
         <v>40</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="9">
         <v>1</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="9">
         <v>1.0049999999999999</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="23">
         <v>0</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="11">
         <v>0</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="11">
         <v>0</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="11">
         <v>0</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>212</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="9">
         <f>B6 /SUM(B5:B10)</f>
         <v>7.3297415570944643E-2</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="9">
         <f>B13 /SUM(B12:B17)</f>
         <v>7.0483519477196152E-2</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="9">
         <v>0.2</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="9">
         <v>0.2</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="9">
         <f>0.15/(0.11+0.15+1)</f>
         <v>0.11904761904761904</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="9">
         <f>B5 /SUM(B5:B10)</f>
         <v>0.28183159332333407</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="9">
         <f>B12 /SUM(B12:B17)</f>
         <v>0.26299878683482486</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="9">
         <v>0.23</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="9">
         <v>0.23</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="9">
         <f>0.11/(0.11+0.15+1)</f>
         <v>8.7301587301587297E-2</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="9">
         <f>SUM(B7:B10) /SUM(B5:B10)</f>
         <v>0.64487099110572144</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="9">
         <f>SUM(B14:B17) /SUM(B12:B17)</f>
         <v>0.66651769368797886</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="9">
         <f>1/(0.11+0.15+1)</f>
         <v>0.79365079365079361</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="8">
         <v>1</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="8">
         <v>-0.46</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="8">
         <v>-0.46</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="8">
         <v>-0.34</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="8">
         <v>-0.34</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="8">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="8">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="8">
         <v>-0.46</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>126</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="11">
         <v>470</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>127</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="11">
         <v>85</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="11">
         <v>70</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>125</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="11">
         <v>470</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B82" s="11">
         <v>85</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B83" s="11">
         <v>70</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -2588,7 +2507,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -2596,7 +2515,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>135</v>
       </c>
@@ -2604,7 +2523,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -2612,7 +2531,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>134</v>
       </c>
@@ -2620,7 +2539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -2628,305 +2547,287 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>137</v>
       </c>
-      <c r="B90" s="18">
+      <c r="B90" s="11">
         <v>754</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="8">
         <v>0.37</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>70</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="8">
         <v>0.25</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>71</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="8">
         <v>0.42</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>72</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="8">
         <v>0.63</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>74</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="8">
         <v>0.25</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>75</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="8">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>76</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="8">
         <v>0.63</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>77</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="8">
         <v>1.96</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>78</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="8">
         <v>1.28</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="8">
         <v>1.52</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>80</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="8">
         <v>0</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>81</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="8">
         <v>1.96</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>82</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="8">
         <v>1.28</v>
       </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>83</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="8">
         <v>1.52</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>84</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="8">
         <v>0</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>93</v>
       </c>
-      <c r="B107" s="18">
+      <c r="B107" s="11">
         <v>8296</v>
       </c>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
+      <c r="A118" s="4"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
+      <c r="A121" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2941,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106225A7-BB1C-4057-99BB-6826A9E897D0}">
   <dimension ref="B3:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,7 +2856,7 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2987,7 +2888,7 @@
       <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="12" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2995,7 +2896,7 @@
       <c r="B8" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3003,7 +2904,7 @@
       <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="12" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3011,15 +2912,15 @@
       <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="12" t="s">
         <v>140</v>
       </c>
       <c r="D11" t="s">
@@ -3027,34 +2928,34 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D15" t="s">
@@ -3062,10 +2963,10 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D16">
@@ -3073,10 +2974,10 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="13" t="s">
         <v>153</v>
       </c>
       <c r="D17" t="s">
@@ -3084,10 +2985,10 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D18">
@@ -3095,42 +2996,42 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="12" t="s">
         <v>155</v>
       </c>
       <c r="D23" t="s">
@@ -3138,7 +3039,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C24" t="s">
@@ -3146,7 +3047,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="12" t="s">
         <v>119</v>
       </c>
       <c r="C25" t="s">
@@ -3154,7 +3055,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="12" t="s">
         <v>120</v>
       </c>
       <c r="C26" t="s">
@@ -3202,7 +3103,7 @@
       <c r="B32" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D32">
@@ -3213,7 +3114,7 @@
       <c r="B33" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="13" t="s">
         <v>170</v>
       </c>
       <c r="D33">
@@ -3224,7 +3125,7 @@
       <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D34">
@@ -3235,7 +3136,7 @@
       <c r="B35" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D35">
@@ -3246,7 +3147,7 @@
       <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="13" t="s">
         <v>165</v>
       </c>
       <c r="D36">
@@ -3260,7 +3161,7 @@
       <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="13" t="s">
         <v>166</v>
       </c>
       <c r="D37">
@@ -3274,7 +3175,7 @@
       <c r="B38" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="13" t="s">
         <v>168</v>
       </c>
       <c r="D38">
@@ -3288,7 +3189,7 @@
       <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="13" t="s">
         <v>167</v>
       </c>
       <c r="D39">
@@ -3299,24 +3200,24 @@
       <c r="B40" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="C40" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="8">
         <v>-0.46</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="8">
         <v>-0.46</v>
       </c>
     </row>
@@ -3324,10 +3225,10 @@
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="13">
+      <c r="C42" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="8">
         <v>-0.34</v>
       </c>
     </row>
@@ -3335,10 +3236,10 @@
       <c r="B43" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" s="13">
+      <c r="C43" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="8">
         <v>-0.34</v>
       </c>
     </row>
@@ -3346,10 +3247,10 @@
       <c r="B44" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="13">
+      <c r="C44" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="8">
         <v>-0.56999999999999995</v>
       </c>
     </row>
@@ -3357,10 +3258,10 @@
       <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="13">
+      <c r="C45" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="8">
         <v>-0.56999999999999995</v>
       </c>
     </row>
@@ -3368,14 +3269,14 @@
       <c r="B46" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="8">
+        <v>-0.46</v>
+      </c>
+      <c r="E46" t="s">
         <v>175</v>
-      </c>
-      <c r="D46" s="13">
-        <v>-0.46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3407,224 +3308,224 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="7">
         <v>2001</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <v>1.03</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="7">
         <v>2002</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="7">
         <v>2003</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="7">
         <v>2004</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <v>1.004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="7">
         <v>2005</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>1.016</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="7">
         <v>2006</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>1.0229999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="7">
         <v>2007</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="7">
         <v>1.008</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="7">
         <v>2008</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="7">
         <v>1.038</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="7">
         <v>2009</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <v>1.022</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="7">
         <v>2010</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="7">
         <v>1.024</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="7">
         <v>2011</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="7">
         <v>1.018</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="7">
         <v>2012</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="7">
         <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="7">
         <v>2013</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="7">
         <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="7">
         <v>2014</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="7">
         <v>2015</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="7">
         <v>2016</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="7">
         <v>1.036</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="7">
         <v>2017</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="7">
         <v>1.018</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="7">
         <v>2018</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="7">
         <v>1.0269999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="7">
         <v>2019</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="7">
         <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="7">
         <v>2020</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="7">
         <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="7">
         <v>2021</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="7">
         <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="7">
         <v>2022</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="7">
         <v>1.0580000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="7">
         <v>2023</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="7">
         <v>1.0549999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="7">
         <v>2024</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="7">
         <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="7">
         <v>2025</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="7">
         <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="7">
         <v>2026</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="7">
         <v>1.02</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3645,88 +3546,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="14">
         <v>2017</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="15">
         <v>1.024</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="14">
         <v>2018</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="15">
         <v>1.0289999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="14">
         <v>2019</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="15">
         <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="14">
         <v>2020</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="15">
         <v>1.0309999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="14">
         <v>2021</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="15">
         <v>1.0369999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="14">
         <v>2022</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="15">
         <v>1.0409999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="14">
         <v>2023</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="15">
         <v>1.054</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="14">
         <v>2024</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="16">
         <v>1.0544049999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="14">
         <v>2025</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="16">
         <v>1.0342249999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3748,142 +3649,142 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>179</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>180</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>181</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>182</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>183</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>184</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>185</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" t="s">
         <v>232</v>
       </c>
-      <c r="N1" t="s">
-        <v>188</v>
-      </c>
-      <c r="O1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R1" t="s">
-        <v>192</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>233</v>
+      </c>
+      <c r="V1" t="s">
+        <v>234</v>
+      </c>
+      <c r="W1" t="s">
         <v>193</v>
       </c>
-      <c r="T1" t="s">
-        <v>233</v>
-      </c>
-      <c r="U1" t="s">
-        <v>234</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF1" t="s">
         <v>235</v>
       </c>
-      <c r="W1" t="s">
-        <v>194</v>
-      </c>
-      <c r="X1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL1" t="s">
         <v>202</v>
       </c>
-      <c r="AF1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>203</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>204</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>205</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>206</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>207</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>208</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>209</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>210</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -7675,8 +7576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEBABEF-DA5D-4749-B0DC-CC3CEA0D78C1}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7687,160 +7588,160 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12"/>
+        <v>224</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>215</v>
+      <c r="A2" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>217</v>
+      <c r="A3" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>224</v>
+      <c r="A4" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>226</v>
+      <c r="A5" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="G5" s="12"/>
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>221</v>
+      <c r="A6" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>222</v>
+      <c r="A7" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>216</v>
+      <c r="A8" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>220</v>
+      <c r="A9" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>219</v>
+      <c r="A10" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>223</v>
+      <c r="A11" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>227</v>
+      <c r="A12" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="G12" s="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>218</v>
+      <c r="A13" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>228</v>
+      <c r="A14" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>214</v>
+      <c r="A15" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>229</v>
+      <c r="A16" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/data/Prosjekter.xlsx
+++ b/data/Prosjekter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100304\prosjekt\JKS_modell\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15DFBD0-04E7-482A-8A45-AC0BF7816CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FB258-D878-4759-8652-2C00A8721C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProsjektData" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="256">
   <si>
     <t>FO_ARBEID</t>
   </si>
@@ -412,12 +412,6 @@
     <t>Er slått sammen under resehensikten: "Fritid"</t>
   </si>
   <si>
-    <t>Ifølge NAF slites dekk på elbiler 30% raskere, men, de trenger ikke olje. Antar lik kilomerkostnad som FO.</t>
-  </si>
-  <si>
-    <t>Antas likt som FO</t>
-  </si>
-  <si>
     <t>Verdien av én persontime RTM tjeneste passasjer (kr)</t>
   </si>
   <si>
@@ -496,21 +490,12 @@
     <t>Usikker om dette gjelder FO/EL eller FO og EL som et snitt av alle lette</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.vegvesen.no/kjoretoy/eie-og-vedlikeholde/kjoretoy-og-drivstoff/energipris-per-100-km/ </t>
-  </si>
-  <si>
     <t>(19 kr / 123 kr = 0.15 -&gt; 0,37 kr  * 0.15 = 0.057 kr)</t>
   </si>
   <si>
-    <t>https://advocacy.consumerreports.org/wp-content/uploads/2020/10/EV-Ownership-Cost-Final-Report-1.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - side 9 -&gt; ≈ 0.5 * 0.42 = 0,225</t>
   </si>
   <si>
-    <t>Antas likt som FO***</t>
-  </si>
-  <si>
     <t>Urealistisk, men det finnes lite data på dette området…</t>
   </si>
   <si>
@@ -529,9 +514,6 @@
     <t>E16 Kongsvinger – E6</t>
   </si>
   <si>
-    <t>https://maps.app.goo.gl/Bmfm1KVdrfvK1UHTA</t>
-  </si>
-  <si>
     <t>E18 Kragerø - Bamble</t>
   </si>
   <si>
@@ -547,15 +529,9 @@
     <t>https://maps.app.goo.gl/uR8sF1fMGm9tr6Fy9</t>
   </si>
   <si>
-    <t>https://maps.app.goo.gl/dkihVUcyTEUARUN17</t>
-  </si>
-  <si>
     <t>Usikker på hvor skille for Akland er</t>
   </si>
   <si>
-    <t>https://maps.app.goo.gl/zJfNX8ZJjhChofMy9</t>
-  </si>
-  <si>
     <t>Andel fossildrevne tyngre kjøretøy av CD_gods</t>
   </si>
   <si>
@@ -764,6 +740,72 @@
   </si>
   <si>
     <t>Trøndelag_Lav nasjonal vekst (LLML)</t>
+  </si>
+  <si>
+    <t>47 min</t>
+  </si>
+  <si>
+    <t>19 min</t>
+  </si>
+  <si>
+    <t>12 min</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>16 min</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>44 min</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/1nxqoiWuS9tX8mxU6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/qrTQRJJHUeLVDR3B8</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/W7mXchvTLsQmEny36</t>
+  </si>
+  <si>
+    <t>36 min</t>
+  </si>
+  <si>
+    <t>Bilholdfaktor</t>
+  </si>
+  <si>
+    <t>Transportmodell-justeringsfaktor</t>
+  </si>
+  <si>
+    <t>tjeneste midtpunkt for nedgang (år)</t>
+  </si>
+  <si>
+    <t>arbeid midtpunkt for nedgang (år)</t>
+  </si>
+  <si>
+    <t>fritid midtpunkt for nedgang (år)</t>
+  </si>
+  <si>
+    <t>fritid bunnnivå for nedgang (skalar 0&lt;x&lt;1)</t>
+  </si>
+  <si>
+    <t>arbeid bunnnivå for nedgang (skalar 0&lt;x&lt;1)</t>
+  </si>
+  <si>
+    <t>tjeneste bunnnivå for nedgang (skalar 0&lt;x&lt;1)</t>
+  </si>
+  <si>
+    <t>Ukjent</t>
+  </si>
+  <si>
+    <t>Andel fossildrevene tunge kjøretøy åpningsår</t>
+  </si>
+  <si>
+    <t>Andel fossildrevene lette kjøretøy åpningsår</t>
   </si>
   <si>
     <t>Test</t>
@@ -828,7 +870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,6 +892,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +957,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -950,7 +998,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1236,28 +1293,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="9" width="27.7109375" customWidth="1"/>
+    <col min="3" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="13" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1266,8 +1324,12 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1275,14 +1337,18 @@
         <v>51.107999999999997</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="20"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1290,14 +1356,18 @@
         <v>29.7</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="20"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1305,14 +1375,18 @@
         <v>37.299999999999997</v>
       </c>
       <c r="C4" s="20"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="20"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1320,14 +1394,18 @@
         <v>515.82861559540584</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="18"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1335,14 +1413,18 @@
         <v>134.15424422380099</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1350,14 +1432,18 @@
         <v>456.30121234268609</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1365,14 +1451,18 @@
         <v>213.2200451254206</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1380,14 +1470,18 @@
         <v>498.14140842764328</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="18"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1395,14 +1489,18 @@
         <v>12.62697678484777</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1410,14 +1508,18 @@
         <v>1402.5416673231191</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1425,14 +1527,18 @@
         <v>1197.2348506331689</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="21"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1440,14 +1546,18 @@
         <v>320.85823257572201</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="21"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1455,14 +1565,18 @@
         <v>1199.696775791266</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="21"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1470,14 +1584,18 @@
         <v>540.89088931634967</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="21"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1485,14 +1603,18 @@
         <v>1270.162068024184</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="21"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1500,14 +1622,18 @@
         <v>23.40194889880253</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1515,14 +1641,18 @@
         <v>3456.8547898810361</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1530,14 +1660,18 @@
         <v>0</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1545,14 +1679,18 @@
         <v>552.52309316760579</v>
       </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1560,14 +1698,18 @@
         <v>1788.5705783675739</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1575,14 +1717,18 @@
         <v>92.688305970689512</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="18"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1590,14 +1736,18 @@
         <v>155.26074888138839</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="18"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1605,14 +1755,18 @@
         <v>778.15308574039295</v>
       </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1620,14 +1774,18 @@
         <v>59.601695990060257</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1635,14 +1793,18 @@
         <v>210.9680602302966</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1650,14 +1812,18 @@
         <v>1.0716724045159269</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="18"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1665,117 +1831,154 @@
         <v>2566.1310375835478</v>
       </c>
       <c r="C28" s="19"/>
-      <c r="D28" s="22"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="19"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="24">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>58.7</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="24">
-        <v>47</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="24">
-        <v>50</v>
+      <c r="B31" s="8">
+        <v>41.6</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="8">
+        <v>43.2</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B33" s="11">
         <v>75</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B34" s="23">
         <v>2030</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B35" s="11">
         <v>2029</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B36" s="23">
         <v>2025</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="23">
-        <v>2020</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -1784,10 +1987,14 @@
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B37" s="23">
         <v>2020</v>
@@ -1799,28 +2006,36 @@
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B39" s="11">
         <v>2050</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="11">
-        <v>2060</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -1829,28 +2044,36 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2060</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="B41" s="5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1859,28 +2082,36 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B43" s="8">
         <v>0.04</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="8">
-        <v>0.03</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1889,43 +2120,55 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B45" s="11">
         <v>40</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="9">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="9">
         <v>1</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1.0049999999999999</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1934,40 +2177,52 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="9">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B48" s="23">
         <v>0</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>39</v>
-      </c>
-      <c r="B48" s="11">
-        <v>0</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>56</v>
       </c>
       <c r="B49" s="11">
         <v>0</v>
@@ -1979,10 +2234,14 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="11">
         <v>0</v>
@@ -1994,43 +2253,55 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B52" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B53" s="9">
         <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="9">
-        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2039,153 +2310,189 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>211</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="B54" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" s="17">
+        <v>1</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="28">
+        <v>100</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" s="28">
+        <v>100</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="28">
+        <v>100</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="29">
+        <v>1</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="29">
+        <v>1</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="29">
+        <v>1</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B63" s="9">
         <f>B6 /SUM(B5:B10)</f>
         <v>7.3297415570944643E-2</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="9">
-        <f>B13 /SUM(B12:B17)</f>
-        <v>7.0483519477196152E-2</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="9">
-        <f>0.15/(0.11+0.15+1)</f>
-        <v>0.11904761904761904</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="9">
-        <f>B5 /SUM(B5:B10)</f>
-        <v>0.28183159332333407</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="9">
-        <f>B12 /SUM(B12:B17)</f>
-        <v>0.26299878683482486</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="9">
-        <v>0.23</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -2194,14 +2501,18 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B64" s="9">
-        <f>0.11/(0.11+0.15+1)</f>
-        <v>8.7301587301587297E-2</v>
+        <f>B13 /SUM(B12:B17)</f>
+        <v>7.0483519477196152E-2</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -2210,14 +2521,17 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B65" s="9">
-        <f>SUM(B7:B10) /SUM(B5:B10)</f>
-        <v>0.64487099110572144</v>
+        <v>0.2</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -2226,14 +2540,17 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B66" s="9">
-        <f>SUM(B14:B17) /SUM(B12:B17)</f>
-        <v>0.66651769368797886</v>
+        <v>0.2</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -2242,13 +2559,18 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B67" s="9">
-        <v>0.56999999999999995</v>
+        <f>0.15/(0.11+0.15+1)</f>
+        <v>0.11904761904761904</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -2257,13 +2579,18 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B68" s="9">
-        <v>0.56999999999999995</v>
+        <f>B5 /SUM(B5:B10)</f>
+        <v>0.28183159332333407</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -2272,14 +2599,18 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B69" s="9">
-        <f>1/(0.11+0.15+1)</f>
-        <v>0.79365079365079361</v>
+        <f>B12 /SUM(B12:B17)</f>
+        <v>0.26299878683482486</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -2288,271 +2619,401 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70" s="8">
+        <v>50</v>
+      </c>
+      <c r="B70" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="9">
+        <f>0.11/(0.11+0.15+1)</f>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="9">
+        <f>SUM(B7:B10) /SUM(B5:B10)</f>
+        <v>0.64487099110572144</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="9">
+        <f>SUM(B14:B17) /SUM(B12:B17)</f>
+        <v>0.66651769368797886</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="9">
+        <f>1/(0.11+0.15+1)</f>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="8">
         <v>1</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B79" s="8">
         <v>-0.46</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B80" s="8">
         <v>-0.46</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B81" s="8">
         <v>-0.34</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B82" s="8">
         <v>-0.34</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B83" s="8">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B84" s="8">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B85" s="8">
         <v>-0.46</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="11">
+        <v>470</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="11">
+        <v>85</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="11">
+        <v>70</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="11">
+        <v>470</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>126</v>
       </c>
-      <c r="B78" s="11">
-        <v>470</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="11">
+      <c r="B90" s="11">
         <v>85</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="11">
-        <v>70</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>125</v>
-      </c>
-      <c r="B81" s="11">
-        <v>470</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="11">
-        <v>85</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="11">
-        <v>70</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>135</v>
-      </c>
-      <c r="B86">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>132</v>
-      </c>
-      <c r="B87">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>137</v>
-      </c>
-      <c r="B90" s="11">
-        <v>754</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2561,133 +3022,103 @@
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="11">
+        <v>70</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="11">
+        <v>754</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B99" s="8">
         <v>0.37</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>71</v>
-      </c>
-      <c r="B93" s="8">
-        <v>0.42</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>72</v>
-      </c>
-      <c r="B94" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>73</v>
-      </c>
-      <c r="B95" s="8">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>74</v>
-      </c>
-      <c r="B96" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>75</v>
-      </c>
-      <c r="B97" s="8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>77</v>
-      </c>
-      <c r="B99" s="8">
-        <v>1.96</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -2696,13 +3127,17 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B100" s="8">
-        <v>1.28</v>
+        <v>0.25</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -2711,13 +3146,17 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B101" s="8">
-        <v>1.52</v>
+        <v>0.42</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -2726,13 +3165,17 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B102" s="8">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -2741,13 +3184,17 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B103" s="8">
-        <v>1.96</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -2756,13 +3203,17 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B104" s="8">
-        <v>1.28</v>
+        <v>0.25</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -2771,13 +3222,17 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B105" s="8">
-        <v>1.52</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -2786,13 +3241,17 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B106" s="8">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -2801,33 +3260,193 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" s="8">
+        <v>1.96</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110" s="8">
+        <v>0</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="8">
+        <v>1.96</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" s="8">
+        <v>0</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>93</v>
       </c>
-      <c r="B107" s="11">
+      <c r="B115" s="11">
         <v>8296</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2842,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106225A7-BB1C-4057-99BB-6826A9E897D0}">
   <dimension ref="B3:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,7 +3508,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2905,7 +3524,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -2921,10 +3540,10 @@
         <v>105</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -2932,7 +3551,7 @@
         <v>106</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2940,7 +3559,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -2948,177 +3567,183 @@
         <v>108</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>151</v>
+      <c r="C15" t="s">
+        <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>123</v>
+      <c r="C16" t="s">
+        <v>252</v>
       </c>
       <c r="D16">
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>153</v>
+      <c r="C17" t="s">
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>124</v>
+      <c r="C18" t="s">
+        <v>252</v>
       </c>
       <c r="D18">
         <v>0.61</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>116</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>155</v>
+      <c r="C23" t="s">
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D32">
         <v>53.7</v>
       </c>
+      <c r="E32" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="D33">
-        <v>58.7</v>
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -3126,21 +3751,27 @@
         <v>25</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="D34">
-        <v>60.6</v>
+        <v>56.3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D35">
         <v>24.6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -3148,13 +3779,16 @@
         <v>26</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D36">
         <v>16.600000000000001</v>
       </c>
+      <c r="E36" t="s">
+        <v>235</v>
+      </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -3162,13 +3796,16 @@
         <v>27</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D37">
         <v>18.7</v>
       </c>
+      <c r="E37" t="s">
+        <v>236</v>
+      </c>
       <c r="F37" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -3176,13 +3813,13 @@
         <v>24</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D38">
         <v>20.399999999999999</v>
       </c>
-      <c r="E38">
-        <v>15</v>
+      <c r="E38" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -3190,10 +3827,13 @@
         <v>28</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D39">
         <v>10.199999999999999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -3201,13 +3841,13 @@
         <v>59</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D40" s="8">
         <v>-0.46</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -3215,7 +3855,7 @@
         <v>63</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D41" s="8">
         <v>-0.46</v>
@@ -3226,7 +3866,7 @@
         <v>60</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D42" s="8">
         <v>-0.34</v>
@@ -3237,7 +3877,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D43" s="8">
         <v>-0.34</v>
@@ -3248,7 +3888,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D44" s="8">
         <v>-0.56999999999999995</v>
@@ -3259,7 +3899,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D45" s="8">
         <v>-0.56999999999999995</v>
@@ -3270,28 +3910,27 @@
         <v>62</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D46" s="8">
         <v>-0.46</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{9712CBD6-C0D1-4268-9211-39FB2F69B0BA}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{FB24E8A3-89CE-4434-A835-C1E1D9438347}"/>
-    <hyperlink ref="C32" r:id="rId3" xr:uid="{1ED59E7D-9CE9-47AE-908E-8598075D3AD2}"/>
-    <hyperlink ref="C33" r:id="rId4" xr:uid="{D1DAD406-21D7-4D43-9A20-EEE27DB93C8F}"/>
-    <hyperlink ref="C34" r:id="rId5" xr:uid="{F3AD91FA-A986-42C9-9F72-FECC737F4F87}"/>
-    <hyperlink ref="C35" r:id="rId6" xr:uid="{9E1C1893-DB04-4DA3-9981-E03DDA2C480A}"/>
-    <hyperlink ref="C36" r:id="rId7" xr:uid="{86D5959F-AF21-4816-AE3D-FECE95EBBF3A}"/>
-    <hyperlink ref="C37" r:id="rId8" xr:uid="{A354E42C-CA3F-4785-A8DD-0CA8F37FB0D7}"/>
-    <hyperlink ref="C39" r:id="rId9" xr:uid="{699E3FC0-1D52-4B6C-8514-DAD7F606A312}"/>
-    <hyperlink ref="C40" r:id="rId10" xr:uid="{D8CBC771-8F3A-4999-9558-700FEFCA9F04}"/>
-    <hyperlink ref="C41:C46" r:id="rId11" display="https://www.moreforsk.no/publikasjoner/rapporter/transportokonomi/nye-tidsverdier-i-samfunnsokonomiske-beregninger-alternative-vurderinger-basert-pa-analyser-av-to-vegprosjekter/1094/3425/" xr:uid="{D5C0237D-0164-4CA1-855F-7C65AEF81851}"/>
+    <hyperlink ref="C32" r:id="rId1" xr:uid="{1ED59E7D-9CE9-47AE-908E-8598075D3AD2}"/>
+    <hyperlink ref="C33" r:id="rId2" xr:uid="{D1DAD406-21D7-4D43-9A20-EEE27DB93C8F}"/>
+    <hyperlink ref="C34" r:id="rId3" xr:uid="{F3AD91FA-A986-42C9-9F72-FECC737F4F87}"/>
+    <hyperlink ref="C35" r:id="rId4" xr:uid="{9E1C1893-DB04-4DA3-9981-E03DDA2C480A}"/>
+    <hyperlink ref="C36" r:id="rId5" xr:uid="{86D5959F-AF21-4816-AE3D-FECE95EBBF3A}"/>
+    <hyperlink ref="C37" r:id="rId6" xr:uid="{A354E42C-CA3F-4785-A8DD-0CA8F37FB0D7}"/>
+    <hyperlink ref="C39" r:id="rId7" xr:uid="{699E3FC0-1D52-4B6C-8514-DAD7F606A312}"/>
+    <hyperlink ref="C40" r:id="rId8" xr:uid="{D8CBC771-8F3A-4999-9558-700FEFCA9F04}"/>
+    <hyperlink ref="C41:C46" r:id="rId9" display="https://www.moreforsk.no/publikasjoner/rapporter/transportokonomi/nye-tidsverdier-i-samfunnsokonomiske-beregninger-alternative-vurderinger-basert-pa-analyser-av-to-vegprosjekter/1094/3425/" xr:uid="{D5C0237D-0164-4CA1-855F-7C65AEF81851}"/>
+    <hyperlink ref="C38" r:id="rId10" xr:uid="{C16BFF20-52ED-4FB2-98CB-18FACBDA6F67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3639,7 +4278,7 @@
   <dimension ref="A1:AT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,142 +4288,142 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" t="s">
         <v>177</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>178</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
+        <v>224</v>
+      </c>
+      <c r="U1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V1" t="s">
+        <v>226</v>
+      </c>
+      <c r="W1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" t="s">
+      <c r="X1" t="s">
         <v>186</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Y1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH1" t="s">
         <v>229</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AI1" t="s">
         <v>230</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AJ1" t="s">
         <v>231</v>
       </c>
-      <c r="N1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R1" t="s">
-        <v>191</v>
-      </c>
-      <c r="S1" t="s">
-        <v>192</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="AK1" t="s">
         <v>232</v>
       </c>
-      <c r="U1" t="s">
-        <v>233</v>
-      </c>
-      <c r="V1" t="s">
-        <v>234</v>
-      </c>
-      <c r="W1" t="s">
-        <v>193</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AL1" t="s">
         <v>194</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AM1" t="s">
         <v>195</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AN1" t="s">
         <v>196</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AO1" t="s">
         <v>197</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AP1" t="s">
         <v>198</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AQ1" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AR1" t="s">
         <v>200</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AS1" t="s">
         <v>201</v>
       </c>
-      <c r="AF1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AT1" t="s">
         <v>202</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -7576,9 +8215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEBABEF-DA5D-4749-B0DC-CC3CEA0D78C1}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7588,17 +8225,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E1" s="7"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7608,7 +8245,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7618,7 +8255,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7628,17 +8265,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7648,7 +8285,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7658,7 +8295,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7668,7 +8305,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7678,7 +8315,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7688,7 +8325,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7698,17 +8335,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7718,7 +8355,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7728,7 +8365,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7738,10 +8375,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Prosjekter.xlsx
+++ b/data/Prosjekter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100304\prosjekt\JKS_modell\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994FB258-D878-4759-8652-2C00A8721C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F8354A-0475-468D-AF3C-2709454A20BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProsjektData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tabell prisvekst" sheetId="2" r:id="rId3"/>
     <sheet name="Tabell lønnsvekst" sheetId="3" r:id="rId4"/>
     <sheet name="Befolkningsfremskrivinger" sheetId="5" r:id="rId5"/>
-    <sheet name="bef. til trafikk" sheetId="7" r:id="rId6"/>
+    <sheet name="Kjøretøypark tunge" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="244">
   <si>
     <t>FO_ARBEID</t>
   </si>
@@ -655,57 +655,9 @@
     <t>Fylke (Bruk fylkenavn fra "Befolkningsfremskrivinger")</t>
   </si>
   <si>
-    <t>Fylke</t>
-  </si>
-  <si>
-    <t>Østfold</t>
-  </si>
-  <si>
-    <t>Akershus</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>Buskerud</t>
-  </si>
-  <si>
-    <t>Vestfold</t>
-  </si>
-  <si>
-    <t>Telemark</t>
-  </si>
-  <si>
-    <t>Rogaland</t>
-  </si>
-  <si>
-    <t>Møre og Romsdal</t>
-  </si>
-  <si>
-    <t>Nordland</t>
-  </si>
-  <si>
-    <t>Troms</t>
-  </si>
-  <si>
-    <t>Finnmark</t>
-  </si>
-  <si>
-    <t>transportarbeid_koeffisient</t>
-  </si>
-  <si>
-    <t>Innlandet</t>
-  </si>
-  <si>
     <t>Trøndelag</t>
   </si>
   <si>
-    <t>Vestland</t>
-  </si>
-  <si>
-    <t>Agder</t>
-  </si>
-  <si>
     <t>Finnmark_Hovedalternativet (MMMM)</t>
   </si>
   <si>
@@ -809,6 +761,18 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Lastebil Total</t>
+  </si>
+  <si>
+    <t>Lastebil El</t>
+  </si>
+  <si>
+    <t>Lastebil H2</t>
+  </si>
+  <si>
+    <t>Lastebil Diesel</t>
   </si>
 </sst>
 </file>
@@ -902,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -950,6 +914,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -957,7 +936,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1010,6 +989,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperkobling" xfId="2" builtinId="8"/>
@@ -1028,6 +1011,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>667730</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bilde 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4383CC-4B3B-96DD-9790-EFC64C7DEE9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18011775" y="0"/>
+          <a:ext cx="7020905" cy="4324954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
@@ -1315,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1844,7 +1876,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B29" s="26">
         <v>1</v>
@@ -2070,7 +2102,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B41" s="5">
         <v>0.6</v>
@@ -2089,7 +2121,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B42" s="5">
         <v>0.2</v>
@@ -2339,7 +2371,7 @@
         <v>203</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -2355,7 +2387,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B56" s="17">
         <v>1</v>
@@ -2374,7 +2406,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B57" s="28">
         <v>100</v>
@@ -2393,7 +2425,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B58" s="28">
         <v>100</v>
@@ -2412,7 +2444,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B59" s="28">
         <v>100</v>
@@ -2431,7 +2463,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B60" s="29">
         <v>1</v>
@@ -2450,7 +2482,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B61" s="29">
         <v>1</v>
@@ -2469,7 +2501,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B62" s="29">
         <v>1</v>
@@ -3461,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106225A7-BB1C-4057-99BB-6826A9E897D0}">
   <dimension ref="B3:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3575,7 +3607,7 @@
         <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
         <v>149</v>
@@ -3586,7 +3618,7 @@
         <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D16">
         <v>0.25</v>
@@ -3597,7 +3629,7 @@
         <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
         <v>150</v>
@@ -3608,7 +3640,7 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D18">
         <v>0.61</v>
@@ -3651,7 +3683,7 @@
         <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -3662,7 +3694,7 @@
         <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -3670,7 +3702,7 @@
         <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -3678,7 +3710,7 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -3729,7 +3761,7 @@
         <v>53.7</v>
       </c>
       <c r="E32" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -3737,13 +3769,13 @@
         <v>156</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D33">
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -3751,13 +3783,13 @@
         <v>25</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D34">
         <v>56.3</v>
       </c>
       <c r="E34" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -3771,7 +3803,7 @@
         <v>24.6</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -3785,7 +3817,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F36" t="s">
         <v>162</v>
@@ -3802,7 +3834,7 @@
         <v>18.7</v>
       </c>
       <c r="E37" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
         <v>162</v>
@@ -3813,13 +3845,13 @@
         <v>24</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D38">
         <v>20.399999999999999</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -3833,7 +3865,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -3933,6 +3965,7 @@
     <hyperlink ref="C38" r:id="rId10" xr:uid="{C16BFF20-52ED-4FB2-98CB-18FACBDA6F67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -4318,13 +4351,13 @@
         <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="M1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="N1" t="s">
         <v>179</v>
@@ -4345,13 +4378,13 @@
         <v>184</v>
       </c>
       <c r="T1" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="U1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="V1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="W1" t="s">
         <v>185</v>
@@ -4381,22 +4414,22 @@
         <v>193</v>
       </c>
       <c r="AF1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="AG1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AH1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="AI1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="AJ1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="AK1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AL1" t="s">
         <v>194</v>
@@ -8213,172 +8246,746 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEBABEF-DA5D-4749-B0DC-CC3CEA0D78C1}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="7"/>
+      <c r="A1" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>243</v>
+      </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="30">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="30">
+        <v>2159</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30">
+        <v>2159</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="30">
+        <v>2196</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>2193</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2234</v>
+      </c>
+      <c r="C4" s="30">
+        <v>10.3</v>
+      </c>
+      <c r="D4" s="30">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="30">
+        <v>2223</v>
+      </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7"/>
+      <c r="A5" s="30">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="30">
+        <v>2271</v>
+      </c>
+      <c r="C5" s="30">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="D5" s="30">
+        <v>4</v>
+      </c>
+      <c r="E5" s="30">
+        <v>2196</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7"/>
+      <c r="A6" s="30">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="30">
+        <v>2282</v>
+      </c>
+      <c r="C6" s="30">
+        <v>96.5</v>
+      </c>
+      <c r="D6" s="30">
+        <v>5</v>
+      </c>
+      <c r="E6" s="30">
+        <v>2181</v>
+      </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="A7" s="30">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="30">
+        <v>2293</v>
+      </c>
+      <c r="C7" s="30">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="30">
+        <v>6</v>
+      </c>
+      <c r="E7" s="30">
+        <v>2165</v>
+      </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7"/>
+      <c r="A8" s="30">
+        <v>2026</v>
+      </c>
+      <c r="B8" s="30">
+        <v>2305</v>
+      </c>
+      <c r="C8" s="30">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="D8" s="30">
+        <v>8</v>
+      </c>
+      <c r="E8" s="30">
+        <v>2149</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
+      <c r="A9" s="30">
+        <v>2027</v>
+      </c>
+      <c r="B9" s="30">
+        <v>2316</v>
+      </c>
+      <c r="C9" s="30">
+        <v>174.1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>9</v>
+      </c>
+      <c r="E9" s="30">
+        <v>2132</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="A10" s="30">
+        <v>2028</v>
+      </c>
+      <c r="B10" s="30">
+        <v>2326</v>
+      </c>
+      <c r="C10" s="30">
+        <v>201</v>
+      </c>
+      <c r="D10" s="30">
+        <v>11</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2115</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7"/>
+      <c r="A11" s="30">
+        <v>2029</v>
+      </c>
+      <c r="B11" s="30">
+        <v>2337</v>
+      </c>
+      <c r="C11" s="30">
+        <v>228.4</v>
+      </c>
+      <c r="D11" s="30">
+        <v>12</v>
+      </c>
+      <c r="E11" s="30">
+        <v>2097</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="A12" s="30">
+        <v>2030</v>
+      </c>
+      <c r="B12" s="30">
+        <v>2348</v>
+      </c>
+      <c r="C12" s="30">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="D12" s="30">
+        <v>13</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2078</v>
+      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="A13" s="30">
+        <v>2031</v>
+      </c>
+      <c r="B13" s="30">
+        <v>2353</v>
+      </c>
+      <c r="C13" s="30">
+        <v>306.60000000000002</v>
+      </c>
+      <c r="D13" s="30">
+        <v>20</v>
+      </c>
+      <c r="E13" s="30">
+        <v>2027</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="A14" s="30">
+        <v>2032</v>
+      </c>
+      <c r="B14" s="30">
+        <v>2358</v>
+      </c>
+      <c r="C14" s="30">
+        <v>356.9</v>
+      </c>
+      <c r="D14" s="30">
+        <v>27</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1974</v>
+      </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="A15" s="30">
+        <v>2033</v>
+      </c>
+      <c r="B15" s="30">
+        <v>2363</v>
+      </c>
+      <c r="C15" s="30">
+        <v>407.4</v>
+      </c>
+      <c r="D15" s="30">
+        <v>35</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1920</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="A16" s="30">
+        <v>2034</v>
+      </c>
+      <c r="B16" s="30">
+        <v>2368</v>
+      </c>
+      <c r="C16" s="30">
+        <v>458.1</v>
+      </c>
+      <c r="D16" s="30">
+        <v>45</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>2035</v>
+      </c>
+      <c r="B17" s="30">
+        <v>2373</v>
+      </c>
+      <c r="C17" s="30">
+        <v>508.9</v>
+      </c>
+      <c r="D17" s="30">
+        <v>57</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>2036</v>
+      </c>
+      <c r="B18" s="30">
+        <v>2378</v>
+      </c>
+      <c r="C18" s="30">
+        <v>556.70000000000005</v>
+      </c>
+      <c r="D18" s="30">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1752.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>2037</v>
+      </c>
+      <c r="B19" s="30">
+        <v>2382</v>
+      </c>
+      <c r="C19" s="30">
+        <v>603.1</v>
+      </c>
+      <c r="D19" s="30">
+        <v>79.2</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1699.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>2038</v>
+      </c>
+      <c r="B20" s="30">
+        <v>2386</v>
+      </c>
+      <c r="C20" s="30">
+        <v>647.1</v>
+      </c>
+      <c r="D20" s="30">
+        <v>89.3</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>2039</v>
+      </c>
+      <c r="B21" s="30">
+        <v>2390</v>
+      </c>
+      <c r="C21" s="30">
+        <v>689.2</v>
+      </c>
+      <c r="D21" s="30">
+        <v>98.9</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1602.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>2040</v>
+      </c>
+      <c r="B22" s="30">
+        <v>2394</v>
+      </c>
+      <c r="C22" s="30">
+        <v>729</v>
+      </c>
+      <c r="D22" s="30">
+        <v>107.8</v>
+      </c>
+      <c r="E22" s="30">
+        <v>1557.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>2041</v>
+      </c>
+      <c r="B23" s="30">
+        <v>2398</v>
+      </c>
+      <c r="C23" s="30">
+        <v>766.9</v>
+      </c>
+      <c r="D23" s="30">
+        <v>116.1</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1514.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>2042</v>
+      </c>
+      <c r="B24" s="30">
+        <v>2401</v>
+      </c>
+      <c r="C24" s="30">
+        <v>802.7</v>
+      </c>
+      <c r="D24" s="30">
+        <v>123.9</v>
+      </c>
+      <c r="E24" s="30">
+        <v>1474.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>2043</v>
+      </c>
+      <c r="B25" s="30">
+        <v>2404</v>
+      </c>
+      <c r="C25" s="30">
+        <v>836.6</v>
+      </c>
+      <c r="D25" s="30">
+        <v>131.1</v>
+      </c>
+      <c r="E25" s="30">
+        <v>1436.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>2044</v>
+      </c>
+      <c r="B26" s="30">
+        <v>2407</v>
+      </c>
+      <c r="C26" s="30">
+        <v>868.6</v>
+      </c>
+      <c r="D26" s="30">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E26" s="30">
+        <v>1400.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>2045</v>
+      </c>
+      <c r="B27" s="30">
+        <v>2410</v>
+      </c>
+      <c r="C27" s="30">
+        <v>898.9</v>
+      </c>
+      <c r="D27" s="30">
+        <v>144</v>
+      </c>
+      <c r="E27" s="30">
+        <v>1366.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>2046</v>
+      </c>
+      <c r="B28" s="30">
+        <v>2412</v>
+      </c>
+      <c r="C28" s="30">
+        <v>927.5</v>
+      </c>
+      <c r="D28" s="30">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="E28" s="30">
+        <v>1335.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>2047</v>
+      </c>
+      <c r="B29" s="30">
+        <v>2415</v>
+      </c>
+      <c r="C29" s="30">
+        <v>954.5</v>
+      </c>
+      <c r="D29" s="30">
+        <v>155</v>
+      </c>
+      <c r="E29" s="30">
+        <v>1305.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>2048</v>
+      </c>
+      <c r="B30" s="30">
+        <v>2417</v>
+      </c>
+      <c r="C30" s="30">
+        <v>980</v>
+      </c>
+      <c r="D30" s="30">
+        <v>159.9</v>
+      </c>
+      <c r="E30" s="30">
+        <v>1277.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>2049</v>
+      </c>
+      <c r="B31" s="30">
+        <v>2419</v>
+      </c>
+      <c r="C31" s="30">
+        <v>1004.1</v>
+      </c>
+      <c r="D31" s="30">
+        <v>164.4</v>
+      </c>
+      <c r="E31" s="30">
+        <v>1250.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="30">
+        <v>2421</v>
+      </c>
+      <c r="C32" s="30">
+        <v>1026.9000000000001</v>
+      </c>
+      <c r="D32" s="30">
+        <v>168.5</v>
+      </c>
+      <c r="E32" s="30">
+        <v>1225.9000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>2051</v>
+      </c>
+      <c r="B33" s="30">
+        <v>2423</v>
+      </c>
+      <c r="C33" s="30">
+        <v>1048.5</v>
+      </c>
+      <c r="D33" s="30">
+        <v>172.3</v>
+      </c>
+      <c r="E33" s="30">
+        <v>1202.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="30">
+        <v>2425</v>
+      </c>
+      <c r="C34" s="30">
+        <v>1068.9000000000001</v>
+      </c>
+      <c r="D34" s="30">
+        <v>175.8</v>
+      </c>
+      <c r="E34" s="30">
+        <v>1180.4000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="30">
+        <v>2427</v>
+      </c>
+      <c r="C35" s="30">
+        <v>1088.2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>179</v>
+      </c>
+      <c r="E35" s="30">
+        <v>1159.5999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="30">
+        <v>2428</v>
+      </c>
+      <c r="C36" s="30">
+        <v>1106.5</v>
+      </c>
+      <c r="D36" s="30">
+        <v>182</v>
+      </c>
+      <c r="E36" s="30">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>2055</v>
+      </c>
+      <c r="B37" s="30">
+        <v>2430</v>
+      </c>
+      <c r="C37" s="30">
+        <v>1123.9000000000001</v>
+      </c>
+      <c r="D37" s="30">
+        <v>184.6</v>
+      </c>
+      <c r="E37" s="30">
+        <v>1121.4000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>2056</v>
+      </c>
+      <c r="B38" s="30">
+        <v>2431</v>
+      </c>
+      <c r="C38" s="30">
+        <v>1140.4000000000001</v>
+      </c>
+      <c r="D38" s="30">
+        <v>187.1</v>
+      </c>
+      <c r="E38" s="30">
+        <v>1103.9000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>2057</v>
+      </c>
+      <c r="B39" s="30">
+        <v>2433</v>
+      </c>
+      <c r="C39" s="30">
+        <v>1156.0999999999999</v>
+      </c>
+      <c r="D39" s="30">
+        <v>189.4</v>
+      </c>
+      <c r="E39" s="30">
+        <v>1087.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>2058</v>
+      </c>
+      <c r="B40" s="30">
+        <v>2434</v>
+      </c>
+      <c r="C40" s="30">
+        <v>1171</v>
+      </c>
+      <c r="D40" s="30">
+        <v>191.4</v>
+      </c>
+      <c r="E40" s="30">
+        <v>1071.5999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>2059</v>
+      </c>
+      <c r="B41" s="30">
+        <v>2435</v>
+      </c>
+      <c r="C41" s="30">
+        <v>1185.2</v>
+      </c>
+      <c r="D41" s="30">
+        <v>193.3</v>
+      </c>
+      <c r="E41" s="30">
+        <v>1056.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>2060</v>
+      </c>
+      <c r="B42" s="30">
+        <v>2436</v>
+      </c>
+      <c r="C42" s="30">
+        <v>1198.7</v>
+      </c>
+      <c r="D42" s="30">
+        <v>195</v>
+      </c>
+      <c r="E42" s="30">
+        <v>1042.5999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/Prosjekter.xlsx
+++ b/data/Prosjekter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100304\prosjekt\JKS_modell\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F8354A-0475-468D-AF3C-2709454A20BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CD48C5-AFAF-4D11-B943-65A3543ED830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProsjektData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Tabell prisvekst" sheetId="2" r:id="rId3"/>
     <sheet name="Tabell lønnsvekst" sheetId="3" r:id="rId4"/>
     <sheet name="Befolkningsfremskrivinger" sheetId="5" r:id="rId5"/>
-    <sheet name="Kjøretøypark tunge" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="253">
   <si>
     <t>FO_ARBEID</t>
   </si>
@@ -175,36 +174,18 @@
     <t>Antall år levetid</t>
   </si>
   <si>
-    <t>Lette kjøretøy tjeneste (andel av FO_RTM)</t>
-  </si>
-  <si>
-    <t>Lette kjøretøy tjeneste (andel av EL_RTM)</t>
-  </si>
-  <si>
     <t>Lette kjøretøy tjeneste (andel av FO_NTM)</t>
   </si>
   <si>
     <t>Lette kjøretøy tjeneste (andel av EL_NTM)</t>
   </si>
   <si>
-    <t>Lette kjøretøy arbeid (andel av FO_RTM)</t>
-  </si>
-  <si>
-    <t>Lette kjøretøy arbeid (andel av EL_RTM)</t>
-  </si>
-  <si>
     <t>Lette kjøretøy arbeid (andel av FO_NTM)</t>
   </si>
   <si>
     <t>Lette kjøretøy arbeid (andel av EL_NTM)</t>
   </si>
   <si>
-    <t>Lette kjøretøy fritid (andel av FO_RTM)</t>
-  </si>
-  <si>
-    <t>Lette kjøretøy fritid (andel av EL_RTM)</t>
-  </si>
-  <si>
     <t>Lette kjøretøy fritid (andel av FO_NTM)</t>
   </si>
   <si>
@@ -532,9 +513,6 @@
     <t>Usikker på hvor skille for Akland er</t>
   </si>
   <si>
-    <t>Andel fossildrevne tyngre kjøretøy av CD_gods</t>
-  </si>
-  <si>
     <t>Videre vekst pr år (priser)</t>
   </si>
   <si>
@@ -763,29 +741,80 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Lastebil Total</t>
-  </si>
-  <si>
-    <t>Lastebil El</t>
-  </si>
-  <si>
-    <t>Lastebil H2</t>
-  </si>
-  <si>
-    <t>Lastebil Diesel</t>
+    <t>Andel fossildrevene tunge kjøretøy transportmodell år</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E6 Steinkjer Åsen </t>
+  </si>
+  <si>
+    <t>Transportmodell utskrift</t>
+  </si>
+  <si>
+    <t>Årstall brukt i modellen</t>
+  </si>
+  <si>
+    <t>Andel av bilpark som er fossildrevene i åpningsår</t>
+  </si>
+  <si>
+    <t>Kalkulasjonsrente</t>
+  </si>
+  <si>
+    <t>Vekstrater som blir brukt foruten tabell prisvekst- og lønn</t>
+  </si>
+  <si>
+    <t>Konstantledd (Bompenger, ferger, etc.)</t>
+  </si>
+  <si>
+    <t>Trafikkvekst i "Standard"- forutsetninger</t>
+  </si>
+  <si>
+    <t>Fylke</t>
+  </si>
+  <si>
+    <t>Trafikkvekst som følge av vekst i befolkningen</t>
+  </si>
+  <si>
+    <t>Juster reisehensikt ÅDT ila. Prosjektets levetid (100% = ingen påvirkning)</t>
+  </si>
+  <si>
+    <t>Pris-elastisiteter for generaliserte kostnader</t>
+  </si>
+  <si>
+    <t>Tidskostnader</t>
+  </si>
+  <si>
+    <t>Kjøretøykostnader</t>
+  </si>
+  <si>
+    <t>EFFEKT utskrift til sammenligning</t>
+  </si>
+  <si>
+    <t>Andel av bilpark som er tjenestereisende i transportmodell året</t>
+  </si>
+  <si>
+    <t>Andel av bilpark som er arbeidsreisende i transportmodell året</t>
+  </si>
+  <si>
+    <t>Andel av bilpark som er fritidsreisende i transportmodell året</t>
+  </si>
+  <si>
+    <t>Juster ÅDT-tallene ovenfor med en multiplikator/faktor:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_-&quot;kr&quot;\ * #,##0.00_-;\-&quot;kr&quot;\ * #,##0.00_-;_-&quot;kr&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0\ %"/>
+    <numFmt numFmtId="172" formatCode="0&quot; år&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,6 +862,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -861,12 +907,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -914,35 +960,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,55 +981,104 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Hyperkobling" xfId="2" builtinId="8"/>
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Komma 2" xfId="3" xr:uid="{B4A7F91F-A5EF-4F9B-9B42-EA80E61DAD7F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Prosent" xfId="4" builtinId="5"/>
+    <cellStyle name="Valuta" xfId="5" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,922 +1405,990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="13" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="23">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>41.6</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23">
+        <v>43.2</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B6" s="46">
+        <v>1</v>
+      </c>
+      <c r="C6" s="46">
         <v>51.107999999999997</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B7" s="46">
+        <v>1</v>
+      </c>
+      <c r="C7" s="46">
         <v>29.7</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="55">
         <v>37.299999999999997</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B9" s="47">
+        <v>0</v>
+      </c>
+      <c r="C9" s="47">
         <v>515.82861559540584</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B10" s="47">
+        <v>0</v>
+      </c>
+      <c r="C10" s="47">
         <v>134.15424422380099</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B11" s="47">
+        <v>1</v>
+      </c>
+      <c r="C11" s="47">
         <v>456.30121234268609</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B12" s="47">
+        <v>0</v>
+      </c>
+      <c r="C12" s="47">
         <v>213.2200451254206</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B13" s="47">
+        <v>0</v>
+      </c>
+      <c r="C13" s="47">
         <v>498.14140842764328</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B14" s="47">
+        <v>0</v>
+      </c>
+      <c r="C14" s="47">
         <v>12.62697678484777</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B15" s="47">
+        <v>1</v>
+      </c>
+      <c r="C15" s="47">
         <v>1402.5416673231191</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B16" s="47">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47">
         <v>1197.2348506331689</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B17" s="47">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
         <v>320.85823257572201</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B18" s="47">
+        <v>0</v>
+      </c>
+      <c r="C18" s="47">
         <v>1199.696775791266</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+    </row>
+    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B19" s="47">
+        <v>0</v>
+      </c>
+      <c r="C19" s="47">
         <v>540.89088931634967</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+    </row>
+    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B20" s="47">
+        <v>0</v>
+      </c>
+      <c r="C20" s="47">
         <v>1270.162068024184</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+    </row>
+    <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B21" s="47">
+        <v>0</v>
+      </c>
+      <c r="C21" s="47">
         <v>23.40194889880253</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+    </row>
+    <row r="22" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B22" s="47">
+        <v>2</v>
+      </c>
+      <c r="C22" s="47">
         <v>3456.8547898810361</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+    </row>
+    <row r="23" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B23" s="47">
         <v>0</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C23" s="47">
+        <v>0</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+    </row>
+    <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B24" s="47">
+        <v>0</v>
+      </c>
+      <c r="C24" s="47">
         <v>552.52309316760579</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+    </row>
+    <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B25" s="47">
+        <v>1</v>
+      </c>
+      <c r="C25" s="47">
         <v>1788.5705783675739</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+    </row>
+    <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B26" s="47">
+        <v>0</v>
+      </c>
+      <c r="C26" s="47">
         <v>92.688305970689512</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+    </row>
+    <row r="27" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B27" s="47">
+        <v>0</v>
+      </c>
+      <c r="C27" s="47">
         <v>155.26074888138839</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+    </row>
+    <row r="28" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B28" s="47">
+        <v>0</v>
+      </c>
+      <c r="C28" s="47">
         <v>778.15308574039295</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+    </row>
+    <row r="29" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B29" s="47">
+        <v>0</v>
+      </c>
+      <c r="C29" s="47">
         <v>59.601695990060257</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+    </row>
+    <row r="30" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B30" s="47">
+        <v>0</v>
+      </c>
+      <c r="C30" s="47">
         <v>210.9680602302966</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+    </row>
+    <row r="31" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B31" s="47">
+        <v>0</v>
+      </c>
+      <c r="C31" s="47">
         <v>1.0716724045159269</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+    </row>
+    <row r="32" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B32" s="49">
+        <v>0</v>
+      </c>
+      <c r="C32" s="49">
         <v>2566.1310375835478</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="26">
+      <c r="D32" s="49"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+    </row>
+    <row r="33" spans="1:13" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+    </row>
+    <row r="34" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="43">
         <v>1</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>58.7</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="8">
-        <v>41.6</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="8">
-        <v>43.2</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C34" s="43">
+        <v>1</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+    </row>
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+    </row>
+    <row r="37" spans="1:13" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+    </row>
+    <row r="38" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B38" s="37">
         <v>75</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C38" s="37">
+        <v>75</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B39" s="42">
         <v>2030</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C39" s="42">
+        <v>2030</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+    </row>
+    <row r="40" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B40" s="15">
         <v>2029</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B41" s="42">
         <v>2025</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="23">
+      <c r="C41" s="42">
+        <v>2025</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+    </row>
+    <row r="42" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="42">
         <v>2020</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="23">
+      <c r="C42" s="42">
         <v>2020</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="11">
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+    </row>
+    <row r="43" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="42">
+        <v>2020</v>
+      </c>
+      <c r="C43" s="42">
+        <v>2020</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+    </row>
+    <row r="44" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="15">
         <v>2050</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="11">
+      <c r="C44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="15">
         <v>2060</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="B41" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>237</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="8">
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+    </row>
+    <row r="47" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="16">
         <v>0.04</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="8">
+      <c r="C47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+    </row>
+    <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="16">
         <v>0.03</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="11">
-        <v>40</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="9">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="23">
-        <v>0</v>
-      </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="16">
+        <v>0.03</v>
+      </c>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -2252,128 +2400,134 @@
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="11">
+    <row r="49" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="40">
+        <v>40</v>
+      </c>
+      <c r="C49" s="40">
+        <v>40</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+    </row>
+    <row r="50" spans="1:13" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="25">
         <v>0</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="11">
+      <c r="C51" s="25">
         <v>0</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="11">
-        <v>0</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+    </row>
+    <row r="53" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B54" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C54" s="35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+    </row>
+    <row r="55" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B55" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="9">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="17"/>
+      <c r="C55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -2385,14 +2539,16 @@
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>228</v>
-      </c>
-      <c r="B56" s="17">
-        <v>1</v>
-      </c>
-      <c r="C56" s="17"/>
+    <row r="56" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -2404,1081 +2560,1410 @@
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+    </row>
+    <row r="58" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="34">
+        <v>1</v>
+      </c>
+      <c r="C58" s="34">
+        <v>1</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+    </row>
+    <row r="59" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+    </row>
+    <row r="60" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="30">
+        <v>100</v>
+      </c>
+      <c r="C60" s="30">
+        <v>100</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+    </row>
+    <row r="61" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="30">
+        <v>100</v>
+      </c>
+      <c r="C61" s="30">
+        <v>100</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+    </row>
+    <row r="62" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="30">
+        <v>100</v>
+      </c>
+      <c r="C62" s="30">
+        <v>100</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+    </row>
+    <row r="63" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="32">
+        <v>1</v>
+      </c>
+      <c r="C63" s="32">
+        <v>1</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+    </row>
+    <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="32">
+        <v>1</v>
+      </c>
+      <c r="C64" s="32">
+        <v>1</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+    </row>
+    <row r="65" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" s="32">
+        <v>1</v>
+      </c>
+      <c r="C65" s="32">
+        <v>1</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+    </row>
+    <row r="66" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+    </row>
+    <row r="67" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="C67" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+    </row>
+    <row r="68" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="28">
-        <v>100</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" s="28">
-        <v>100</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="28">
-        <v>100</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>235</v>
-      </c>
-      <c r="B60" s="29">
-        <v>1</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" s="29">
-        <v>1</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B68" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="C68" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+    </row>
+    <row r="69" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B62" s="29">
-        <v>1</v>
-      </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B69" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="C69" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+    </row>
+    <row r="70" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+    </row>
+    <row r="71" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="9">
-        <f>B6 /SUM(B5:B10)</f>
-        <v>7.3297415570944643E-2</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+    </row>
+    <row r="72" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="9">
-        <f>B13 /SUM(B12:B17)</f>
-        <v>7.0483519477196152E-2</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="9">
+      <c r="B72" s="16">
         <v>0.2</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="9">
+      <c r="C72" s="16">
         <v>0.2</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="9">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+    </row>
+    <row r="73" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="16">
         <f>0.15/(0.11+0.15+1)</f>
         <v>0.11904761904761904</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="9">
-        <f>B5 /SUM(B5:B10)</f>
-        <v>0.28183159332333407</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" s="9">
-        <f>B12 /SUM(B12:B17)</f>
-        <v>0.26299878683482486</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="9">
+      <c r="C73" s="16">
+        <f>0.15/(0.11+0.15+1)</f>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+    </row>
+    <row r="74" spans="1:13" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+    </row>
+    <row r="75" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="25">
         <v>0.23</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="9">
+      <c r="C75" s="25">
         <v>0.23</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="9">
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+    </row>
+    <row r="76" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="C76" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+    </row>
+    <row r="77" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="25">
         <f>0.11/(0.11+0.15+1)</f>
         <v>8.7301587301587297E-2</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="9">
-        <f>SUM(B7:B10) /SUM(B5:B10)</f>
-        <v>0.64487099110572144</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="9">
-        <f>SUM(B14:B17) /SUM(B12:B17)</f>
-        <v>0.66651769368797886</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="9">
+      <c r="C77" s="25">
+        <f>0.11/(0.11+0.15+1)</f>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+    </row>
+    <row r="78" spans="1:13" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+    </row>
+    <row r="79" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="9">
+      <c r="C79" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="9">
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+    </row>
+    <row r="80" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+    </row>
+    <row r="81" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="16">
         <f>1/(0.11+0.15+1)</f>
         <v>0.79365079365079361</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" s="8">
-        <v>1</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C81" s="16">
+        <f>1/(0.11+0.15+1)</f>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+    </row>
+    <row r="82" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+    </row>
+    <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="C83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+    </row>
+    <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="C84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+    </row>
+    <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="C85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+    </row>
+    <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="C86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+    </row>
+    <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+    </row>
+    <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+    </row>
+    <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="13">
         <v>-0.46</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+    </row>
+    <row r="90" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
+    </row>
+    <row r="91" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="21">
+        <v>470</v>
+      </c>
+      <c r="C91" s="21">
+        <v>470</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+    </row>
+    <row r="92" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="21">
+        <v>85</v>
+      </c>
+      <c r="C92" s="21">
+        <v>85</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+    </row>
+    <row r="93" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="21">
+        <v>70</v>
+      </c>
+      <c r="C93" s="21">
+        <v>70</v>
+      </c>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+    </row>
+    <row r="94" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="21">
+        <v>470</v>
+      </c>
+      <c r="C94" s="21">
+        <v>470</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+    </row>
+    <row r="95" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="21">
+        <v>85</v>
+      </c>
+      <c r="C95" s="21">
+        <v>85</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+    </row>
+    <row r="96" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="21">
+        <v>70</v>
+      </c>
+      <c r="C96" s="21">
+        <v>70</v>
+      </c>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+    </row>
+    <row r="97" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="21">
+        <v>530</v>
+      </c>
+      <c r="C97" s="21">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="21">
+        <v>229</v>
+      </c>
+      <c r="C98" s="21">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="21">
+        <v>135</v>
+      </c>
+      <c r="C99" s="21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="21">
+        <v>530</v>
+      </c>
+      <c r="C100" s="21">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="21">
+        <v>229</v>
+      </c>
+      <c r="C101" s="21">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="21">
+        <v>135</v>
+      </c>
+      <c r="C102" s="21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="21">
+        <v>754</v>
+      </c>
+      <c r="C103" s="21">
+        <v>754</v>
+      </c>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+    </row>
+    <row r="104" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A104" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+    </row>
+    <row r="105" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="8">
-        <v>-0.46</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>60</v>
-      </c>
-      <c r="B81" s="8">
-        <v>-0.34</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="C105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+    </row>
+    <row r="106" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="8">
-        <v>-0.34</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" s="8">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+    </row>
+    <row r="107" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="8">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="8">
-        <v>-0.46</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>124</v>
-      </c>
-      <c r="B86" s="11">
-        <v>470</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="11">
-        <v>85</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>127</v>
-      </c>
-      <c r="B88" s="11">
+      <c r="B107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="C107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+    </row>
+    <row r="108" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="C108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+    </row>
+    <row r="109" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+    </row>
+    <row r="110" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+    </row>
+    <row r="111" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+    </row>
+    <row r="112" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>123</v>
-      </c>
-      <c r="B89" s="11">
-        <v>470</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>126</v>
-      </c>
-      <c r="B90" s="11">
-        <v>85</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>128</v>
-      </c>
-      <c r="B91" s="11">
-        <v>70</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>129</v>
-      </c>
-      <c r="B92">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>134</v>
-      </c>
-      <c r="B97">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>135</v>
-      </c>
-      <c r="B98" s="11">
-        <v>754</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>69</v>
-      </c>
-      <c r="B99" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="C112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+    </row>
+    <row r="113" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B101" s="8">
-        <v>0.42</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="C113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+    </row>
+    <row r="114" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B102" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="C114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+    </row>
+    <row r="115" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="8">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="C115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+    </row>
+    <row r="116" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B104" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B116" s="12">
+        <v>0</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0</v>
+      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+    </row>
+    <row r="117" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B105" s="8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="C117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+    </row>
+    <row r="118" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B106" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="C118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+    </row>
+    <row r="119" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B107" s="8">
-        <v>1.96</v>
-      </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="C119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+    </row>
+    <row r="120" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B108" s="8">
-        <v>1.28</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>79</v>
-      </c>
-      <c r="B109" s="8">
-        <v>1.52</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>80</v>
-      </c>
-      <c r="B110" s="8">
+      <c r="B120" s="12">
         <v>0</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" s="8">
-        <v>1.96</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>82</v>
-      </c>
-      <c r="B112" s="8">
-        <v>1.28</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" s="8">
-        <v>1.52</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>84</v>
-      </c>
-      <c r="B114" s="8">
+      <c r="C120" s="12">
         <v>0</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115" s="11">
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+    </row>
+    <row r="121" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A121" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+    </row>
+    <row r="122" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="19">
+        <v>0</v>
+      </c>
+      <c r="C122" s="19">
+        <v>0</v>
+      </c>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+    </row>
+    <row r="123" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="21">
+        <v>0</v>
+      </c>
+      <c r="C123" s="21">
+        <v>0</v>
+      </c>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+    </row>
+    <row r="124" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B124" s="21">
+        <v>0</v>
+      </c>
+      <c r="C124" s="21">
+        <v>0</v>
+      </c>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+    </row>
+    <row r="125" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B125" s="21">
+        <v>0</v>
+      </c>
+      <c r="C125" s="21">
+        <v>0</v>
+      </c>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+    </row>
+    <row r="126" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A126" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+    </row>
+    <row r="127" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="15">
         <v>8296</v>
       </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
+      <c r="C127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3505,450 +3990,450 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>143</v>
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>142</v>
+        <v>96</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D16">
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>111</v>
+      <c r="B17" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>112</v>
+      <c r="B18" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D18">
         <v>0.61</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="D32">
         <v>53.7</v>
       </c>
       <c r="E32" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>226</v>
+        <v>150</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="D33">
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>224</v>
+      <c r="C34" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="D34">
         <v>56.3</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="D35">
         <v>24.6</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>159</v>
+      <c r="C36" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="D36">
         <v>16.600000000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>160</v>
+      <c r="C37" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="D37">
         <v>18.7</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>225</v>
+      <c r="C38" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="D38">
         <v>20.399999999999999</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>161</v>
+      <c r="C39" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="D39">
         <v>10.199999999999999</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="8">
+        <v>53</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="6">
         <v>-0.46</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="8">
+        <v>57</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="6">
         <v>-0.46</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="8">
+        <v>54</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="6">
         <v>-0.34</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="8">
+        <v>58</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="6">
         <v>-0.34</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="8">
+        <v>55</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="6">
         <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="8">
+        <v>59</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="6">
         <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="8">
+        <v>56</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="6">
         <v>-0.46</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3980,224 +4465,224 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>2001</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>1.03</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>2002</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2003</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>2004</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>1.004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>2005</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>1.016</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>2006</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>1.0229999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>2007</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>1.008</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>2008</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>1.038</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>2009</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>1.022</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>2010</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>1.024</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>2011</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>1.018</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>2012</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>2013</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>2014</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>2015</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>2016</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>1.036</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>2017</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>1.018</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>2018</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>1.0269999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>2019</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>2020</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>2021</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>2022</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>1.0580000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>2023</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>1.0549999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>2024</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>2025</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>2026</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>1.02</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4218,88 +4703,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="9">
         <v>2017</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="10">
         <v>1.024</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="9">
         <v>2018</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="10">
         <v>1.0289999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="9">
         <v>2019</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="10">
         <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="9">
         <v>2020</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="10">
         <v>1.0309999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="9">
         <v>2021</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="10">
         <v>1.0369999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="9">
         <v>2022</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="10">
         <v>1.0409999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="9">
         <v>2023</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="10">
         <v>1.054</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="9">
         <v>2024</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="11">
         <v>1.0544049999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="9">
         <v>2025</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="11">
         <v>1.0342249999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4321,142 +4806,142 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>173</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>174</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>175</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>176</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>177</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" t="s">
+        <v>202</v>
+      </c>
+      <c r="V1" t="s">
+        <v>203</v>
+      </c>
+      <c r="W1" t="s">
         <v>178</v>
       </c>
-      <c r="K1" t="s">
+      <c r="X1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG1" t="s">
         <v>205</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AH1" t="s">
         <v>206</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AI1" t="s">
         <v>207</v>
       </c>
-      <c r="N1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>182</v>
-      </c>
-      <c r="R1" t="s">
-        <v>183</v>
-      </c>
-      <c r="S1" t="s">
-        <v>184</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="AJ1" t="s">
         <v>208</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AK1" t="s">
         <v>209</v>
       </c>
-      <c r="V1" t="s">
-        <v>210</v>
-      </c>
-      <c r="W1" t="s">
-        <v>185</v>
-      </c>
-      <c r="X1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AL1" t="s">
         <v>187</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AM1" t="s">
         <v>188</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AN1" t="s">
         <v>189</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AO1" t="s">
         <v>190</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AP1" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AQ1" t="s">
         <v>192</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AR1" t="s">
         <v>193</v>
       </c>
-      <c r="AF1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AS1" t="s">
         <v>194</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AT1" t="s">
         <v>195</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -8237,755 +8722,6 @@
       </c>
       <c r="AT28">
         <v>277184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEBABEF-DA5D-4749-B0DC-CC3CEA0D78C1}">
-  <dimension ref="A1:G42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="30">
-        <v>2159</v>
-      </c>
-      <c r="C2" s="30">
-        <v>0</v>
-      </c>
-      <c r="D2" s="30">
-        <v>0</v>
-      </c>
-      <c r="E2" s="30">
-        <v>2159</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="30">
-        <v>2196</v>
-      </c>
-      <c r="C3" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="30">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
-        <v>2193</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="30">
-        <v>2234</v>
-      </c>
-      <c r="C4" s="30">
-        <v>10.3</v>
-      </c>
-      <c r="D4" s="30">
-        <v>1</v>
-      </c>
-      <c r="E4" s="30">
-        <v>2223</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="30">
-        <v>2271</v>
-      </c>
-      <c r="C5" s="30">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="D5" s="30">
-        <v>4</v>
-      </c>
-      <c r="E5" s="30">
-        <v>2196</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>2024</v>
-      </c>
-      <c r="B6" s="30">
-        <v>2282</v>
-      </c>
-      <c r="C6" s="30">
-        <v>96.5</v>
-      </c>
-      <c r="D6" s="30">
-        <v>5</v>
-      </c>
-      <c r="E6" s="30">
-        <v>2181</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="30">
-        <v>2293</v>
-      </c>
-      <c r="C7" s="30">
-        <v>121.8</v>
-      </c>
-      <c r="D7" s="30">
-        <v>6</v>
-      </c>
-      <c r="E7" s="30">
-        <v>2165</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>2026</v>
-      </c>
-      <c r="B8" s="30">
-        <v>2305</v>
-      </c>
-      <c r="C8" s="30">
-        <v>147.69999999999999</v>
-      </c>
-      <c r="D8" s="30">
-        <v>8</v>
-      </c>
-      <c r="E8" s="30">
-        <v>2149</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>2027</v>
-      </c>
-      <c r="B9" s="30">
-        <v>2316</v>
-      </c>
-      <c r="C9" s="30">
-        <v>174.1</v>
-      </c>
-      <c r="D9" s="30">
-        <v>9</v>
-      </c>
-      <c r="E9" s="30">
-        <v>2132</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>2028</v>
-      </c>
-      <c r="B10" s="30">
-        <v>2326</v>
-      </c>
-      <c r="C10" s="30">
-        <v>201</v>
-      </c>
-      <c r="D10" s="30">
-        <v>11</v>
-      </c>
-      <c r="E10" s="30">
-        <v>2115</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>2029</v>
-      </c>
-      <c r="B11" s="30">
-        <v>2337</v>
-      </c>
-      <c r="C11" s="30">
-        <v>228.4</v>
-      </c>
-      <c r="D11" s="30">
-        <v>12</v>
-      </c>
-      <c r="E11" s="30">
-        <v>2097</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>2030</v>
-      </c>
-      <c r="B12" s="30">
-        <v>2348</v>
-      </c>
-      <c r="C12" s="30">
-        <v>256.39999999999998</v>
-      </c>
-      <c r="D12" s="30">
-        <v>13</v>
-      </c>
-      <c r="E12" s="30">
-        <v>2078</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>2031</v>
-      </c>
-      <c r="B13" s="30">
-        <v>2353</v>
-      </c>
-      <c r="C13" s="30">
-        <v>306.60000000000002</v>
-      </c>
-      <c r="D13" s="30">
-        <v>20</v>
-      </c>
-      <c r="E13" s="30">
-        <v>2027</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>2032</v>
-      </c>
-      <c r="B14" s="30">
-        <v>2358</v>
-      </c>
-      <c r="C14" s="30">
-        <v>356.9</v>
-      </c>
-      <c r="D14" s="30">
-        <v>27</v>
-      </c>
-      <c r="E14" s="30">
-        <v>1974</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>2033</v>
-      </c>
-      <c r="B15" s="30">
-        <v>2363</v>
-      </c>
-      <c r="C15" s="30">
-        <v>407.4</v>
-      </c>
-      <c r="D15" s="30">
-        <v>35</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1920</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>2034</v>
-      </c>
-      <c r="B16" s="30">
-        <v>2368</v>
-      </c>
-      <c r="C16" s="30">
-        <v>458.1</v>
-      </c>
-      <c r="D16" s="30">
-        <v>45</v>
-      </c>
-      <c r="E16" s="30">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <v>2035</v>
-      </c>
-      <c r="B17" s="30">
-        <v>2373</v>
-      </c>
-      <c r="C17" s="30">
-        <v>508.9</v>
-      </c>
-      <c r="D17" s="30">
-        <v>57</v>
-      </c>
-      <c r="E17" s="30">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
-        <v>2036</v>
-      </c>
-      <c r="B18" s="30">
-        <v>2378</v>
-      </c>
-      <c r="C18" s="30">
-        <v>556.70000000000005</v>
-      </c>
-      <c r="D18" s="30">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="E18" s="30">
-        <v>1752.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <v>2037</v>
-      </c>
-      <c r="B19" s="30">
-        <v>2382</v>
-      </c>
-      <c r="C19" s="30">
-        <v>603.1</v>
-      </c>
-      <c r="D19" s="30">
-        <v>79.2</v>
-      </c>
-      <c r="E19" s="30">
-        <v>1699.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>2038</v>
-      </c>
-      <c r="B20" s="30">
-        <v>2386</v>
-      </c>
-      <c r="C20" s="30">
-        <v>647.1</v>
-      </c>
-      <c r="D20" s="30">
-        <v>89.3</v>
-      </c>
-      <c r="E20" s="30">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
-        <v>2039</v>
-      </c>
-      <c r="B21" s="30">
-        <v>2390</v>
-      </c>
-      <c r="C21" s="30">
-        <v>689.2</v>
-      </c>
-      <c r="D21" s="30">
-        <v>98.9</v>
-      </c>
-      <c r="E21" s="30">
-        <v>1602.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>2040</v>
-      </c>
-      <c r="B22" s="30">
-        <v>2394</v>
-      </c>
-      <c r="C22" s="30">
-        <v>729</v>
-      </c>
-      <c r="D22" s="30">
-        <v>107.8</v>
-      </c>
-      <c r="E22" s="30">
-        <v>1557.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>2041</v>
-      </c>
-      <c r="B23" s="30">
-        <v>2398</v>
-      </c>
-      <c r="C23" s="30">
-        <v>766.9</v>
-      </c>
-      <c r="D23" s="30">
-        <v>116.1</v>
-      </c>
-      <c r="E23" s="30">
-        <v>1514.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
-        <v>2042</v>
-      </c>
-      <c r="B24" s="30">
-        <v>2401</v>
-      </c>
-      <c r="C24" s="30">
-        <v>802.7</v>
-      </c>
-      <c r="D24" s="30">
-        <v>123.9</v>
-      </c>
-      <c r="E24" s="30">
-        <v>1474.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
-        <v>2043</v>
-      </c>
-      <c r="B25" s="30">
-        <v>2404</v>
-      </c>
-      <c r="C25" s="30">
-        <v>836.6</v>
-      </c>
-      <c r="D25" s="30">
-        <v>131.1</v>
-      </c>
-      <c r="E25" s="30">
-        <v>1436.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
-        <v>2044</v>
-      </c>
-      <c r="B26" s="30">
-        <v>2407</v>
-      </c>
-      <c r="C26" s="30">
-        <v>868.6</v>
-      </c>
-      <c r="D26" s="30">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="E26" s="30">
-        <v>1400.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>2045</v>
-      </c>
-      <c r="B27" s="30">
-        <v>2410</v>
-      </c>
-      <c r="C27" s="30">
-        <v>898.9</v>
-      </c>
-      <c r="D27" s="30">
-        <v>144</v>
-      </c>
-      <c r="E27" s="30">
-        <v>1366.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
-        <v>2046</v>
-      </c>
-      <c r="B28" s="30">
-        <v>2412</v>
-      </c>
-      <c r="C28" s="30">
-        <v>927.5</v>
-      </c>
-      <c r="D28" s="30">
-        <v>149.69999999999999</v>
-      </c>
-      <c r="E28" s="30">
-        <v>1335.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
-        <v>2047</v>
-      </c>
-      <c r="B29" s="30">
-        <v>2415</v>
-      </c>
-      <c r="C29" s="30">
-        <v>954.5</v>
-      </c>
-      <c r="D29" s="30">
-        <v>155</v>
-      </c>
-      <c r="E29" s="30">
-        <v>1305.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>2048</v>
-      </c>
-      <c r="B30" s="30">
-        <v>2417</v>
-      </c>
-      <c r="C30" s="30">
-        <v>980</v>
-      </c>
-      <c r="D30" s="30">
-        <v>159.9</v>
-      </c>
-      <c r="E30" s="30">
-        <v>1277.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
-        <v>2049</v>
-      </c>
-      <c r="B31" s="30">
-        <v>2419</v>
-      </c>
-      <c r="C31" s="30">
-        <v>1004.1</v>
-      </c>
-      <c r="D31" s="30">
-        <v>164.4</v>
-      </c>
-      <c r="E31" s="30">
-        <v>1250.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <v>2050</v>
-      </c>
-      <c r="B32" s="30">
-        <v>2421</v>
-      </c>
-      <c r="C32" s="30">
-        <v>1026.9000000000001</v>
-      </c>
-      <c r="D32" s="30">
-        <v>168.5</v>
-      </c>
-      <c r="E32" s="30">
-        <v>1225.9000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
-        <v>2051</v>
-      </c>
-      <c r="B33" s="30">
-        <v>2423</v>
-      </c>
-      <c r="C33" s="30">
-        <v>1048.5</v>
-      </c>
-      <c r="D33" s="30">
-        <v>172.3</v>
-      </c>
-      <c r="E33" s="30">
-        <v>1202.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
-        <v>2052</v>
-      </c>
-      <c r="B34" s="30">
-        <v>2425</v>
-      </c>
-      <c r="C34" s="30">
-        <v>1068.9000000000001</v>
-      </c>
-      <c r="D34" s="30">
-        <v>175.8</v>
-      </c>
-      <c r="E34" s="30">
-        <v>1180.4000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
-        <v>2053</v>
-      </c>
-      <c r="B35" s="30">
-        <v>2427</v>
-      </c>
-      <c r="C35" s="30">
-        <v>1088.2</v>
-      </c>
-      <c r="D35" s="30">
-        <v>179</v>
-      </c>
-      <c r="E35" s="30">
-        <v>1159.5999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
-        <v>2054</v>
-      </c>
-      <c r="B36" s="30">
-        <v>2428</v>
-      </c>
-      <c r="C36" s="30">
-        <v>1106.5</v>
-      </c>
-      <c r="D36" s="30">
-        <v>182</v>
-      </c>
-      <c r="E36" s="30">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
-        <v>2055</v>
-      </c>
-      <c r="B37" s="30">
-        <v>2430</v>
-      </c>
-      <c r="C37" s="30">
-        <v>1123.9000000000001</v>
-      </c>
-      <c r="D37" s="30">
-        <v>184.6</v>
-      </c>
-      <c r="E37" s="30">
-        <v>1121.4000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
-        <v>2056</v>
-      </c>
-      <c r="B38" s="30">
-        <v>2431</v>
-      </c>
-      <c r="C38" s="30">
-        <v>1140.4000000000001</v>
-      </c>
-      <c r="D38" s="30">
-        <v>187.1</v>
-      </c>
-      <c r="E38" s="30">
-        <v>1103.9000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
-        <v>2057</v>
-      </c>
-      <c r="B39" s="30">
-        <v>2433</v>
-      </c>
-      <c r="C39" s="30">
-        <v>1156.0999999999999</v>
-      </c>
-      <c r="D39" s="30">
-        <v>189.4</v>
-      </c>
-      <c r="E39" s="30">
-        <v>1087.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
-        <v>2058</v>
-      </c>
-      <c r="B40" s="30">
-        <v>2434</v>
-      </c>
-      <c r="C40" s="30">
-        <v>1171</v>
-      </c>
-      <c r="D40" s="30">
-        <v>191.4</v>
-      </c>
-      <c r="E40" s="30">
-        <v>1071.5999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
-        <v>2059</v>
-      </c>
-      <c r="B41" s="30">
-        <v>2435</v>
-      </c>
-      <c r="C41" s="30">
-        <v>1185.2</v>
-      </c>
-      <c r="D41" s="30">
-        <v>193.3</v>
-      </c>
-      <c r="E41" s="30">
-        <v>1056.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
-        <v>2060</v>
-      </c>
-      <c r="B42" s="30">
-        <v>2436</v>
-      </c>
-      <c r="C42" s="30">
-        <v>1198.7</v>
-      </c>
-      <c r="D42" s="30">
-        <v>195</v>
-      </c>
-      <c r="E42" s="30">
-        <v>1042.5999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/Prosjekter.xlsx
+++ b/data/Prosjekter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100304\prosjekt\JKS_modell\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CD48C5-AFAF-4D11-B943-65A3543ED830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FEBE0B-0654-42CD-A7C3-F935CC3478C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProsjektData" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="254">
   <si>
     <t>FO_ARBEID</t>
   </si>
@@ -279,12 +279,6 @@
     <t>Kostnaden av én km tunge kjøretøy EL Kapitalkostnad (kr)</t>
   </si>
   <si>
-    <t>Faktor for "konkavitet" utfasingsbane fossildrevene lette kjøretøy (1 = lineær)</t>
-  </si>
-  <si>
-    <t>Faktor for "konkavitet" utfasingsbane fossildrevene tunge kjøretøy (1 = lineær)</t>
-  </si>
-  <si>
     <t>Årstall for ingen fosildrevene lette kjøretøy</t>
   </si>
   <si>
@@ -483,9 +477,6 @@
     <t>Norges klimamål</t>
   </si>
   <si>
-    <t>Har ubetydelig påvirkning på trafikantnytten siden tidskostnadene er vesentlig høyere enn kjøretøykostnadene</t>
-  </si>
-  <si>
     <t>https://maps.app.goo.gl/3GUC5hs73DenpAxK6</t>
   </si>
   <si>
@@ -744,9 +735,6 @@
     <t>Andel fossildrevene tunge kjøretøy transportmodell år</t>
   </si>
   <si>
-    <t xml:space="preserve">E6 Steinkjer Åsen </t>
-  </si>
-  <si>
     <t>Transportmodell utskrift</t>
   </si>
   <si>
@@ -799,6 +787,21 @@
   </si>
   <si>
     <t>Juster ÅDT-tallene ovenfor med en multiplikator/faktor:</t>
+  </si>
+  <si>
+    <t>midtpunkt for nedgang (år)</t>
+  </si>
+  <si>
+    <t>Med dette menes altså vendepunkt-året for nedgangen til en ny andel som settes. Du kan tenke deg at denne endringen foregår som en S kurve og at den vil foregå over +- 10 år. Så når denne er satt til 100 vil den ikke påvirke et prosjekt som har en levetid på 75 år.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bunnnivå for nedgang (skalar 0&lt;x&lt;1)</t>
+  </si>
+  <si>
+    <t>Skalar eller prosent kan du si. Dette er bunnivået for nedgangen, slik at for eksempel tjeneste kan være satt til 0.3 som resulterer i at etter 'midpunkt for negang' vil ÅDT til tjeneste gå mot 30% av oprinnelig verdi. Dette kan benyttes ved scenarioer som 'mer hjemmekontor' eller 'vekst i turisme'</t>
+  </si>
+  <si>
+    <t>Denne faktoren er sammenhengen mellom 1% endring i befolkning fra SSB og vekst i ÅDT. Er den satt til 1 vil det si at 1% endring i befolkning er det samme som 1% endring i ÅDT. Settes denne til 2 vil 1% endring i befolkning føre till 2% endring i ÅDT. osv.</t>
   </si>
 </sst>
 </file>
@@ -812,7 +815,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0\ %"/>
-    <numFmt numFmtId="172" formatCode="0&quot; år&quot;"/>
+    <numFmt numFmtId="168" formatCode="0&quot; år&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -969,7 +972,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1012,7 +1015,7 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1033,11 +1036,11 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1045,7 +1048,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1058,19 +1061,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperkobling" xfId="2" builtinId="8"/>
@@ -1405,33 +1411,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="13" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="12" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>234</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1441,11 +1445,10 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -1458,29 +1461,23 @@
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
-        <v>58.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
-        <v>41.6</v>
-      </c>
+      <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -1490,18 +1487,15 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="23">
         <v>2</v>
       </c>
-      <c r="C5" s="23">
-        <v>43.2</v>
-      </c>
+      <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -1511,19 +1505,16 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="46">
         <v>1</v>
       </c>
-      <c r="C6" s="46">
-        <v>51.107999999999997</v>
-      </c>
-      <c r="D6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -1532,19 +1523,16 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="46">
         <v>1</v>
       </c>
-      <c r="C7" s="46">
-        <v>29.7</v>
-      </c>
-      <c r="D7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -1553,19 +1541,16 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-    </row>
-    <row r="8" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="55">
         <v>1</v>
       </c>
-      <c r="C8" s="55">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="D8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -1574,19 +1559,16 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="47">
         <v>0</v>
       </c>
-      <c r="C9" s="47">
-        <v>515.82861559540584</v>
-      </c>
-      <c r="D9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
@@ -1595,19 +1577,16 @@
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-    </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="47">
         <v>0</v>
       </c>
-      <c r="C10" s="47">
-        <v>134.15424422380099</v>
-      </c>
-      <c r="D10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
@@ -1616,19 +1595,16 @@
       <c r="J10" s="48"/>
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="47">
         <v>1</v>
       </c>
-      <c r="C11" s="47">
-        <v>456.30121234268609</v>
-      </c>
-      <c r="D11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
@@ -1637,19 +1613,16 @@
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-    </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="47">
         <v>0</v>
       </c>
-      <c r="C12" s="47">
-        <v>213.2200451254206</v>
-      </c>
-      <c r="D12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
@@ -1658,19 +1631,16 @@
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
       <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-    </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="47">
         <v>0</v>
       </c>
-      <c r="C13" s="47">
-        <v>498.14140842764328</v>
-      </c>
-      <c r="D13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -1679,19 +1649,16 @@
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-    </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="47">
         <v>0</v>
       </c>
-      <c r="C14" s="47">
-        <v>12.62697678484777</v>
-      </c>
-      <c r="D14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
@@ -1700,19 +1667,16 @@
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-    </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="47">
         <v>1</v>
       </c>
-      <c r="C15" s="47">
-        <v>1402.5416673231191</v>
-      </c>
-      <c r="D15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
@@ -1721,19 +1685,16 @@
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
       <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-    </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="47">
         <v>0</v>
       </c>
-      <c r="C16" s="47">
-        <v>1197.2348506331689</v>
-      </c>
-      <c r="D16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
@@ -1742,19 +1703,16 @@
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-    </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="47">
         <v>0</v>
       </c>
-      <c r="C17" s="47">
-        <v>320.85823257572201</v>
-      </c>
-      <c r="D17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
@@ -1763,19 +1721,16 @@
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="47">
         <v>0</v>
       </c>
-      <c r="C18" s="47">
-        <v>1199.696775791266</v>
-      </c>
-      <c r="D18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
@@ -1784,19 +1739,16 @@
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-    </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="47">
         <v>0</v>
       </c>
-      <c r="C19" s="47">
-        <v>540.89088931634967</v>
-      </c>
-      <c r="D19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
@@ -1805,19 +1757,16 @@
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-    </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="47">
         <v>0</v>
       </c>
-      <c r="C20" s="47">
-        <v>1270.162068024184</v>
-      </c>
-      <c r="D20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
@@ -1826,19 +1775,16 @@
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-    </row>
-    <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="47">
         <v>0</v>
       </c>
-      <c r="C21" s="47">
-        <v>23.40194889880253</v>
-      </c>
-      <c r="D21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
@@ -1847,19 +1793,16 @@
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-    </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="47">
         <v>2</v>
       </c>
-      <c r="C22" s="47">
-        <v>3456.8547898810361</v>
-      </c>
-      <c r="D22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
@@ -1868,19 +1811,16 @@
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-    </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="47">
         <v>0</v>
       </c>
-      <c r="C23" s="47">
-        <v>0</v>
-      </c>
-      <c r="D23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
@@ -1889,19 +1829,16 @@
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-    </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="47">
         <v>0</v>
       </c>
-      <c r="C24" s="47">
-        <v>552.52309316760579</v>
-      </c>
-      <c r="D24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
@@ -1910,19 +1847,16 @@
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
       <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-    </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="47">
         <v>1</v>
       </c>
-      <c r="C25" s="47">
-        <v>1788.5705783675739</v>
-      </c>
-      <c r="D25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
@@ -1931,19 +1865,16 @@
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-    </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="47">
         <v>0</v>
       </c>
-      <c r="C26" s="47">
-        <v>92.688305970689512</v>
-      </c>
-      <c r="D26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
@@ -1952,19 +1883,16 @@
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-    </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="47">
         <v>0</v>
       </c>
-      <c r="C27" s="47">
-        <v>155.26074888138839</v>
-      </c>
-      <c r="D27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
@@ -1973,19 +1901,16 @@
       <c r="J27" s="48"/>
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-    </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="47">
         <v>0</v>
       </c>
-      <c r="C28" s="47">
-        <v>778.15308574039295</v>
-      </c>
-      <c r="D28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
@@ -1994,19 +1919,16 @@
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-    </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="47">
         <v>0</v>
       </c>
-      <c r="C29" s="47">
-        <v>59.601695990060257</v>
-      </c>
-      <c r="D29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
@@ -2015,19 +1937,16 @@
       <c r="J29" s="48"/>
       <c r="K29" s="48"/>
       <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-    </row>
-    <row r="30" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="47">
         <v>0</v>
       </c>
-      <c r="C30" s="47">
-        <v>210.9680602302966</v>
-      </c>
-      <c r="D30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
@@ -2036,19 +1955,16 @@
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
       <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-    </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="47">
         <v>0</v>
       </c>
-      <c r="C31" s="47">
-        <v>1.0716724045159269</v>
-      </c>
-      <c r="D31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
@@ -2057,19 +1973,16 @@
       <c r="J31" s="48"/>
       <c r="K31" s="48"/>
       <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-    </row>
-    <row r="32" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="49">
         <v>0</v>
       </c>
-      <c r="C32" s="49">
-        <v>2566.1310375835478</v>
-      </c>
-      <c r="D32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -2078,11 +1991,10 @@
       <c r="J32" s="51"/>
       <c r="K32" s="51"/>
       <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="1:13" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:12" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -2095,35 +2007,31 @@
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
       <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-    </row>
-    <row r="34" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B34" s="43">
         <v>1</v>
       </c>
-      <c r="C34" s="43">
-        <v>1</v>
-      </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="43"/>
       <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-    </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="52" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -2133,18 +2041,15 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>197</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -2154,11 +2059,10 @@
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-    </row>
-    <row r="37" spans="1:13" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:12" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="53" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -2171,18 +2075,15 @@
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-    </row>
-    <row r="38" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="37">
         <v>75</v>
       </c>
-      <c r="C38" s="37">
-        <v>75</v>
-      </c>
+      <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -2192,18 +2093,15 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-    </row>
-    <row r="39" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="42">
         <v>2030</v>
       </c>
-      <c r="C39" s="42">
-        <v>2030</v>
-      </c>
+      <c r="C39" s="42"/>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
@@ -2213,18 +2111,15 @@
       <c r="J39" s="42"/>
       <c r="K39" s="42"/>
       <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-    </row>
-    <row r="40" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="15">
         <v>2029</v>
       </c>
-      <c r="C40" s="15">
-        <v>2029</v>
-      </c>
+      <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -2234,18 +2129,15 @@
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="42">
         <v>2025</v>
       </c>
-      <c r="C41" s="42">
-        <v>2025</v>
-      </c>
+      <c r="C41" s="42"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
@@ -2255,18 +2147,15 @@
       <c r="J41" s="42"/>
       <c r="K41" s="42"/>
       <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-    </row>
-    <row r="42" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" s="42">
         <v>2020</v>
       </c>
-      <c r="C42" s="42">
-        <v>2020</v>
-      </c>
+      <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
@@ -2276,18 +2165,15 @@
       <c r="J42" s="42"/>
       <c r="K42" s="42"/>
       <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-    </row>
-    <row r="43" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B43" s="42">
         <v>2020</v>
       </c>
-      <c r="C43" s="42">
-        <v>2020</v>
-      </c>
+      <c r="C43" s="42"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
@@ -2297,18 +2183,15 @@
       <c r="J43" s="42"/>
       <c r="K43" s="42"/>
       <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-    </row>
-    <row r="44" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="15">
         <v>2050</v>
       </c>
-      <c r="C44" s="15">
-        <v>2050</v>
-      </c>
+      <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -2318,18 +2201,15 @@
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-    </row>
-    <row r="45" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="15">
         <v>2060</v>
       </c>
-      <c r="C45" s="15">
-        <v>2060</v>
-      </c>
+      <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -2339,14 +2219,13 @@
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-    </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="52" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
@@ -2356,18 +2235,15 @@
       <c r="J46" s="39"/>
       <c r="K46" s="39"/>
       <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-    </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="16">
         <v>0.04</v>
       </c>
-      <c r="C47" s="16">
-        <v>0.04</v>
-      </c>
+      <c r="C47" s="23"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
@@ -2377,18 +2253,15 @@
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-    </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" s="16">
         <v>0.03</v>
       </c>
-      <c r="C48" s="16">
-        <v>0.03</v>
-      </c>
+      <c r="C48" s="23"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -2398,18 +2271,15 @@
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-    </row>
-    <row r="49" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="40">
         <v>40</v>
       </c>
-      <c r="C49" s="40">
-        <v>40</v>
-      </c>
+      <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
@@ -2419,14 +2289,13 @@
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-    </row>
-    <row r="50" spans="1:13" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:12" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
@@ -2436,18 +2305,15 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-    </row>
-    <row r="51" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B51" s="25">
         <v>0</v>
       </c>
-      <c r="C51" s="25">
-        <v>0</v>
-      </c>
+      <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -2457,18 +2323,15 @@
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-    </row>
-    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B52" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C52" s="25">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -2478,11 +2341,10 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-    </row>
-    <row r="53" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="52" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -2495,18 +2357,15 @@
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-    </row>
-    <row r="54" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C54" s="35">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C54" s="36"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
@@ -2516,18 +2375,15 @@
       <c r="J54" s="36"/>
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-    </row>
-    <row r="55" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C55" s="16">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -2537,18 +2393,15 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="16">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C56" s="16">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -2558,11 +2411,10 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:12" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="53" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -2575,18 +2427,15 @@
       <c r="J57" s="33"/>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-    </row>
-    <row r="58" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B58" s="34">
         <v>1</v>
       </c>
-      <c r="C58" s="34">
-        <v>1</v>
-      </c>
+      <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
@@ -2596,11 +2445,10 @@
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
       <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-    </row>
-    <row r="59" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:12" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A59" s="52" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -2613,18 +2461,15 @@
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-    </row>
-    <row r="60" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B60" s="30">
         <v>100</v>
       </c>
-      <c r="C60" s="30">
-        <v>100</v>
-      </c>
+      <c r="C60" s="31"/>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
       <c r="F60" s="31"/>
@@ -2634,18 +2479,15 @@
       <c r="J60" s="31"/>
       <c r="K60" s="31"/>
       <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-    </row>
-    <row r="61" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B61" s="30">
         <v>100</v>
       </c>
-      <c r="C61" s="30">
-        <v>100</v>
-      </c>
+      <c r="C61" s="31"/>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
       <c r="F61" s="31"/>
@@ -2655,18 +2497,15 @@
       <c r="J61" s="31"/>
       <c r="K61" s="31"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-    </row>
-    <row r="62" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B62" s="30">
         <v>100</v>
       </c>
-      <c r="C62" s="30">
-        <v>100</v>
-      </c>
+      <c r="C62" s="31"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
@@ -2676,18 +2515,15 @@
       <c r="J62" s="31"/>
       <c r="K62" s="31"/>
       <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-    </row>
-    <row r="63" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B63" s="32">
         <v>1</v>
       </c>
-      <c r="C63" s="32">
-        <v>1</v>
-      </c>
+      <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
@@ -2697,18 +2533,15 @@
       <c r="J63" s="26"/>
       <c r="K63" s="26"/>
       <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-    </row>
-    <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B64" s="32">
         <v>1</v>
       </c>
-      <c r="C64" s="32">
-        <v>1</v>
-      </c>
+      <c r="C64" s="26"/>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
@@ -2718,18 +2551,15 @@
       <c r="J64" s="26"/>
       <c r="K64" s="26"/>
       <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-    </row>
-    <row r="65" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B65" s="32">
         <v>1</v>
       </c>
-      <c r="C65" s="32">
-        <v>1</v>
-      </c>
+      <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
@@ -2739,11 +2569,10 @@
       <c r="J65" s="26"/>
       <c r="K65" s="26"/>
       <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-    </row>
-    <row r="66" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:12" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A66" s="53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -2756,18 +2585,15 @@
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-    </row>
-    <row r="67" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B67" s="27">
         <v>0.6</v>
       </c>
-      <c r="C67" s="27">
-        <v>0.6</v>
-      </c>
+      <c r="C67" s="28"/>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
@@ -2777,18 +2603,15 @@
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
       <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-    </row>
-    <row r="68" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B68" s="27">
         <v>0.9</v>
       </c>
-      <c r="C68" s="27">
-        <v>0.9</v>
-      </c>
+      <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
@@ -2798,18 +2621,15 @@
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
       <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-    </row>
-    <row r="69" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B69" s="27">
         <v>0.7</v>
       </c>
-      <c r="C69" s="27">
-        <v>0.7</v>
-      </c>
+      <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
@@ -2819,11 +2639,10 @@
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
       <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-    </row>
-    <row r="70" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:12" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="52" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -2836,18 +2655,15 @@
       <c r="J70" s="26"/>
       <c r="K70" s="26"/>
       <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-    </row>
-    <row r="71" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B71" s="16">
         <v>0.2</v>
       </c>
-      <c r="C71" s="16">
-        <v>0.2</v>
-      </c>
+      <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
@@ -2857,18 +2673,15 @@
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-    </row>
-    <row r="72" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B72" s="16">
         <v>0.2</v>
       </c>
-      <c r="C72" s="16">
-        <v>0.2</v>
-      </c>
+      <c r="C72" s="17"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
@@ -2878,9 +2691,8 @@
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-    </row>
-    <row r="73" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>60</v>
       </c>
@@ -2888,10 +2700,7 @@
         <f>0.15/(0.11+0.15+1)</f>
         <v>0.11904761904761904</v>
       </c>
-      <c r="C73" s="16">
-        <f>0.15/(0.11+0.15+1)</f>
-        <v>0.11904761904761904</v>
-      </c>
+      <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
@@ -2901,11 +2710,10 @@
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-    </row>
-    <row r="74" spans="1:13" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:12" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -2918,18 +2726,15 @@
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
       <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-    </row>
-    <row r="75" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B75" s="25">
         <v>0.23</v>
       </c>
-      <c r="C75" s="25">
-        <v>0.23</v>
-      </c>
+      <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -2939,18 +2744,15 @@
       <c r="J75" s="24"/>
       <c r="K75" s="24"/>
       <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-    </row>
-    <row r="76" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B76" s="25">
         <v>0.23</v>
       </c>
-      <c r="C76" s="25">
-        <v>0.23</v>
-      </c>
+      <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -2960,9 +2762,8 @@
       <c r="J76" s="24"/>
       <c r="K76" s="24"/>
       <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-    </row>
-    <row r="77" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>62</v>
       </c>
@@ -2970,10 +2771,7 @@
         <f>0.11/(0.11+0.15+1)</f>
         <v>8.7301587301587297E-2</v>
       </c>
-      <c r="C77" s="25">
-        <f>0.11/(0.11+0.15+1)</f>
-        <v>8.7301587301587297E-2</v>
-      </c>
+      <c r="C77" s="24"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -2983,11 +2781,10 @@
       <c r="J77" s="24"/>
       <c r="K77" s="24"/>
       <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-    </row>
-    <row r="78" spans="1:13" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:12" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="52" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -3000,18 +2797,15 @@
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-    </row>
-    <row r="79" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B79" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C79" s="16">
-        <v>0.56999999999999995</v>
-      </c>
+      <c r="C79" s="17"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -3021,18 +2815,15 @@
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-    </row>
-    <row r="80" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B80" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C80" s="16">
-        <v>0.56999999999999995</v>
-      </c>
+      <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
@@ -3042,9 +2833,8 @@
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-    </row>
-    <row r="81" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>61</v>
       </c>
@@ -3052,10 +2842,7 @@
         <f>1/(0.11+0.15+1)</f>
         <v>0.79365079365079361</v>
       </c>
-      <c r="C81" s="16">
-        <f>1/(0.11+0.15+1)</f>
-        <v>0.79365079365079361</v>
-      </c>
+      <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -3065,11 +2852,10 @@
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-    </row>
-    <row r="82" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:12" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="53" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
@@ -3082,18 +2868,15 @@
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-    </row>
-    <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B83" s="13">
         <v>-0.46</v>
       </c>
-      <c r="C83" s="13">
-        <v>-0.46</v>
-      </c>
+      <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
@@ -3103,18 +2886,15 @@
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-    </row>
-    <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B84" s="13">
         <v>-0.46</v>
       </c>
-      <c r="C84" s="13">
-        <v>-0.46</v>
-      </c>
+      <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
@@ -3124,18 +2904,15 @@
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-    </row>
-    <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B85" s="13">
         <v>-0.34</v>
       </c>
-      <c r="C85" s="13">
-        <v>-0.34</v>
-      </c>
+      <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
@@ -3145,18 +2922,15 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-    </row>
-    <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B86" s="13">
         <v>-0.34</v>
       </c>
-      <c r="C86" s="13">
-        <v>-0.34</v>
-      </c>
+      <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -3166,18 +2940,15 @@
       <c r="J86" s="13"/>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-    </row>
-    <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B87" s="13">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C87" s="13">
-        <v>-0.56999999999999995</v>
-      </c>
+      <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
@@ -3187,18 +2958,15 @@
       <c r="J87" s="13"/>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-    </row>
-    <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B88" s="13">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C88" s="13">
-        <v>-0.56999999999999995</v>
-      </c>
+      <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
@@ -3208,18 +2976,15 @@
       <c r="J88" s="13"/>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-    </row>
-    <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B89" s="13">
         <v>-0.46</v>
       </c>
-      <c r="C89" s="13">
-        <v>-0.46</v>
-      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
@@ -3229,11 +2994,10 @@
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-    </row>
-    <row r="90" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="52" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -3246,18 +3010,15 @@
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
-    </row>
-    <row r="91" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B91" s="21">
         <v>470</v>
       </c>
-      <c r="C91" s="21">
-        <v>470</v>
-      </c>
+      <c r="C91" s="22"/>
       <c r="D91" s="22"/>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
@@ -3267,18 +3028,15 @@
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-    </row>
-    <row r="92" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B92" s="21">
         <v>85</v>
       </c>
-      <c r="C92" s="21">
-        <v>85</v>
-      </c>
+      <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="22"/>
       <c r="F92" s="22"/>
@@ -3288,18 +3046,15 @@
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-    </row>
-    <row r="93" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B93" s="21">
         <v>70</v>
       </c>
-      <c r="C93" s="21">
-        <v>70</v>
-      </c>
+      <c r="C93" s="22"/>
       <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
@@ -3309,18 +3064,15 @@
       <c r="J93" s="22"/>
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-    </row>
-    <row r="94" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B94" s="21">
         <v>470</v>
       </c>
-      <c r="C94" s="21">
-        <v>470</v>
-      </c>
+      <c r="C94" s="22"/>
       <c r="D94" s="22"/>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
@@ -3330,18 +3082,15 @@
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
       <c r="L94" s="22"/>
-      <c r="M94" s="22"/>
-    </row>
-    <row r="95" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B95" s="21">
         <v>85</v>
       </c>
-      <c r="C95" s="21">
-        <v>85</v>
-      </c>
+      <c r="C95" s="22"/>
       <c r="D95" s="22"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
@@ -3351,18 +3100,15 @@
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
-      <c r="M95" s="22"/>
-    </row>
-    <row r="96" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B96" s="21">
         <v>70</v>
       </c>
-      <c r="C96" s="21">
-        <v>70</v>
-      </c>
+      <c r="C96" s="22"/>
       <c r="D96" s="22"/>
       <c r="E96" s="22"/>
       <c r="F96" s="22"/>
@@ -3372,84 +3118,63 @@
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-    </row>
-    <row r="97" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B97" s="21">
         <v>530</v>
       </c>
-      <c r="C97" s="21">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B98" s="21">
         <v>229</v>
       </c>
-      <c r="C98" s="21">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B99" s="21">
         <v>135</v>
       </c>
-      <c r="C99" s="21">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B100" s="21">
         <v>530</v>
       </c>
-      <c r="C100" s="21">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B101" s="21">
         <v>229</v>
       </c>
-      <c r="C101" s="21">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B102" s="21">
         <v>135</v>
       </c>
-      <c r="C102" s="21">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B103" s="21">
         <v>754</v>
       </c>
-      <c r="C103" s="21">
-        <v>754</v>
-      </c>
+      <c r="C103" s="22"/>
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
@@ -3459,14 +3184,13 @@
       <c r="J103" s="22"/>
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-    </row>
-    <row r="104" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:12" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="53" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
@@ -3476,18 +3200,15 @@
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
-      <c r="M104" s="15"/>
-    </row>
-    <row r="105" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B105" s="12">
         <v>0.37</v>
       </c>
-      <c r="C105" s="12">
-        <v>0.37</v>
-      </c>
+      <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
@@ -3497,18 +3218,15 @@
       <c r="J105" s="13"/>
       <c r="K105" s="13"/>
       <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-    </row>
-    <row r="106" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B106" s="12">
         <v>0.25</v>
       </c>
-      <c r="C106" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
@@ -3518,18 +3236,15 @@
       <c r="J106" s="13"/>
       <c r="K106" s="13"/>
       <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-    </row>
-    <row r="107" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B107" s="12">
         <v>0.42</v>
       </c>
-      <c r="C107" s="12">
-        <v>0.42</v>
-      </c>
+      <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
@@ -3539,18 +3254,15 @@
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-    </row>
-    <row r="108" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B108" s="12">
         <v>0.63</v>
       </c>
-      <c r="C108" s="12">
-        <v>0.63</v>
-      </c>
+      <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
@@ -3560,18 +3272,15 @@
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-    </row>
-    <row r="109" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B109" s="12">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C109" s="12">
-        <v>5.7000000000000002E-2</v>
-      </c>
+      <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -3581,18 +3290,15 @@
       <c r="J109" s="13"/>
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-    </row>
-    <row r="110" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B110" s="12">
         <v>0.25</v>
       </c>
-      <c r="C110" s="12">
-        <v>0.25</v>
-      </c>
+      <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -3602,18 +3308,15 @@
       <c r="J110" s="13"/>
       <c r="K110" s="13"/>
       <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-    </row>
-    <row r="111" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B111" s="12">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C111" s="12">
-        <v>0.22500000000000001</v>
-      </c>
+      <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -3623,18 +3326,15 @@
       <c r="J111" s="13"/>
       <c r="K111" s="13"/>
       <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-    </row>
-    <row r="112" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B112" s="12">
         <v>0.63</v>
       </c>
-      <c r="C112" s="12">
-        <v>0.63</v>
-      </c>
+      <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -3644,18 +3344,15 @@
       <c r="J112" s="13"/>
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-    </row>
-    <row r="113" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B113" s="12">
         <v>1.96</v>
       </c>
-      <c r="C113" s="12">
-        <v>1.96</v>
-      </c>
+      <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -3665,18 +3362,15 @@
       <c r="J113" s="13"/>
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-    </row>
-    <row r="114" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B114" s="12">
         <v>1.28</v>
       </c>
-      <c r="C114" s="12">
-        <v>1.28</v>
-      </c>
+      <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
@@ -3686,18 +3380,15 @@
       <c r="J114" s="13"/>
       <c r="K114" s="13"/>
       <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-    </row>
-    <row r="115" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B115" s="12">
         <v>1.52</v>
       </c>
-      <c r="C115" s="12">
-        <v>1.52</v>
-      </c>
+      <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -3707,18 +3398,15 @@
       <c r="J115" s="13"/>
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-    </row>
-    <row r="116" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B116" s="12">
         <v>0</v>
       </c>
-      <c r="C116" s="12">
-        <v>0</v>
-      </c>
+      <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
@@ -3728,18 +3416,15 @@
       <c r="J116" s="13"/>
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-    </row>
-    <row r="117" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B117" s="12">
         <v>1.96</v>
       </c>
-      <c r="C117" s="12">
-        <v>1.96</v>
-      </c>
+      <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
@@ -3749,18 +3434,15 @@
       <c r="J117" s="13"/>
       <c r="K117" s="13"/>
       <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-    </row>
-    <row r="118" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B118" s="12">
         <v>1.28</v>
       </c>
-      <c r="C118" s="12">
-        <v>1.28</v>
-      </c>
+      <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -3770,18 +3452,15 @@
       <c r="J118" s="13"/>
       <c r="K118" s="13"/>
       <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-    </row>
-    <row r="119" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B119" s="12">
         <v>1.52</v>
       </c>
-      <c r="C119" s="12">
-        <v>1.52</v>
-      </c>
+      <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
@@ -3791,18 +3470,15 @@
       <c r="J119" s="13"/>
       <c r="K119" s="13"/>
       <c r="L119" s="13"/>
-      <c r="M119" s="13"/>
-    </row>
-    <row r="120" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B120" s="12">
         <v>0</v>
       </c>
-      <c r="C120" s="12">
-        <v>0</v>
-      </c>
+      <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
@@ -3812,14 +3488,13 @@
       <c r="J120" s="13"/>
       <c r="K120" s="13"/>
       <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-    </row>
-    <row r="121" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" s="52" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
+      <c r="C121" s="17"/>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
@@ -3829,18 +3504,15 @@
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-    </row>
-    <row r="122" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B122" s="19">
         <v>0</v>
       </c>
-      <c r="C122" s="19">
-        <v>0</v>
-      </c>
+      <c r="C122" s="20"/>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
@@ -3850,18 +3522,15 @@
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-    </row>
-    <row r="123" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B123" s="21">
         <v>0</v>
       </c>
-      <c r="C123" s="21">
-        <v>0</v>
-      </c>
+      <c r="C123" s="22"/>
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
@@ -3871,18 +3540,15 @@
       <c r="J123" s="22"/>
       <c r="K123" s="22"/>
       <c r="L123" s="22"/>
-      <c r="M123" s="22"/>
-    </row>
-    <row r="124" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B124" s="21">
         <v>0</v>
       </c>
-      <c r="C124" s="21">
-        <v>0</v>
-      </c>
+      <c r="C124" s="22"/>
       <c r="D124" s="22"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
@@ -3892,18 +3558,15 @@
       <c r="J124" s="22"/>
       <c r="K124" s="22"/>
       <c r="L124" s="22"/>
-      <c r="M124" s="22"/>
-    </row>
-    <row r="125" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B125" s="21">
         <v>0</v>
       </c>
-      <c r="C125" s="21">
-        <v>0</v>
-      </c>
+      <c r="C125" s="22"/>
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
@@ -3913,14 +3576,13 @@
       <c r="J125" s="22"/>
       <c r="K125" s="22"/>
       <c r="L125" s="22"/>
-      <c r="M125" s="22"/>
-    </row>
-    <row r="126" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:12" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="53" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
+      <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
@@ -3930,18 +3592,15 @@
       <c r="J126" s="13"/>
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-    </row>
-    <row r="127" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B127" s="15">
         <v>8296</v>
       </c>
-      <c r="C127" s="15">
-        <v>8296</v>
-      </c>
+      <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
@@ -3951,7 +3610,6 @@
       <c r="J127" s="15"/>
       <c r="K127" s="15"/>
       <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
@@ -3976,10 +3634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106225A7-BB1C-4057-99BB-6826A9E897D0}">
-  <dimension ref="B3:F46"/>
+  <dimension ref="B3:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,120 +3648,120 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D16">
         <v>0.25</v>
@@ -4111,21 +3769,21 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D18">
         <v>0.61</v>
@@ -4133,321 +3791,329 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30">
+        <v>53.7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>147</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="D32">
-        <v>53.7</v>
+        <v>56.3</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="D33">
-        <v>41</v>
+        <v>24.6</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="D34">
-        <v>56.3</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E34" t="s">
-        <v>216</v>
+        <v>209</v>
+      </c>
+      <c r="F34" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="D35">
-        <v>24.6</v>
+        <v>18.7</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="F35" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="D36">
-        <v>16.600000000000001</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
-      </c>
-      <c r="F36" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D37">
-        <v>18.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F37" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D38">
-        <v>20.399999999999999</v>
+        <v>156</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-0.46</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E39" t="s">
-        <v>215</v>
+        <v>156</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D40" s="6">
-        <v>-0.46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>161</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D41" s="6">
-        <v>-0.46</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D42" s="6">
-        <v>-0.34</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D43" s="6">
-        <v>-0.34</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D44" s="6">
-        <v>-0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-0.46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="6">
-        <v>-0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="6">
-        <v>-0.46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>160</v>
+        <v>251</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1" xr:uid="{1ED59E7D-9CE9-47AE-908E-8598075D3AD2}"/>
-    <hyperlink ref="C33" r:id="rId2" xr:uid="{D1DAD406-21D7-4D43-9A20-EEE27DB93C8F}"/>
-    <hyperlink ref="C34" r:id="rId3" xr:uid="{F3AD91FA-A986-42C9-9F72-FECC737F4F87}"/>
-    <hyperlink ref="C35" r:id="rId4" xr:uid="{9E1C1893-DB04-4DA3-9981-E03DDA2C480A}"/>
-    <hyperlink ref="C36" r:id="rId5" xr:uid="{86D5959F-AF21-4816-AE3D-FECE95EBBF3A}"/>
-    <hyperlink ref="C37" r:id="rId6" xr:uid="{A354E42C-CA3F-4785-A8DD-0CA8F37FB0D7}"/>
-    <hyperlink ref="C39" r:id="rId7" xr:uid="{699E3FC0-1D52-4B6C-8514-DAD7F606A312}"/>
-    <hyperlink ref="C40" r:id="rId8" xr:uid="{D8CBC771-8F3A-4999-9558-700FEFCA9F04}"/>
-    <hyperlink ref="C41:C46" r:id="rId9" display="https://www.moreforsk.no/publikasjoner/rapporter/transportokonomi/nye-tidsverdier-i-samfunnsokonomiske-beregninger-alternative-vurderinger-basert-pa-analyser-av-to-vegprosjekter/1094/3425/" xr:uid="{D5C0237D-0164-4CA1-855F-7C65AEF81851}"/>
-    <hyperlink ref="C38" r:id="rId10" xr:uid="{C16BFF20-52ED-4FB2-98CB-18FACBDA6F67}"/>
+    <hyperlink ref="C30" r:id="rId1" xr:uid="{1ED59E7D-9CE9-47AE-908E-8598075D3AD2}"/>
+    <hyperlink ref="C31" r:id="rId2" xr:uid="{D1DAD406-21D7-4D43-9A20-EEE27DB93C8F}"/>
+    <hyperlink ref="C32" r:id="rId3" xr:uid="{F3AD91FA-A986-42C9-9F72-FECC737F4F87}"/>
+    <hyperlink ref="C33" r:id="rId4" xr:uid="{9E1C1893-DB04-4DA3-9981-E03DDA2C480A}"/>
+    <hyperlink ref="C34" r:id="rId5" xr:uid="{86D5959F-AF21-4816-AE3D-FECE95EBBF3A}"/>
+    <hyperlink ref="C35" r:id="rId6" xr:uid="{A354E42C-CA3F-4785-A8DD-0CA8F37FB0D7}"/>
+    <hyperlink ref="C37" r:id="rId7" xr:uid="{699E3FC0-1D52-4B6C-8514-DAD7F606A312}"/>
+    <hyperlink ref="C38" r:id="rId8" xr:uid="{D8CBC771-8F3A-4999-9558-700FEFCA9F04}"/>
+    <hyperlink ref="C39:C44" r:id="rId9" display="https://www.moreforsk.no/publikasjoner/rapporter/transportokonomi/nye-tidsverdier-i-samfunnsokonomiske-beregninger-alternative-vurderinger-basert-pa-analyser-av-to-vegprosjekter/1094/3425/" xr:uid="{D5C0237D-0164-4CA1-855F-7C65AEF81851}"/>
+    <hyperlink ref="C36" r:id="rId10" xr:uid="{C16BFF20-52ED-4FB2-98CB-18FACBDA6F67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId11"/>
@@ -4466,7 +4132,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -4704,7 +4370,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>32</v>
@@ -4806,142 +4472,142 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>167</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>168</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>170</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>171</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" t="s">
         <v>198</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>199</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>200</v>
       </c>
-      <c r="N1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>175</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>176</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>177</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF1" t="s">
         <v>201</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AG1" t="s">
         <v>202</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AH1" t="s">
         <v>203</v>
       </c>
-      <c r="W1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL1" t="s">
         <v>184</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>186</v>
       </c>
-      <c r="AF1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>187</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>188</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>189</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>190</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>191</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>192</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">

--- a/data/Prosjekter.xlsx
+++ b/data/Prosjekter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100304\prosjekt\JKS_modell\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FEBE0B-0654-42CD-A7C3-F935CC3478C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321CD87D-71B7-4BB0-8442-F7C2B8BA3B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="265">
   <si>
     <t>FO_ARBEID</t>
   </si>
@@ -729,9 +729,6 @@
     <t>Andel fossildrevene lette kjøretøy åpningsår</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Andel fossildrevene tunge kjøretøy transportmodell år</t>
   </si>
   <si>
@@ -786,9 +783,6 @@
     <t>Andel av bilpark som er fritidsreisende i transportmodell året</t>
   </si>
   <si>
-    <t>Juster ÅDT-tallene ovenfor med en multiplikator/faktor:</t>
-  </si>
-  <si>
     <t>midtpunkt for nedgang (år)</t>
   </si>
   <si>
@@ -802,6 +796,45 @@
   </si>
   <si>
     <t>Denne faktoren er sammenhengen mellom 1% endring i befolkning fra SSB og vekst i ÅDT. Er den satt til 1 vil det si at 1% endring i befolkning er det samme som 1% endring i ÅDT. Settes denne til 2 vil 1% endring i befolkning føre till 2% endring i ÅDT. osv.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E6 Steinkjer Åsen </t>
+  </si>
+  <si>
+    <t>E6 Steinkjer Åsen Høy</t>
+  </si>
+  <si>
+    <t>E6 Steinkjer Åsen Lav</t>
+  </si>
+  <si>
+    <t>E18 Tvedestrand Bamble Høy</t>
+  </si>
+  <si>
+    <t>E18 Tvedestrand Bamble Lav</t>
+  </si>
+  <si>
+    <t>E18 Arendal Grimstad Høy</t>
+  </si>
+  <si>
+    <t>E18 Arendal Grimstad Lav</t>
+  </si>
+  <si>
+    <t>E18/E39 Ytre Ring Høy</t>
+  </si>
+  <si>
+    <t>E18/E39 Ytre Ring Lav</t>
+  </si>
+  <si>
+    <t>Telemark</t>
+  </si>
+  <si>
+    <t>Agder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juster ÅDT-tallene ovenfor med en multiplikator/faktor: </t>
+  </si>
+  <si>
+    <t>Justerer ÅDT i transportmodell året med en multiplikator</t>
   </si>
 </sst>
 </file>
@@ -964,15 +997,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -985,43 +1017,36 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1030,33 +1055,30 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1070,21 +1092,24 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Hyperkobling" xfId="2" builtinId="8"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Komma 2" xfId="3" xr:uid="{B4A7F91F-A5EF-4F9B-9B42-EA80E61DAD7F}"/>
+  <cellStyles count="5">
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Komma 2" xfId="2" xr:uid="{B4A7F91F-A5EF-4F9B-9B42-EA80E61DAD7F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Prosent" xfId="4" builtinId="5"/>
-    <cellStyle name="Valuta" xfId="5" builtinId="4"/>
+    <cellStyle name="Prosent" xfId="3" builtinId="5"/>
+    <cellStyle name="Valuta" xfId="4" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1411,13 +1436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,609 +1451,1356 @@
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="12" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-    </row>
-    <row r="3" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58.7</v>
+      </c>
+      <c r="C3" s="18">
+        <v>58.7</v>
+      </c>
+      <c r="D3" s="18">
+        <v>58.7</v>
+      </c>
+      <c r="E3" s="18">
+        <v>56.3</v>
+      </c>
+      <c r="F3" s="18">
+        <v>56.3</v>
+      </c>
+      <c r="G3" s="18">
+        <v>56.3</v>
+      </c>
+      <c r="H3" s="18">
+        <v>20.8</v>
+      </c>
+      <c r="I3" s="18">
+        <v>20.8</v>
+      </c>
+      <c r="J3" s="18">
+        <v>20.8</v>
+      </c>
+      <c r="K3" s="18">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L3" s="18">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M3" s="18">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="23">
-        <v>2</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22">
+        <v>41.6</v>
+      </c>
+      <c r="C4" s="22">
+        <v>41.6</v>
+      </c>
+      <c r="D4" s="22">
+        <v>41.6</v>
+      </c>
+      <c r="E4" s="22">
+        <v>40</v>
+      </c>
+      <c r="F4" s="22">
+        <v>40</v>
+      </c>
+      <c r="G4" s="22">
+        <v>40</v>
+      </c>
+      <c r="H4" s="22">
+        <v>14.2</v>
+      </c>
+      <c r="I4" s="22">
+        <v>14.2</v>
+      </c>
+      <c r="J4" s="22">
+        <v>14.2</v>
+      </c>
+      <c r="K4" s="22">
+        <v>9</v>
+      </c>
+      <c r="L4" s="22">
+        <v>9</v>
+      </c>
+      <c r="M4" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="23">
-        <v>2</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="C5" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="D5" s="22">
+        <v>43.2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>42.8</v>
+      </c>
+      <c r="F5" s="22">
+        <v>42.8</v>
+      </c>
+      <c r="G5" s="22">
+        <v>42.8</v>
+      </c>
+      <c r="H5" s="22">
+        <v>15.4</v>
+      </c>
+      <c r="I5" s="22">
+        <v>15.4</v>
+      </c>
+      <c r="J5" s="22">
+        <v>15.4</v>
+      </c>
+      <c r="K5" s="22">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L5" s="22">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M5" s="18">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="46">
-        <v>1</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-    </row>
-    <row r="7" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42">
+        <v>51.107999999999997</v>
+      </c>
+      <c r="C6" s="42">
+        <v>51.107999999999997</v>
+      </c>
+      <c r="D6" s="35">
+        <v>51.107999999999997</v>
+      </c>
+      <c r="E6" s="35">
+        <v>55.398000000000003</v>
+      </c>
+      <c r="F6" s="35">
+        <v>55.398000000000003</v>
+      </c>
+      <c r="G6" s="35">
+        <v>55.398000000000003</v>
+      </c>
+      <c r="H6" s="35">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="I6" s="35">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="J6" s="35">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="K6" s="35">
+        <v>10.051</v>
+      </c>
+      <c r="L6" s="35">
+        <v>10.051</v>
+      </c>
+      <c r="M6" s="18">
+        <v>10.051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="46">
-        <v>1</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-    </row>
-    <row r="8" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="B7" s="42">
+        <v>29.7</v>
+      </c>
+      <c r="C7" s="42">
+        <v>29.7</v>
+      </c>
+      <c r="D7" s="35">
+        <v>29.7</v>
+      </c>
+      <c r="E7" s="35">
+        <v>31.65</v>
+      </c>
+      <c r="F7" s="35">
+        <v>31.65</v>
+      </c>
+      <c r="G7" s="35">
+        <v>31.65</v>
+      </c>
+      <c r="H7" s="35">
+        <v>11.23</v>
+      </c>
+      <c r="I7" s="35">
+        <v>11.23</v>
+      </c>
+      <c r="J7" s="35">
+        <v>11.23</v>
+      </c>
+      <c r="K7" s="35">
+        <v>5.59</v>
+      </c>
+      <c r="L7" s="35">
+        <v>5.59</v>
+      </c>
+      <c r="M7" s="18">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="55">
-        <v>1</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="51">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C8" s="51">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D8" s="52">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E8" s="52">
+        <v>37.33</v>
+      </c>
+      <c r="F8" s="52">
+        <v>37.33</v>
+      </c>
+      <c r="G8" s="52">
+        <v>37.33</v>
+      </c>
+      <c r="H8" s="52">
+        <v>13.38</v>
+      </c>
+      <c r="I8" s="52">
+        <v>13.38</v>
+      </c>
+      <c r="J8" s="52">
+        <v>13.38</v>
+      </c>
+      <c r="K8" s="52">
+        <v>6.71</v>
+      </c>
+      <c r="L8" s="52">
+        <v>6.71</v>
+      </c>
+      <c r="M8" s="46">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="47">
-        <v>0</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-    </row>
-    <row r="10" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="43">
+        <v>515.82861559540584</v>
+      </c>
+      <c r="C9" s="43">
+        <v>515.82861559540584</v>
+      </c>
+      <c r="D9" s="44">
+        <v>515.82861559540584</v>
+      </c>
+      <c r="E9" s="44">
+        <v>199.60730306545361</v>
+      </c>
+      <c r="F9" s="44">
+        <v>199.60730306545361</v>
+      </c>
+      <c r="G9" s="44">
+        <v>199.60730306545361</v>
+      </c>
+      <c r="H9" s="44">
+        <v>1174.016288690176</v>
+      </c>
+      <c r="I9" s="44">
+        <v>1174.016288690176</v>
+      </c>
+      <c r="J9" s="44">
+        <v>1174.016288690176</v>
+      </c>
+      <c r="K9" s="44">
+        <v>915.62177957616143</v>
+      </c>
+      <c r="L9" s="44">
+        <v>915.62177957616143</v>
+      </c>
+      <c r="M9" s="21">
+        <v>915.62177957616143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="47">
-        <v>0</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-    </row>
-    <row r="11" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43">
+        <v>134.15424422380099</v>
+      </c>
+      <c r="C10" s="43">
+        <v>134.15424422380099</v>
+      </c>
+      <c r="D10" s="44">
+        <v>134.15424422380099</v>
+      </c>
+      <c r="E10" s="44">
+        <v>75.434709223618171</v>
+      </c>
+      <c r="F10" s="44">
+        <v>75.434709223618171</v>
+      </c>
+      <c r="G10" s="44">
+        <v>75.434709223618171</v>
+      </c>
+      <c r="H10" s="44">
+        <v>501.28868775818648</v>
+      </c>
+      <c r="I10" s="44">
+        <v>501.28868775818648</v>
+      </c>
+      <c r="J10" s="44">
+        <v>501.28868775818648</v>
+      </c>
+      <c r="K10" s="44">
+        <v>276.6503016794349</v>
+      </c>
+      <c r="L10" s="44">
+        <v>276.6503016794349</v>
+      </c>
+      <c r="M10" s="21">
+        <v>276.6503016794349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="47">
-        <v>1</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-    </row>
-    <row r="12" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="43">
+        <v>456.30121234268609</v>
+      </c>
+      <c r="C11" s="43">
+        <v>456.30121234268609</v>
+      </c>
+      <c r="D11" s="44">
+        <v>456.30121234268609</v>
+      </c>
+      <c r="E11" s="44">
+        <v>152.03997252463989</v>
+      </c>
+      <c r="F11" s="44">
+        <v>152.03997252463989</v>
+      </c>
+      <c r="G11" s="44">
+        <v>152.03997252463989</v>
+      </c>
+      <c r="H11" s="44">
+        <v>1118.4765282367759</v>
+      </c>
+      <c r="I11" s="44">
+        <v>1118.4765282367759</v>
+      </c>
+      <c r="J11" s="44">
+        <v>1118.4765282367759</v>
+      </c>
+      <c r="K11" s="44">
+        <v>665.35221035419363</v>
+      </c>
+      <c r="L11" s="44">
+        <v>665.35221035419363</v>
+      </c>
+      <c r="M11" s="21">
+        <v>665.35221035419363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="47">
-        <v>0</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-    </row>
-    <row r="13" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="43">
+        <v>213.2200451254206</v>
+      </c>
+      <c r="C12" s="43">
+        <v>213.2200451254206</v>
+      </c>
+      <c r="D12" s="44">
+        <v>213.2200451254206</v>
+      </c>
+      <c r="E12" s="44">
+        <v>70.840308590743348</v>
+      </c>
+      <c r="F12" s="44">
+        <v>70.840308590743348</v>
+      </c>
+      <c r="G12" s="44">
+        <v>70.840308590743348</v>
+      </c>
+      <c r="H12" s="44">
+        <v>698.6923555415616</v>
+      </c>
+      <c r="I12" s="44">
+        <v>698.6923555415616</v>
+      </c>
+      <c r="J12" s="44">
+        <v>698.6923555415616</v>
+      </c>
+      <c r="K12" s="44">
+        <v>508.58178401850557</v>
+      </c>
+      <c r="L12" s="44">
+        <v>508.58178401850557</v>
+      </c>
+      <c r="M12" s="21">
+        <v>508.58178401850557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="47">
-        <v>0</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-    </row>
-    <row r="14" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="43">
+        <v>498.14140842764328</v>
+      </c>
+      <c r="C13" s="43">
+        <v>498.14140842764328</v>
+      </c>
+      <c r="D13" s="44">
+        <v>498.14140842764328</v>
+      </c>
+      <c r="E13" s="44">
+        <v>134.7111382479512</v>
+      </c>
+      <c r="F13" s="44">
+        <v>134.7111382479512</v>
+      </c>
+      <c r="G13" s="44">
+        <v>134.7111382479512</v>
+      </c>
+      <c r="H13" s="44">
+        <v>1312.3319373047859</v>
+      </c>
+      <c r="I13" s="44">
+        <v>1312.3319373047859</v>
+      </c>
+      <c r="J13" s="44">
+        <v>1312.3319373047859</v>
+      </c>
+      <c r="K13" s="44">
+        <v>755.37550274102057</v>
+      </c>
+      <c r="L13" s="44">
+        <v>755.37550274102057</v>
+      </c>
+      <c r="M13" s="21">
+        <v>755.37550274102057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="47">
-        <v>0</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-    </row>
-    <row r="15" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="43">
+        <v>12.62697678484777</v>
+      </c>
+      <c r="C14" s="43">
+        <v>12.62697678484777</v>
+      </c>
+      <c r="D14" s="44">
+        <v>12.62697678484777</v>
+      </c>
+      <c r="E14" s="44">
+        <v>2.876610364995126</v>
+      </c>
+      <c r="F14" s="44">
+        <v>2.876610364995126</v>
+      </c>
+      <c r="G14" s="44">
+        <v>2.876610364995126</v>
+      </c>
+      <c r="H14" s="44">
+        <v>46.22548277078085</v>
+      </c>
+      <c r="I14" s="44">
+        <v>46.22548277078085</v>
+      </c>
+      <c r="J14" s="44">
+        <v>46.22548277078085</v>
+      </c>
+      <c r="K14" s="44">
+        <v>31.397898067853941</v>
+      </c>
+      <c r="L14" s="44">
+        <v>31.397898067853941</v>
+      </c>
+      <c r="M14" s="21">
+        <v>31.397898067853941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="47">
-        <v>1</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-    </row>
-    <row r="16" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="43">
+        <v>1402.5416673231191</v>
+      </c>
+      <c r="C15" s="43">
+        <v>1402.5416673231191</v>
+      </c>
+      <c r="D15" s="44">
+        <v>1402.5416673231191</v>
+      </c>
+      <c r="E15" s="44">
+        <v>2111.595298327557</v>
+      </c>
+      <c r="F15" s="44">
+        <v>2111.595298327557</v>
+      </c>
+      <c r="G15" s="44">
+        <v>2111.595298327557</v>
+      </c>
+      <c r="H15" s="44">
+        <v>1603.786413123426</v>
+      </c>
+      <c r="I15" s="44">
+        <v>1603.786413123426</v>
+      </c>
+      <c r="J15" s="44">
+        <v>1603.786413123426</v>
+      </c>
+      <c r="K15" s="44">
+        <v>1064.176969181176</v>
+      </c>
+      <c r="L15" s="44">
+        <v>1064.176969181176</v>
+      </c>
+      <c r="M15" s="21">
+        <v>1064.176969181176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="47">
-        <v>0</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-    </row>
-    <row r="17" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="43">
+        <v>1197.2348506331689</v>
+      </c>
+      <c r="C16" s="43">
+        <v>1197.2348506331689</v>
+      </c>
+      <c r="D16" s="44">
+        <v>1197.2348506331689</v>
+      </c>
+      <c r="E16" s="44">
+        <v>476.76870835156512</v>
+      </c>
+      <c r="F16" s="44">
+        <v>476.76870835156512</v>
+      </c>
+      <c r="G16" s="44">
+        <v>476.76870835156512</v>
+      </c>
+      <c r="H16" s="44">
+        <v>3286.1730610831228</v>
+      </c>
+      <c r="I16" s="44">
+        <v>3286.1730610831228</v>
+      </c>
+      <c r="J16" s="44">
+        <v>3286.1730610831228</v>
+      </c>
+      <c r="K16" s="44">
+        <v>3332.030174012536</v>
+      </c>
+      <c r="L16" s="44">
+        <v>3332.030174012536</v>
+      </c>
+      <c r="M16" s="21">
+        <v>3332.030174012536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="47">
-        <v>0</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-    </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="43">
+        <v>320.85823257572201</v>
+      </c>
+      <c r="C17" s="43">
+        <v>320.85823257572201</v>
+      </c>
+      <c r="D17" s="44">
+        <v>320.85823257572201</v>
+      </c>
+      <c r="E17" s="44">
+        <v>168.86506150528899</v>
+      </c>
+      <c r="F17" s="44">
+        <v>168.86506150528899</v>
+      </c>
+      <c r="G17" s="44">
+        <v>168.86506150528899</v>
+      </c>
+      <c r="H17" s="44">
+        <v>1405.7652375062969</v>
+      </c>
+      <c r="I17" s="44">
+        <v>1405.7652375062969</v>
+      </c>
+      <c r="J17" s="44">
+        <v>1405.7652375062969</v>
+      </c>
+      <c r="K17" s="44">
+        <v>977.52366064968669</v>
+      </c>
+      <c r="L17" s="44">
+        <v>977.52366064968669</v>
+      </c>
+      <c r="M17" s="21">
+        <v>977.52366064968669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="47">
-        <v>0</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-    </row>
-    <row r="19" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="43">
+        <v>1199.696775791266</v>
+      </c>
+      <c r="C18" s="43">
+        <v>1199.696775791266</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1199.696775791266</v>
+      </c>
+      <c r="E18" s="44">
+        <v>428.78309117747932</v>
+      </c>
+      <c r="F18" s="44">
+        <v>428.78309117747932</v>
+      </c>
+      <c r="G18" s="44">
+        <v>428.78309117747932</v>
+      </c>
+      <c r="H18" s="44">
+        <v>3459.0808111335009</v>
+      </c>
+      <c r="I18" s="44">
+        <v>3459.0808111335009</v>
+      </c>
+      <c r="J18" s="44">
+        <v>3459.0808111335009</v>
+      </c>
+      <c r="K18" s="44">
+        <v>2680.5213259755251</v>
+      </c>
+      <c r="L18" s="44">
+        <v>2680.5213259755251</v>
+      </c>
+      <c r="M18" s="21">
+        <v>2680.5213259755251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="47">
-        <v>0</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-    </row>
-    <row r="20" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="43">
+        <v>540.89088931634967</v>
+      </c>
+      <c r="C19" s="43">
+        <v>540.89088931634967</v>
+      </c>
+      <c r="D19" s="44">
+        <v>540.89088931634967</v>
+      </c>
+      <c r="E19" s="44">
+        <v>184.07789257410019</v>
+      </c>
+      <c r="F19" s="44">
+        <v>184.07789257410019</v>
+      </c>
+      <c r="G19" s="44">
+        <v>184.07789257410019</v>
+      </c>
+      <c r="H19" s="44">
+        <v>2132.8763109823681</v>
+      </c>
+      <c r="I19" s="44">
+        <v>2132.8763109823681</v>
+      </c>
+      <c r="J19" s="44">
+        <v>2132.8763109823681</v>
+      </c>
+      <c r="K19" s="44">
+        <v>2041.857444873147</v>
+      </c>
+      <c r="L19" s="44">
+        <v>2041.857444873147</v>
+      </c>
+      <c r="M19" s="21">
+        <v>2041.857444873147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="47">
-        <v>0</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-    </row>
-    <row r="21" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="43">
+        <v>1270.162068024184</v>
+      </c>
+      <c r="C20" s="43">
+        <v>1270.162068024184</v>
+      </c>
+      <c r="D20" s="44">
+        <v>1270.162068024184</v>
+      </c>
+      <c r="E20" s="44">
+        <v>365.06401181631111</v>
+      </c>
+      <c r="F20" s="44">
+        <v>365.06401181631111</v>
+      </c>
+      <c r="G20" s="44">
+        <v>365.06401181631111</v>
+      </c>
+      <c r="H20" s="44">
+        <v>4050.1867618639799</v>
+      </c>
+      <c r="I20" s="44">
+        <v>4050.1867618639799</v>
+      </c>
+      <c r="J20" s="44">
+        <v>4050.1867618639799</v>
+      </c>
+      <c r="K20" s="44">
+        <v>3212.5052735787481</v>
+      </c>
+      <c r="L20" s="44">
+        <v>3212.5052735787481</v>
+      </c>
+      <c r="M20" s="21">
+        <v>3212.5052735787481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="47">
-        <v>0</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-    </row>
-    <row r="22" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="43">
+        <v>23.40194889880253</v>
+      </c>
+      <c r="C21" s="43">
+        <v>23.40194889880253</v>
+      </c>
+      <c r="D21" s="44">
+        <v>23.40194889880253</v>
+      </c>
+      <c r="E21" s="44">
+        <v>4.9180128343983531</v>
+      </c>
+      <c r="F21" s="44">
+        <v>4.9180128343983531</v>
+      </c>
+      <c r="G21" s="44">
+        <v>4.9180128343983531</v>
+      </c>
+      <c r="H21" s="44">
+        <v>110.7432220151133</v>
+      </c>
+      <c r="I21" s="44">
+        <v>110.7432220151133</v>
+      </c>
+      <c r="J21" s="44">
+        <v>110.7432220151133</v>
+      </c>
+      <c r="K21" s="44">
+        <v>105.48865642324149</v>
+      </c>
+      <c r="L21" s="44">
+        <v>105.48865642324149</v>
+      </c>
+      <c r="M21" s="21">
+        <v>105.48865642324149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="47">
-        <v>2</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-    </row>
-    <row r="23" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="43">
+        <v>3456.8547898810361</v>
+      </c>
+      <c r="C22" s="43">
+        <v>3456.8547898810361</v>
+      </c>
+      <c r="D22" s="44">
+        <v>3456.8547898810361</v>
+      </c>
+      <c r="E22" s="44">
+        <v>6056.5933341737973</v>
+      </c>
+      <c r="F22" s="44">
+        <v>6056.5933341737973</v>
+      </c>
+      <c r="G22" s="44">
+        <v>6056.5933341737973</v>
+      </c>
+      <c r="H22" s="44">
+        <v>4739.632746624683</v>
+      </c>
+      <c r="I22" s="44">
+        <v>4739.632746624683</v>
+      </c>
+      <c r="J22" s="44">
+        <v>4739.632746624683</v>
+      </c>
+      <c r="K22" s="44">
+        <v>2958.333241555069</v>
+      </c>
+      <c r="L22" s="44">
+        <v>2958.333241555069</v>
+      </c>
+      <c r="M22" s="21">
+        <v>2958.333241555069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="43">
         <v>0</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-    </row>
-    <row r="24" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="43">
+        <v>0</v>
+      </c>
+      <c r="D23" s="44">
+        <v>0</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44">
+        <v>0</v>
+      </c>
+      <c r="I23" s="44">
+        <v>0</v>
+      </c>
+      <c r="J23" s="44">
+        <v>0</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0</v>
+      </c>
+      <c r="L23" s="44">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="47">
-        <v>0</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-    </row>
-    <row r="25" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="43">
+        <v>552.52309316760579</v>
+      </c>
+      <c r="C24" s="43">
+        <v>552.52309316760579</v>
+      </c>
+      <c r="D24" s="44">
+        <v>552.52309316760579</v>
+      </c>
+      <c r="E24" s="44">
+        <v>156.4364020739016</v>
+      </c>
+      <c r="F24" s="44">
+        <v>156.4364020739016</v>
+      </c>
+      <c r="G24" s="44">
+        <v>156.4364020739016</v>
+      </c>
+      <c r="H24" s="44">
+        <v>422.66498526448362</v>
+      </c>
+      <c r="I24" s="44">
+        <v>422.66498526448362</v>
+      </c>
+      <c r="J24" s="44">
+        <v>422.66498526448362</v>
+      </c>
+      <c r="K24" s="44">
+        <v>1343.4697960501439</v>
+      </c>
+      <c r="L24" s="44">
+        <v>1343.4697960501439</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1343.4697960501439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="47">
-        <v>1</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-    </row>
-    <row r="26" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="43">
+        <v>1788.5705783675739</v>
+      </c>
+      <c r="C25" s="43">
+        <v>1788.5705783675739</v>
+      </c>
+      <c r="D25" s="44">
+        <v>1788.5705783675739</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1888.29131063468</v>
+      </c>
+      <c r="F25" s="44">
+        <v>1888.29131063468</v>
+      </c>
+      <c r="G25" s="44">
+        <v>1888.29131063468</v>
+      </c>
+      <c r="H25" s="44">
+        <v>2453.021229370278</v>
+      </c>
+      <c r="I25" s="44">
+        <v>2453.021229370278</v>
+      </c>
+      <c r="J25" s="44">
+        <v>2453.021229370278</v>
+      </c>
+      <c r="K25" s="44">
+        <v>3456.986874422445</v>
+      </c>
+      <c r="L25" s="44">
+        <v>3456.986874422445</v>
+      </c>
+      <c r="M25" s="21">
+        <v>3456.986874422445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="47">
-        <v>0</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-    </row>
-    <row r="27" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="43">
+        <v>92.688305970689512</v>
+      </c>
+      <c r="C26" s="43">
+        <v>92.688305970689512</v>
+      </c>
+      <c r="D26" s="44">
+        <v>92.688305970689512</v>
+      </c>
+      <c r="E26" s="44">
+        <v>18.77900304758295</v>
+      </c>
+      <c r="F26" s="44">
+        <v>18.77900304758295</v>
+      </c>
+      <c r="G26" s="44">
+        <v>18.77900304758295</v>
+      </c>
+      <c r="H26" s="44">
+        <v>225.85956329974809</v>
+      </c>
+      <c r="I26" s="44">
+        <v>225.85956329974809</v>
+      </c>
+      <c r="J26" s="44">
+        <v>225.85956329974809</v>
+      </c>
+      <c r="K26" s="44">
+        <v>100.6900004715949</v>
+      </c>
+      <c r="L26" s="44">
+        <v>100.6900004715949</v>
+      </c>
+      <c r="M26" s="21">
+        <v>100.6900004715949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="47">
-        <v>0</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-    </row>
-    <row r="28" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="43">
+        <v>155.26074888138839</v>
+      </c>
+      <c r="C27" s="43">
+        <v>155.26074888138839</v>
+      </c>
+      <c r="D27" s="44">
+        <v>155.26074888138839</v>
+      </c>
+      <c r="E27" s="44">
+        <v>34.395670239719863</v>
+      </c>
+      <c r="F27" s="44">
+        <v>34.395670239719863</v>
+      </c>
+      <c r="G27" s="44">
+        <v>34.395670239719863</v>
+      </c>
+      <c r="H27" s="44">
+        <v>298.63832987405527</v>
+      </c>
+      <c r="I27" s="44">
+        <v>298.63832987405527</v>
+      </c>
+      <c r="J27" s="44">
+        <v>298.63832987405527</v>
+      </c>
+      <c r="K27" s="44">
+        <v>84.154512467416183</v>
+      </c>
+      <c r="L27" s="44">
+        <v>84.154512467416183</v>
+      </c>
+      <c r="M27" s="21">
+        <v>84.154512467416183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="47">
-        <v>0</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-    </row>
-    <row r="29" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="43">
+        <v>778.15308574039295</v>
+      </c>
+      <c r="C28" s="43">
+        <v>778.15308574039295</v>
+      </c>
+      <c r="D28" s="44">
+        <v>778.15308574039295</v>
+      </c>
+      <c r="E28" s="44">
+        <v>199.82353719809379</v>
+      </c>
+      <c r="F28" s="44">
+        <v>199.82353719809379</v>
+      </c>
+      <c r="G28" s="44">
+        <v>199.82353719809379</v>
+      </c>
+      <c r="H28" s="44">
+        <v>1639.5203148362721</v>
+      </c>
+      <c r="I28" s="44">
+        <v>1639.5203148362721</v>
+      </c>
+      <c r="J28" s="44">
+        <v>1639.5203148362721</v>
+      </c>
+      <c r="K28" s="44">
+        <v>663.62218401950054</v>
+      </c>
+      <c r="L28" s="44">
+        <v>663.62218401950054</v>
+      </c>
+      <c r="M28" s="21">
+        <v>663.62218401950054</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="47">
-        <v>0</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-    </row>
-    <row r="30" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="43">
+        <v>59.601695990060257</v>
+      </c>
+      <c r="C29" s="43">
+        <v>59.601695990060257</v>
+      </c>
+      <c r="D29" s="44">
+        <v>59.601695990060257</v>
+      </c>
+      <c r="E29" s="44">
+        <v>21.34782864236977</v>
+      </c>
+      <c r="F29" s="44">
+        <v>21.34782864236977</v>
+      </c>
+      <c r="G29" s="44">
+        <v>21.34782864236977</v>
+      </c>
+      <c r="H29" s="44">
+        <v>222.56990755667499</v>
+      </c>
+      <c r="I29" s="44">
+        <v>222.56990755667499</v>
+      </c>
+      <c r="J29" s="44">
+        <v>222.56990755667499</v>
+      </c>
+      <c r="K29" s="44">
+        <v>200.24635868072829</v>
+      </c>
+      <c r="L29" s="44">
+        <v>200.24635868072829</v>
+      </c>
+      <c r="M29" s="21">
+        <v>200.24635868072829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="47">
-        <v>0</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-    </row>
-    <row r="31" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="43">
+        <v>210.9680602302966</v>
+      </c>
+      <c r="C30" s="43">
+        <v>210.9680602302966</v>
+      </c>
+      <c r="D30" s="44">
+        <v>210.9680602302966</v>
+      </c>
+      <c r="E30" s="44">
+        <v>119.9283266083613</v>
+      </c>
+      <c r="F30" s="44">
+        <v>119.9283266083613</v>
+      </c>
+      <c r="G30" s="44">
+        <v>119.9283266083613</v>
+      </c>
+      <c r="H30" s="44">
+        <v>1497.5145642317379</v>
+      </c>
+      <c r="I30" s="44">
+        <v>1497.5145642317379</v>
+      </c>
+      <c r="J30" s="44">
+        <v>1497.5145642317379</v>
+      </c>
+      <c r="K30" s="44">
+        <v>685.27523506516764</v>
+      </c>
+      <c r="L30" s="44">
+        <v>685.27523506516764</v>
+      </c>
+      <c r="M30" s="21">
+        <v>685.27523506516764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="47">
-        <v>0</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-    </row>
-    <row r="32" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="B31" s="43">
+        <v>1.0716724045159269</v>
+      </c>
+      <c r="C31" s="43">
+        <v>1.0716724045159269</v>
+      </c>
+      <c r="D31" s="44">
+        <v>1.0716724045159269</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0.25178023773421432</v>
+      </c>
+      <c r="F31" s="44">
+        <v>0.25178023773421432</v>
+      </c>
+      <c r="G31" s="44">
+        <v>0.25178023773421432</v>
+      </c>
+      <c r="H31" s="44">
+        <v>4.672229974811084</v>
+      </c>
+      <c r="I31" s="44">
+        <v>4.672229974811084</v>
+      </c>
+      <c r="J31" s="44">
+        <v>4.672229974811084</v>
+      </c>
+      <c r="K31" s="44">
+        <v>3.3577252870361161</v>
+      </c>
+      <c r="L31" s="44">
+        <v>3.3577252870361161</v>
+      </c>
+      <c r="M31" s="21">
+        <v>3.3577252870361161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="49">
-        <v>0</v>
-      </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-    </row>
-    <row r="33" spans="1:12" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-    </row>
-    <row r="34" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="45">
+        <v>2566.1310375835478</v>
+      </c>
+      <c r="C32" s="45">
+        <v>2566.1310375835478</v>
+      </c>
+      <c r="D32" s="47">
+        <v>2566.1310375835478</v>
+      </c>
+      <c r="E32" s="47">
+        <v>4471.2216018394174</v>
+      </c>
+      <c r="F32" s="47">
+        <v>4471.2216018394174</v>
+      </c>
+      <c r="G32" s="47">
+        <v>4471.2216018394174</v>
+      </c>
+      <c r="H32" s="47">
+        <v>3373.928059118387</v>
+      </c>
+      <c r="I32" s="47">
+        <v>3373.928059118387</v>
+      </c>
+      <c r="J32" s="47">
+        <v>3373.928059118387</v>
+      </c>
+      <c r="K32" s="47">
+        <v>2236.3461736613272</v>
+      </c>
+      <c r="L32" s="47">
+        <v>2236.3461736613272</v>
+      </c>
+      <c r="M32" s="21">
+        <v>2236.3461736613272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="39">
         <v>1</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-    </row>
-    <row r="35" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="52" t="s">
-        <v>238</v>
+      <c r="C34" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D34" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="39">
+        <v>1</v>
+      </c>
+      <c r="F34" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G34" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="H34" s="39">
+        <v>1</v>
+      </c>
+      <c r="I34" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J34" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="K34" s="39">
+        <v>1</v>
+      </c>
+      <c r="L34" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M34" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="48" t="s">
+        <v>237</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -2042,259 +2814,535 @@
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-    </row>
-    <row r="37" spans="1:12" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-    </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="M36" s="54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="33">
         <v>75</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-    </row>
-    <row r="39" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="33">
+        <v>75</v>
+      </c>
+      <c r="D38" s="33">
+        <v>75</v>
+      </c>
+      <c r="E38" s="33">
+        <v>75</v>
+      </c>
+      <c r="F38" s="33">
+        <v>75</v>
+      </c>
+      <c r="G38" s="33">
+        <v>75</v>
+      </c>
+      <c r="H38" s="33">
+        <v>75</v>
+      </c>
+      <c r="I38" s="33">
+        <v>75</v>
+      </c>
+      <c r="J38" s="33">
+        <v>75</v>
+      </c>
+      <c r="K38" s="33">
+        <v>75</v>
+      </c>
+      <c r="L38" s="33">
+        <v>75</v>
+      </c>
+      <c r="M38" s="33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="38">
         <v>2030</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-    </row>
-    <row r="40" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="D39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="E39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="F39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="G39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="H39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="J39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="K39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="L39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="M39" s="38">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="15">
         <v>2029</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-    </row>
-    <row r="41" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="E40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="F40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="G40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="H40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="I40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="J40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="K40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="L40" s="15">
+        <v>2029</v>
+      </c>
+      <c r="M40" s="15">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="38">
         <v>2025</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-    </row>
-    <row r="42" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="D41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="E41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="F41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="G41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="H41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="I41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="J41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="K41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="L41" s="38">
+        <v>2025</v>
+      </c>
+      <c r="M41" s="38">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="38">
         <v>2020</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-    </row>
-    <row r="43" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="E42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="F42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="G42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="H42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="I42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="J42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="K42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="L42" s="38">
+        <v>2020</v>
+      </c>
+      <c r="M42" s="38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="42">
+      <c r="B43" s="38">
         <v>2020</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-    </row>
-    <row r="44" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="D43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="E43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="F43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="G43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="H43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="I43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="J43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="K43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="L43" s="38">
+        <v>2020</v>
+      </c>
+      <c r="M43" s="38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="15">
         <v>2050</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-    </row>
-    <row r="45" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="E44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="F44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="G44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="H44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="I44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="J44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="K44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="L44" s="15">
+        <v>2050</v>
+      </c>
+      <c r="M44" s="15">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="15">
         <v>2060</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-    </row>
-    <row r="46" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-    </row>
-    <row r="47" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="F45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="G45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="H45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="I45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="J45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="K45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="L45" s="15">
+        <v>2060</v>
+      </c>
+      <c r="M45" s="15">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+    </row>
+    <row r="47" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B47" s="16">
         <v>0.04</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-    </row>
-    <row r="48" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="H47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M47" s="16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B48" s="16">
         <v>0.03</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-    </row>
-    <row r="49" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="K48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="L48" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="M48" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="36">
         <v>40</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-    </row>
-    <row r="50" spans="1:12" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="B50" s="37"/>
+      <c r="C49" s="36">
+        <v>40</v>
+      </c>
+      <c r="D49" s="36">
+        <v>40</v>
+      </c>
+      <c r="E49" s="36">
+        <v>40</v>
+      </c>
+      <c r="F49" s="36">
+        <v>40</v>
+      </c>
+      <c r="G49" s="36">
+        <v>40</v>
+      </c>
+      <c r="H49" s="36">
+        <v>40</v>
+      </c>
+      <c r="I49" s="36">
+        <v>40</v>
+      </c>
+      <c r="J49" s="36">
+        <v>40</v>
+      </c>
+      <c r="K49" s="36">
+        <v>40</v>
+      </c>
+      <c r="L49" s="36">
+        <v>40</v>
+      </c>
+      <c r="M49" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="14" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="33"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -2306,273 +3354,549 @@
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="24">
         <v>0</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-    </row>
-    <row r="52" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="24">
+        <v>0</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
+      <c r="E51" s="24">
+        <v>0</v>
+      </c>
+      <c r="F51" s="24">
+        <v>0</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0</v>
+      </c>
+      <c r="H51" s="24">
+        <v>0</v>
+      </c>
+      <c r="I51" s="24">
+        <v>0</v>
+      </c>
+      <c r="J51" s="24">
+        <v>0</v>
+      </c>
+      <c r="K51" s="24">
+        <v>0</v>
+      </c>
+      <c r="L51" s="24">
+        <v>0</v>
+      </c>
+      <c r="M51" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-    </row>
-    <row r="53" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-    </row>
-    <row r="54" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M52" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+    </row>
+    <row r="54" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-    </row>
-    <row r="55" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M54" s="32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-    </row>
-    <row r="56" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M55" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="16">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:12" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-    </row>
-    <row r="58" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M56" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+    </row>
+    <row r="58" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="34">
+      <c r="B58" s="31">
         <v>1</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-    </row>
-    <row r="59" spans="1:12" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A59" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-    </row>
-    <row r="60" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="31">
+        <v>1</v>
+      </c>
+      <c r="D58" s="31">
+        <v>1</v>
+      </c>
+      <c r="E58" s="31">
+        <v>1</v>
+      </c>
+      <c r="F58" s="31">
+        <v>1</v>
+      </c>
+      <c r="G58" s="31">
+        <v>1</v>
+      </c>
+      <c r="H58" s="31">
+        <v>1</v>
+      </c>
+      <c r="I58" s="31">
+        <v>1</v>
+      </c>
+      <c r="J58" s="31">
+        <v>1</v>
+      </c>
+      <c r="K58" s="31">
+        <v>1</v>
+      </c>
+      <c r="L58" s="31">
+        <v>1</v>
+      </c>
+      <c r="M58" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A59" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="28">
         <v>100</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-    </row>
-    <row r="61" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="28">
+        <v>100</v>
+      </c>
+      <c r="D60" s="28">
+        <v>100</v>
+      </c>
+      <c r="E60" s="28">
+        <v>100</v>
+      </c>
+      <c r="F60" s="28">
+        <v>100</v>
+      </c>
+      <c r="G60" s="28">
+        <v>100</v>
+      </c>
+      <c r="H60" s="28">
+        <v>100</v>
+      </c>
+      <c r="I60" s="28">
+        <v>100</v>
+      </c>
+      <c r="J60" s="28">
+        <v>100</v>
+      </c>
+      <c r="K60" s="28">
+        <v>100</v>
+      </c>
+      <c r="L60" s="28">
+        <v>100</v>
+      </c>
+      <c r="M60" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="28">
         <v>100</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-    </row>
-    <row r="62" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="28">
+        <v>100</v>
+      </c>
+      <c r="D61" s="28">
+        <v>100</v>
+      </c>
+      <c r="E61" s="28">
+        <v>100</v>
+      </c>
+      <c r="F61" s="28">
+        <v>100</v>
+      </c>
+      <c r="G61" s="28">
+        <v>100</v>
+      </c>
+      <c r="H61" s="28">
+        <v>100</v>
+      </c>
+      <c r="I61" s="28">
+        <v>100</v>
+      </c>
+      <c r="J61" s="28">
+        <v>100</v>
+      </c>
+      <c r="K61" s="28">
+        <v>100</v>
+      </c>
+      <c r="L61" s="28">
+        <v>100</v>
+      </c>
+      <c r="M61" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="28">
         <v>100</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-    </row>
-    <row r="63" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="28">
+        <v>100</v>
+      </c>
+      <c r="D62" s="28">
+        <v>100</v>
+      </c>
+      <c r="E62" s="28">
+        <v>100</v>
+      </c>
+      <c r="F62" s="28">
+        <v>100</v>
+      </c>
+      <c r="G62" s="28">
+        <v>100</v>
+      </c>
+      <c r="H62" s="28">
+        <v>100</v>
+      </c>
+      <c r="I62" s="28">
+        <v>100</v>
+      </c>
+      <c r="J62" s="28">
+        <v>100</v>
+      </c>
+      <c r="K62" s="28">
+        <v>100</v>
+      </c>
+      <c r="L62" s="28">
+        <v>100</v>
+      </c>
+      <c r="M62" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="29">
         <v>1</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-    </row>
-    <row r="64" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="29">
+        <v>1</v>
+      </c>
+      <c r="D63" s="29">
+        <v>1</v>
+      </c>
+      <c r="E63" s="29">
+        <v>1</v>
+      </c>
+      <c r="F63" s="29">
+        <v>1</v>
+      </c>
+      <c r="G63" s="29">
+        <v>1</v>
+      </c>
+      <c r="H63" s="29">
+        <v>1</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+      <c r="J63" s="29">
+        <v>1</v>
+      </c>
+      <c r="K63" s="29">
+        <v>1</v>
+      </c>
+      <c r="L63" s="29">
+        <v>1</v>
+      </c>
+      <c r="M63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B64" s="29">
         <v>1</v>
       </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-    </row>
-    <row r="65" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="29">
+        <v>1</v>
+      </c>
+      <c r="D64" s="29">
+        <v>1</v>
+      </c>
+      <c r="E64" s="29">
+        <v>1</v>
+      </c>
+      <c r="F64" s="29">
+        <v>1</v>
+      </c>
+      <c r="G64" s="29">
+        <v>1</v>
+      </c>
+      <c r="H64" s="29">
+        <v>1</v>
+      </c>
+      <c r="I64" s="29">
+        <v>1</v>
+      </c>
+      <c r="J64" s="29">
+        <v>1</v>
+      </c>
+      <c r="K64" s="29">
+        <v>1</v>
+      </c>
+      <c r="L64" s="29">
+        <v>1</v>
+      </c>
+      <c r="M64" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B65" s="32">
+      <c r="B65" s="29">
         <v>1</v>
       </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-    </row>
-    <row r="66" spans="1:12" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A66" s="53" t="s">
-        <v>233</v>
+      <c r="C65" s="29">
+        <v>1</v>
+      </c>
+      <c r="D65" s="29">
+        <v>1</v>
+      </c>
+      <c r="E65" s="29">
+        <v>1</v>
+      </c>
+      <c r="F65" s="29">
+        <v>1</v>
+      </c>
+      <c r="G65" s="29">
+        <v>1</v>
+      </c>
+      <c r="H65" s="29">
+        <v>1</v>
+      </c>
+      <c r="I65" s="29">
+        <v>1</v>
+      </c>
+      <c r="J65" s="29">
+        <v>1</v>
+      </c>
+      <c r="K65" s="29">
+        <v>1</v>
+      </c>
+      <c r="L65" s="29">
+        <v>1</v>
+      </c>
+      <c r="M65" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A66" s="49" t="s">
+        <v>232</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -2586,113 +3910,228 @@
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
     </row>
-    <row r="67" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B67" s="26">
         <v>0.6</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-    </row>
-    <row r="68" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="D67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="E67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="F67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="G67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="H67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="I67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="J67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="K67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="L67" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="M67" s="26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="26">
         <v>0.9</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-    </row>
-    <row r="69" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="D68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="E68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="F68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="G68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="H68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="I68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="J68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="K68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="L68" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="M68" s="26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B69" s="27">
+        <v>229</v>
+      </c>
+      <c r="B69" s="26">
         <v>0.7</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-    </row>
-    <row r="70" spans="1:12" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-    </row>
-    <row r="71" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="D69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="E69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="G69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="H69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="I69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="J69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="K69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="L69" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="M69" s="26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+    </row>
+    <row r="71" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B71" s="16">
         <v>0.2</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="G71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="H71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="J71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="K71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="L71" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M71" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B72" s="16">
         <v>0.2</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="D72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="G72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="H72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="J72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="K72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="L72" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="M72" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>60</v>
       </c>
@@ -2700,91 +4139,205 @@
         <f>0.15/(0.11+0.15+1)</f>
         <v>0.11904761904761904</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="1:12" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-    </row>
-    <row r="75" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="16">
+        <f t="shared" ref="C73:M73" si="0">0.15/(0.11+0.15+1)</f>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="D73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="E73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="F73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="G73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="H73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="I73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="K73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="L73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="M73" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+    </row>
+    <row r="75" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="24">
         <v>0.23</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-    </row>
-    <row r="76" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="D75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="E75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="H75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="I75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="J75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="K75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="L75" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="M75" s="24">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="25">
+      <c r="B76" s="24">
         <v>0.23</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-    </row>
-    <row r="77" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="D76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="E76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="H76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="I76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="J76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="K76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="L76" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="M76" s="24">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="25">
+      <c r="B77" s="24">
         <f>0.11/(0.11+0.15+1)</f>
         <v>8.7301587301587297E-2</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-    </row>
-    <row r="78" spans="1:12" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="52" t="s">
-        <v>247</v>
+      <c r="C77" s="24">
+        <f t="shared" ref="C77:M77" si="1">0.11/(0.11+0.15+1)</f>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="D77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="E77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="F77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="G77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="H77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="I77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="J77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="K77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="L77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+      <c r="M77" s="24">
+        <f t="shared" si="1"/>
+        <v>8.7301587301587297E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="48" t="s">
+        <v>246</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -2798,43 +4351,89 @@
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
     </row>
-    <row r="79" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B79" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M79" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B80" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M80" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>61</v>
       </c>
@@ -2842,352 +4441,906 @@
         <f>1/(0.11+0.15+1)</f>
         <v>0.79365079365079361</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="1:12" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-    </row>
-    <row r="83" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="16">
+        <f t="shared" ref="C81:M81" si="2">1/(0.11+0.15+1)</f>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="D81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="E81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="F81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="G81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="H81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="I81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="J81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="K81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="L81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="M81" s="16">
+        <f t="shared" si="2"/>
+        <v>0.79365079365079361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+    </row>
+    <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B83" s="13">
         <v>-0.46</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-    </row>
-    <row r="84" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="D83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="E83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="F83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="G83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="H83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="I83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="J83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="K83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="L83" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="M83" s="13">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B84" s="13">
         <v>-0.46</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-    </row>
-    <row r="85" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="D84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="E84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="F84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="G84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="H84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="I84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="J84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="K84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="L84" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="M84" s="13">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B85" s="13">
         <v>-0.34</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-    </row>
-    <row r="86" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="D85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="E85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="F85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="G85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="H85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="I85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="J85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="K85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="L85" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="M85" s="13">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B86" s="13">
         <v>-0.34</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-    </row>
-    <row r="87" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="D86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="E86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="F86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="G86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="H86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="I86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="J86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="K86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="L86" s="13">
+        <v>-0.34</v>
+      </c>
+      <c r="M86" s="13">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B87" s="13">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-    </row>
-    <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="D87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="E87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="F87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="G87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="H87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="I87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="J87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="K87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="L87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="M87" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B88" s="13">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-    </row>
-    <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="D88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="E88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="F88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="G88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="H88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="I88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="J88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="K88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="L88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="M88" s="13">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B89" s="13">
         <v>-0.46</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-    </row>
-    <row r="90" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A90" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
-    </row>
-    <row r="91" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="D89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="E89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="F89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="G89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="H89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="I89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="J89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="K89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="L89" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="M89" s="13">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+    </row>
+    <row r="91" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>470</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-    </row>
-    <row r="92" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="20">
+        <v>470</v>
+      </c>
+      <c r="D91" s="20">
+        <v>470</v>
+      </c>
+      <c r="E91" s="20">
+        <v>470</v>
+      </c>
+      <c r="F91" s="20">
+        <v>470</v>
+      </c>
+      <c r="G91" s="20">
+        <v>470</v>
+      </c>
+      <c r="H91" s="20">
+        <v>470</v>
+      </c>
+      <c r="I91" s="20">
+        <v>470</v>
+      </c>
+      <c r="J91" s="20">
+        <v>470</v>
+      </c>
+      <c r="K91" s="20">
+        <v>470</v>
+      </c>
+      <c r="L91" s="20">
+        <v>470</v>
+      </c>
+      <c r="M91" s="20">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>85</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-    </row>
-    <row r="93" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="20">
+        <v>85</v>
+      </c>
+      <c r="D92" s="20">
+        <v>85</v>
+      </c>
+      <c r="E92" s="20">
+        <v>85</v>
+      </c>
+      <c r="F92" s="20">
+        <v>85</v>
+      </c>
+      <c r="G92" s="20">
+        <v>85</v>
+      </c>
+      <c r="H92" s="20">
+        <v>85</v>
+      </c>
+      <c r="I92" s="20">
+        <v>85</v>
+      </c>
+      <c r="J92" s="20">
+        <v>85</v>
+      </c>
+      <c r="K92" s="20">
+        <v>85</v>
+      </c>
+      <c r="L92" s="20">
+        <v>85</v>
+      </c>
+      <c r="M92" s="20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="20">
         <v>70</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-    </row>
-    <row r="94" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="20">
+        <v>70</v>
+      </c>
+      <c r="D93" s="20">
+        <v>70</v>
+      </c>
+      <c r="E93" s="20">
+        <v>70</v>
+      </c>
+      <c r="F93" s="20">
+        <v>70</v>
+      </c>
+      <c r="G93" s="20">
+        <v>70</v>
+      </c>
+      <c r="H93" s="20">
+        <v>70</v>
+      </c>
+      <c r="I93" s="20">
+        <v>70</v>
+      </c>
+      <c r="J93" s="20">
+        <v>70</v>
+      </c>
+      <c r="K93" s="20">
+        <v>70</v>
+      </c>
+      <c r="L93" s="20">
+        <v>70</v>
+      </c>
+      <c r="M93" s="20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="20">
         <v>470</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
-    </row>
-    <row r="95" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="20">
+        <v>470</v>
+      </c>
+      <c r="D94" s="20">
+        <v>470</v>
+      </c>
+      <c r="E94" s="20">
+        <v>470</v>
+      </c>
+      <c r="F94" s="20">
+        <v>470</v>
+      </c>
+      <c r="G94" s="20">
+        <v>470</v>
+      </c>
+      <c r="H94" s="20">
+        <v>470</v>
+      </c>
+      <c r="I94" s="20">
+        <v>470</v>
+      </c>
+      <c r="J94" s="20">
+        <v>470</v>
+      </c>
+      <c r="K94" s="20">
+        <v>470</v>
+      </c>
+      <c r="L94" s="20">
+        <v>470</v>
+      </c>
+      <c r="M94" s="20">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="20">
         <v>85</v>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22"/>
-      <c r="L95" s="22"/>
-    </row>
-    <row r="96" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="20">
+        <v>85</v>
+      </c>
+      <c r="D95" s="20">
+        <v>85</v>
+      </c>
+      <c r="E95" s="20">
+        <v>85</v>
+      </c>
+      <c r="F95" s="20">
+        <v>85</v>
+      </c>
+      <c r="G95" s="20">
+        <v>85</v>
+      </c>
+      <c r="H95" s="20">
+        <v>85</v>
+      </c>
+      <c r="I95" s="20">
+        <v>85</v>
+      </c>
+      <c r="J95" s="20">
+        <v>85</v>
+      </c>
+      <c r="K95" s="20">
+        <v>85</v>
+      </c>
+      <c r="L95" s="20">
+        <v>85</v>
+      </c>
+      <c r="M95" s="20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="21">
+      <c r="B96" s="20">
         <v>70</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22"/>
-      <c r="L96" s="22"/>
-    </row>
-    <row r="97" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="20">
+        <v>70</v>
+      </c>
+      <c r="D96" s="20">
+        <v>70</v>
+      </c>
+      <c r="E96" s="20">
+        <v>70</v>
+      </c>
+      <c r="F96" s="20">
+        <v>70</v>
+      </c>
+      <c r="G96" s="20">
+        <v>70</v>
+      </c>
+      <c r="H96" s="20">
+        <v>70</v>
+      </c>
+      <c r="I96" s="20">
+        <v>70</v>
+      </c>
+      <c r="J96" s="20">
+        <v>70</v>
+      </c>
+      <c r="K96" s="20">
+        <v>70</v>
+      </c>
+      <c r="L96" s="20">
+        <v>70</v>
+      </c>
+      <c r="M96" s="20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="21">
+      <c r="B97" s="20">
         <v>530</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="20">
+        <v>530</v>
+      </c>
+      <c r="D97" s="20">
+        <v>530</v>
+      </c>
+      <c r="E97" s="20">
+        <v>530</v>
+      </c>
+      <c r="F97" s="20">
+        <v>530</v>
+      </c>
+      <c r="G97" s="20">
+        <v>530</v>
+      </c>
+      <c r="H97" s="20">
+        <v>530</v>
+      </c>
+      <c r="I97" s="20">
+        <v>530</v>
+      </c>
+      <c r="J97" s="20">
+        <v>530</v>
+      </c>
+      <c r="K97" s="20">
+        <v>530</v>
+      </c>
+      <c r="L97" s="20">
+        <v>530</v>
+      </c>
+      <c r="M97" s="20">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="21">
+      <c r="B98" s="20">
         <v>229</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="20">
+        <v>229</v>
+      </c>
+      <c r="D98" s="20">
+        <v>229</v>
+      </c>
+      <c r="E98" s="20">
+        <v>229</v>
+      </c>
+      <c r="F98" s="20">
+        <v>229</v>
+      </c>
+      <c r="G98" s="20">
+        <v>229</v>
+      </c>
+      <c r="H98" s="20">
+        <v>229</v>
+      </c>
+      <c r="I98" s="20">
+        <v>229</v>
+      </c>
+      <c r="J98" s="20">
+        <v>229</v>
+      </c>
+      <c r="K98" s="20">
+        <v>229</v>
+      </c>
+      <c r="L98" s="20">
+        <v>229</v>
+      </c>
+      <c r="M98" s="20">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="21">
+      <c r="B99" s="20">
         <v>135</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="20">
+        <v>135</v>
+      </c>
+      <c r="D99" s="20">
+        <v>135</v>
+      </c>
+      <c r="E99" s="20">
+        <v>135</v>
+      </c>
+      <c r="F99" s="20">
+        <v>135</v>
+      </c>
+      <c r="G99" s="20">
+        <v>135</v>
+      </c>
+      <c r="H99" s="20">
+        <v>135</v>
+      </c>
+      <c r="I99" s="20">
+        <v>135</v>
+      </c>
+      <c r="J99" s="20">
+        <v>135</v>
+      </c>
+      <c r="K99" s="20">
+        <v>135</v>
+      </c>
+      <c r="L99" s="20">
+        <v>135</v>
+      </c>
+      <c r="M99" s="20">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B100" s="21">
+      <c r="B100" s="20">
         <v>530</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="20">
+        <v>530</v>
+      </c>
+      <c r="D100" s="20">
+        <v>530</v>
+      </c>
+      <c r="E100" s="20">
+        <v>530</v>
+      </c>
+      <c r="F100" s="20">
+        <v>530</v>
+      </c>
+      <c r="G100" s="20">
+        <v>530</v>
+      </c>
+      <c r="H100" s="20">
+        <v>530</v>
+      </c>
+      <c r="I100" s="20">
+        <v>530</v>
+      </c>
+      <c r="J100" s="20">
+        <v>530</v>
+      </c>
+      <c r="K100" s="20">
+        <v>530</v>
+      </c>
+      <c r="L100" s="20">
+        <v>530</v>
+      </c>
+      <c r="M100" s="20">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B101" s="21">
+      <c r="B101" s="20">
         <v>229</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="20">
+        <v>229</v>
+      </c>
+      <c r="D101" s="20">
+        <v>229</v>
+      </c>
+      <c r="E101" s="20">
+        <v>229</v>
+      </c>
+      <c r="F101" s="20">
+        <v>229</v>
+      </c>
+      <c r="G101" s="20">
+        <v>229</v>
+      </c>
+      <c r="H101" s="20">
+        <v>229</v>
+      </c>
+      <c r="I101" s="20">
+        <v>229</v>
+      </c>
+      <c r="J101" s="20">
+        <v>229</v>
+      </c>
+      <c r="K101" s="20">
+        <v>229</v>
+      </c>
+      <c r="L101" s="20">
+        <v>229</v>
+      </c>
+      <c r="M101" s="20">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="21">
+      <c r="B102" s="20">
         <v>135</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="20">
+        <v>135</v>
+      </c>
+      <c r="D102" s="20">
+        <v>135</v>
+      </c>
+      <c r="E102" s="20">
+        <v>135</v>
+      </c>
+      <c r="F102" s="20">
+        <v>135</v>
+      </c>
+      <c r="G102" s="20">
+        <v>135</v>
+      </c>
+      <c r="H102" s="20">
+        <v>135</v>
+      </c>
+      <c r="I102" s="20">
+        <v>135</v>
+      </c>
+      <c r="J102" s="20">
+        <v>135</v>
+      </c>
+      <c r="K102" s="20">
+        <v>135</v>
+      </c>
+      <c r="L102" s="20">
+        <v>135</v>
+      </c>
+      <c r="M102" s="20">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="21">
+      <c r="B103" s="20">
         <v>754</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-    </row>
-    <row r="104" spans="1:12" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A104" s="53" t="s">
-        <v>243</v>
+      <c r="C103" s="20">
+        <v>754</v>
+      </c>
+      <c r="D103" s="20">
+        <v>754</v>
+      </c>
+      <c r="E103" s="20">
+        <v>754</v>
+      </c>
+      <c r="F103" s="20">
+        <v>754</v>
+      </c>
+      <c r="G103" s="20">
+        <v>754</v>
+      </c>
+      <c r="H103" s="20">
+        <v>754</v>
+      </c>
+      <c r="I103" s="20">
+        <v>754</v>
+      </c>
+      <c r="J103" s="20">
+        <v>754</v>
+      </c>
+      <c r="K103" s="20">
+        <v>754</v>
+      </c>
+      <c r="L103" s="20">
+        <v>754</v>
+      </c>
+      <c r="M103" s="20">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A104" s="49" t="s">
+        <v>242</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="15"/>
@@ -3201,297 +5354,665 @@
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
     </row>
-    <row r="105" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B105" s="12">
         <v>0.37</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-    </row>
-    <row r="106" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="F105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="G105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="H105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="I105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="J105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="K105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="L105" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="M105" s="12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B106" s="12">
         <v>0.25</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-    </row>
-    <row r="107" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="G106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="I106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="J106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="K106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L106" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M106" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B107" s="12">
         <v>0.42</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-    </row>
-    <row r="108" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="F107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="G107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="H107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="I107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="J107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="K107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="M107" s="12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B108" s="12">
         <v>0.63</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-    </row>
-    <row r="109" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="G108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="H108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="I108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="J108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="K108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="L108" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="M108" s="12">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B109" s="12">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
-    </row>
-    <row r="110" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M109" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B110" s="12">
         <v>0.25</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-    </row>
-    <row r="111" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="I110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="J110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="K110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L110" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M110" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B111" s="12">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-    </row>
-    <row r="112" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M111" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B112" s="12">
         <v>0.63</v>
       </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-    </row>
-    <row r="113" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="H112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="I112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="J112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="K112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="L112" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="M112" s="12">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B113" s="12">
         <v>1.96</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-    </row>
-    <row r="114" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="D113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="E113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="F113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="G113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="H113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="I113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="J113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="K113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="L113" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="M113" s="12">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B114" s="12">
         <v>1.28</v>
       </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-    </row>
-    <row r="115" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="D114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="E114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="F114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="G114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="H114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="I114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="J114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="K114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="L114" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="M114" s="12">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B115" s="12">
         <v>1.52</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-    </row>
-    <row r="116" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="D115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="E115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="F115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="G115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="H115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="I115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="J115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="K115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="L115" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="M115" s="12">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B116" s="12">
         <v>0</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-    </row>
-    <row r="117" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="12">
+        <v>0</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0</v>
+      </c>
+      <c r="F116" s="12">
+        <v>0</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0</v>
+      </c>
+      <c r="H116" s="12">
+        <v>0</v>
+      </c>
+      <c r="I116" s="12">
+        <v>0</v>
+      </c>
+      <c r="J116" s="12">
+        <v>0</v>
+      </c>
+      <c r="K116" s="12">
+        <v>0</v>
+      </c>
+      <c r="L116" s="12">
+        <v>0</v>
+      </c>
+      <c r="M116" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B117" s="12">
         <v>1.96</v>
       </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-    </row>
-    <row r="118" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="D117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="E117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="F117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="G117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="H117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="I117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="J117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="K117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="L117" s="12">
+        <v>1.96</v>
+      </c>
+      <c r="M117" s="12">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B118" s="12">
         <v>1.28</v>
       </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-    </row>
-    <row r="119" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="D118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="F118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="G118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="H118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="I118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="J118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="K118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="L118" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="M118" s="12">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B119" s="12">
         <v>1.52</v>
       </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="13"/>
-    </row>
-    <row r="120" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="D119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="E119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="F119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="G119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="H119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="I119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="J119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="K119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="L119" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="M119" s="12">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B120" s="12">
         <v>0</v>
       </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-    </row>
-    <row r="121" spans="1:12" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A121" s="52" t="s">
-        <v>236</v>
+      <c r="C120" s="12">
+        <v>0</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0</v>
+      </c>
+      <c r="F120" s="12">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0</v>
+      </c>
+      <c r="H120" s="12">
+        <v>0</v>
+      </c>
+      <c r="I120" s="12">
+        <v>0</v>
+      </c>
+      <c r="J120" s="12">
+        <v>0</v>
+      </c>
+      <c r="K120" s="12">
+        <v>0</v>
+      </c>
+      <c r="L120" s="12">
+        <v>0</v>
+      </c>
+      <c r="M120" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A121" s="48" t="s">
+        <v>235</v>
       </c>
       <c r="B121" s="16"/>
       <c r="C121" s="17"/>
@@ -3505,81 +6026,173 @@
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>
     </row>
-    <row r="122" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B122" s="19">
         <v>0</v>
       </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-    </row>
-    <row r="123" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="19">
+        <v>0</v>
+      </c>
+      <c r="D122" s="19">
+        <v>0</v>
+      </c>
+      <c r="E122" s="19">
+        <v>0</v>
+      </c>
+      <c r="F122" s="19">
+        <v>0</v>
+      </c>
+      <c r="G122" s="19">
+        <v>0</v>
+      </c>
+      <c r="H122" s="19">
+        <v>0</v>
+      </c>
+      <c r="I122" s="19">
+        <v>0</v>
+      </c>
+      <c r="J122" s="19">
+        <v>0</v>
+      </c>
+      <c r="K122" s="19">
+        <v>0</v>
+      </c>
+      <c r="L122" s="19">
+        <v>0</v>
+      </c>
+      <c r="M122" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B123" s="21">
+      <c r="B123" s="20">
         <v>0</v>
       </c>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22"/>
-    </row>
-    <row r="124" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="20">
+        <v>0</v>
+      </c>
+      <c r="D123" s="20">
+        <v>0</v>
+      </c>
+      <c r="E123" s="20">
+        <v>0</v>
+      </c>
+      <c r="F123" s="20">
+        <v>0</v>
+      </c>
+      <c r="G123" s="20">
+        <v>0</v>
+      </c>
+      <c r="H123" s="20">
+        <v>0</v>
+      </c>
+      <c r="I123" s="20">
+        <v>0</v>
+      </c>
+      <c r="J123" s="20">
+        <v>0</v>
+      </c>
+      <c r="K123" s="20">
+        <v>0</v>
+      </c>
+      <c r="L123" s="20">
+        <v>0</v>
+      </c>
+      <c r="M123" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B124" s="21">
+      <c r="B124" s="20">
         <v>0</v>
       </c>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
-    </row>
-    <row r="125" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="20">
+        <v>0</v>
+      </c>
+      <c r="D124" s="20">
+        <v>0</v>
+      </c>
+      <c r="E124" s="20">
+        <v>0</v>
+      </c>
+      <c r="F124" s="20">
+        <v>0</v>
+      </c>
+      <c r="G124" s="20">
+        <v>0</v>
+      </c>
+      <c r="H124" s="20">
+        <v>0</v>
+      </c>
+      <c r="I124" s="20">
+        <v>0</v>
+      </c>
+      <c r="J124" s="20">
+        <v>0</v>
+      </c>
+      <c r="K124" s="20">
+        <v>0</v>
+      </c>
+      <c r="L124" s="20">
+        <v>0</v>
+      </c>
+      <c r="M124" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B125" s="21">
+      <c r="B125" s="20">
         <v>0</v>
       </c>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="22"/>
-      <c r="L125" s="22"/>
-    </row>
-    <row r="126" spans="1:12" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A126" s="53" t="s">
-        <v>244</v>
+      <c r="C125" s="20">
+        <v>0</v>
+      </c>
+      <c r="D125" s="20">
+        <v>0</v>
+      </c>
+      <c r="E125" s="20">
+        <v>0</v>
+      </c>
+      <c r="F125" s="20">
+        <v>0</v>
+      </c>
+      <c r="G125" s="20">
+        <v>0</v>
+      </c>
+      <c r="H125" s="20">
+        <v>0</v>
+      </c>
+      <c r="I125" s="20">
+        <v>0</v>
+      </c>
+      <c r="J125" s="20">
+        <v>0</v>
+      </c>
+      <c r="K125" s="20">
+        <v>0</v>
+      </c>
+      <c r="L125" s="20">
+        <v>0</v>
+      </c>
+      <c r="M125" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A126" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="B126" s="12"/>
       <c r="C126" s="13"/>
@@ -3593,23 +6206,46 @@
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B127" s="15">
         <v>8296</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
+      <c r="C127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="D127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="E127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="F127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="G127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="H127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="I127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="J127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="K127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="L127" s="15">
+        <v>8296</v>
+      </c>
+      <c r="M127" s="15">
+        <v>8296</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
@@ -3634,10 +6270,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106225A7-BB1C-4057-99BB-6826A9E897D0}">
-  <dimension ref="B3:F47"/>
+  <dimension ref="B3:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4080,26 +6716,34 @@
     </row>
     <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>251</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>218</v>
       </c>
-      <c r="C47" s="57" t="s">
-        <v>253</v>
+      <c r="C47" s="53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
